--- a/blogsite/edu/all.xlsx
+++ b/blogsite/edu/all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="2327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="2998">
   <si>
     <t>《三字经》中教育我们要孝敬父母的一句是（    ）</t>
   </si>
@@ -6999,6 +6999,2019 @@
   </si>
   <si>
     <t>【分析】本题主要考查文言文断句掌握的情况。拿到一篇没有标点符号的古文，（1）先通读全文，了解文意，分析情节。（2）根据文章的内容或层次，先断出几个大的段落或层次，此时注意句首、句末虚词，这样凭借段落、层次或句首、句末虚词，把确有把握的地方断开来。（3）对每一段落或层次按照前后顺序，从头到尾地进行解剖，分出若干个句子，加上恰当的标点。（4）通读全文，进行检查，对个别疑难之处，可根据上下文给以推断。故答案为：C【点评】做这类题必须要通读全文，反复钻研。多读多练习。</t>
+  </si>
+  <si>
+    <t>与“黄鹤楼送孟浩然之广陵”的“之”意思相同的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、以子之矛</t>
+  </si>
+  <si>
+    <t>B、反归取之</t>
+  </si>
+  <si>
+    <t>C、“至之市而忘操之”中的第一个“之”</t>
+  </si>
+  <si>
+    <t>【分析】有时同一个词放到不同的语境里，会有不同的表达效果。特别是一些古词，如“之、乎、者、也”等词。“黄鹤楼送孟浩然之广陵”的“之”是“往”的意思；“至之市而忘操之”中的第一个“之”的含义是“到、往”。以子之矛中的“之”的含义为“的”；反归取之中的“之”的含义是“它”。故答案为：C【点评】做这类题千万不能死板教条，应该把所给词放到语境中去体会，做到灵活运用。</t>
+  </si>
+  <si>
+    <t>下列关联词使用不当的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、你既然懂得了这个道理，就要努力地去做。</t>
+  </si>
+  <si>
+    <t>B、小明因为学习刻苦，所以受到老师的表扬。</t>
+  </si>
+  <si>
+    <t>C、老师一边弹琴，同学们一边唱歌。</t>
+  </si>
+  <si>
+    <t>【分析】关联词语的使用：要弄清分句之间的关系，选择关联词语，检查句子是否通顺，句意是否正确。使用关联词语要搭配要得当，使用一组关联词语是要前后呼应，要"成双配对"，不能交叉使用，这样才能是句意畅通、明确。不要生搬硬套。如：因为......所以.....，既然......就......。一边......一边.....虽然也是关联词，但句子的施动者只能是一个人。故答案为：C【点评】本题主要考查学生关联词语的掌握情况，学生对关联词语的应用应该做到得心应手。</t>
+  </si>
+  <si>
+    <t>下列各句中，划线的成语使用恰当的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、这家伙明知罪行严重，却在从容不迫地抹桌子，好像什么事也没有发生。</t>
+  </si>
+  <si>
+    <t>B、北京电视台的几个经济类节目都办得栩栩如生  ， 显示出编导很有水平。</t>
+  </si>
+  <si>
+    <t>C、巍峨的埃菲尔铁塔、雄伟的凯旋门、庄严的巴黎圣母院，这些名胜古迹令人流连忘返。</t>
+  </si>
+  <si>
+    <t>【分析】在平时的学习中注意积累成语，并理解成语的意思，做到会读、会写、会用。尤其是固定成语的识记。“从容不迫”表示沉着镇静,不慌不忙。属于褒义词。“栩栩如生”表示活泼生动的样子。指艺术形象非常逼真，如同活的一样。“流连忘返”的含义为：比喻喜欢、迷醉某种事物而不愿或忘记离开。故答案为：C【点评】此题主要考查学生对成语掌握的熟练程度及灵活运用成语造句的能力。</t>
+  </si>
+  <si>
+    <t>与“罗贯中——《三国演义》”最相似的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、宋江——《水浒传》</t>
+  </si>
+  <si>
+    <t>B、吴承恩——《西游记》</t>
+  </si>
+  <si>
+    <t>C、施耐庵——《红楼梦》</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生文学常识的掌握情况，多了解一些文学常识有利于学生更深入的理解文章内涵以及作者的思想感情，也有利于提高学生的语文水平。题干是作者对应作品。而A中“宋江”不是《水浒传》的作者，是《水浒传》里面的一个人物。C中《红楼梦》的作者是曹雪芹。故答案为：B【点评】学生应该在日常学习中注意积累并掌握一些文学常识。</t>
+  </si>
+  <si>
+    <t>下列词语中，注音不完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、才干（cái  gàn）    水寨（shuǐ  zài）    迟延（chí  yán）</t>
+  </si>
+  <si>
+    <t>B、调度（diào  dù）    丞相（chéng  xiàng）    吩咐（fēn  fù）</t>
+  </si>
+  <si>
+    <t>C、负责（fù  zé）    乘机（chéng  jī）    勉强（mián  qiáng）</t>
+  </si>
+  <si>
+    <t>【分析】字音题要注意平时的积累，对于课本上出现的常用字的字音一定要读准，要注意形近字的读音和多音字的读音。平时要注意积累，读准字音，标准调号。如：勉强（miǎn qiǎng），而不能读成（mián  qiáng）。故答案为：C【点评】本题考查学生对汉字的认读能力，主要是字音，还要注意多音字的读法。</t>
+  </si>
+  <si>
+    <t>A、恍然大悟      德高望重      可见一斑      狂风怒号</t>
+  </si>
+  <si>
+    <t>B、革故鼎新      各抒巳见      独出心载      曲高和寡</t>
+  </si>
+  <si>
+    <t>C、实事求事      发奋图强      雅俗共赏      坚持不懈</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目的关键是：在平时的学习中注意积累成语，并理解成语的意思，做到会读、会写、会用。尤其是固定成语的识记：例如独出心裁的“裁”不能写成“载”；“实事求是”的“是”不能写成“事”；“发愤图强”的“愤”不能写成“奋”；“各抒己见”的“己”不能写成“已”或者“巳”。故答案为：A【点评】此题主要考查学生对成语掌握的熟练程度。</t>
+  </si>
+  <si>
+    <t>下列词语没有错别字的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、藕断丝连     亭台楼阁     不容争辩     一如既往</t>
+  </si>
+  <si>
+    <t>B、风期雪压     倾盆大雨     千篇一律     低头折节</t>
+  </si>
+  <si>
+    <t>C、夜以继日     浮想连翩     如饥似渴     毫不忧豫</t>
+  </si>
+  <si>
+    <t>D、囫囵吞枣     不求甚解     安然无样     再接再厉</t>
+  </si>
+  <si>
+    <t>【分析】学习和复习的过程中可以进行适当的分类整理，比如同音字、多音字、形近字积累等。同时要加强对常用汉字的认读练习和理解运用。选项B：应为：“风欺雪压”；选项C：应为：“浮想联翩”；选项D：应为：“安然无恙”。故答案为：A。【点评】本题考查学生对汉字的认读和书写能力。</t>
+  </si>
+  <si>
+    <t>2016年出生的人属相是申猴，那2017年出生的人属相是（    ）</t>
+  </si>
+  <si>
+    <t>A、午马</t>
+  </si>
+  <si>
+    <t>B、未羊</t>
+  </si>
+  <si>
+    <t>C、酉鸡</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生的文化常识。文化知识，是文化和知识的总称。 包括了中国传统文化知识，世界文化知识，各个学科的知识，社会各个方面的知识等学生平时应该熟记一些名著、名作、一些知名作家以及课本上的文化常识。故答案为：C【点评】文化常识需要学生日常积累，多读书，并且扩大读书学科范围。</t>
+  </si>
+  <si>
+    <t>“美丽的菊花在秋雨里频频点头。”这句话用的修辞方法是（  ）。</t>
+  </si>
+  <si>
+    <t>A、比喻</t>
+  </si>
+  <si>
+    <t>B、拟人</t>
+  </si>
+  <si>
+    <t>C、排比</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生修辞方法的运用。比喻：根据事物的相似点，用具体的、浅显、熟知的事物来说明抽象的、深奥的、生疏的事物，即打比方。分为明喻、暗喻和借喻。拟人：把物当作人来写，赋予物以人的言行或思想感情，用描写人的词来描写物。排比：把结构相同或相似、语气一致、意思相关联的三个以上的句子或成分排列在一起。故答案为：B【点评】本题主要考查学生的语言表达能力，注意平时应该多读多练笔。</t>
+  </si>
+  <si>
+    <t>下列朗读停顿最正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、儿／应声答曰：“未闻／孔雀／是夫子家／禽。”</t>
+  </si>
+  <si>
+    <t>B、儿／/应声答曰：“未闻／孔雀／是夫子／家禽。”</t>
+  </si>
+  <si>
+    <t>C、儿应声／答曰：“未／闻孔雀／是夫子家／禽。”</t>
+  </si>
+  <si>
+    <t>D、儿应声／答曰：“未闻／孔雀／是夫子／家禽。”</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目首先要理解句子的意思，然后根据理解划分停顿。这句话的意思是：孩子应声回答：“没听说过孔雀是先生家的家禽。”。选项B：“家禽”放在一起，曲解了句子的意思；选项C：“未闻”是“没听说过”，不能分开；选项D：同选项B；故答案为：A。【点评】此题主要考查学生对句子的朗读停顿的划分能力。</t>
+  </si>
+  <si>
+    <t>下列词语中，划线字的解释有误的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、甚聪慧（很，非常）</t>
+  </si>
+  <si>
+    <t>B、手疾眼快（快，迅速）</t>
+  </si>
+  <si>
+    <t>C、竭尽全力（全部用出 ）</t>
+  </si>
+  <si>
+    <t>D、瞑目蹲身（昏花迷离）</t>
+  </si>
+  <si>
+    <t>【分析】在平时的学习中注意积累和掌握词语的含义，并能灵活运用。选项D：瞑为动词，闭上的意思。故答案为：D。【点评】此题主要考查学生对词语含义的掌握情况。</t>
+  </si>
+  <si>
+    <t>下列词语中，没有错别字的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、文质彬彬   放涎无礼   攻无不刻   襟飘带舞</t>
+  </si>
+  <si>
+    <t>B、应接不瑕   负荆请罪   势不可挡   杯水车薪</t>
+  </si>
+  <si>
+    <t>C、繁花似锦   绞尽脑汁   了如指掌   美轮美奂</t>
+  </si>
+  <si>
+    <t>D、膀大腰粗   迫不及待   深情厚义   含辛茹苦</t>
+  </si>
+  <si>
+    <t>【分析】学习和复习的过程中可以进行适当的分类整理，比如同音字、多音字、形近字积累等。同时要加强对常用汉字的认读练习和理解运用。选项A：应为：放诞无礼；攻无不克；选项B：应为：应接不暇；势不可当；选项D：应为：深情厚谊；故答案为：C。【点评】本题考查学生对汉字的认读和书写能力。</t>
+  </si>
+  <si>
+    <t>下列各组词语中，划线字读音正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、擂鼓（léi）   大臣（chén）      似乎（shì）</t>
+  </si>
+  <si>
+    <t>B、造诣（yì）    匕首（bǐ）        妖娆（ráo）</t>
+  </si>
+  <si>
+    <t>C、抽噎（yē）    入场券（juàn）    侮辱（rǔ）</t>
+  </si>
+  <si>
+    <t>D、陷阱（jǐn）   脊梁（jǐ）        绅士（shēng）</t>
+  </si>
+  <si>
+    <t>【分析】字音题要注意平时的积累，对于课本上出现的常用字的字音一定要读准，要注意形近字的读音和多音字的读音。平时要注意积累，读准字音，标准调号。拿不准的字要查字典。选项A：“似”是多音字，在这里应读：“sì”；选项C：“券”在这里应读“quàn”；选项D：“阱”在这里应读“jǐng”；“绅”在这里应读“shēn”；故答案为：B。【点评】此题主要考查学生对拼音及字形的掌握情况。</t>
+  </si>
+  <si>
+    <t>《乌鸦喝水》这课告诉我们（    ）</t>
+  </si>
+  <si>
+    <t>A、乌鸦口渴了想喝水。</t>
+  </si>
+  <si>
+    <t>B、乌鸦是怎样喝到水的。</t>
+  </si>
+  <si>
+    <t>C、在困难面前要动脑筋想办法。</t>
+  </si>
+  <si>
+    <t>课文内容理解；乌鸦喝水</t>
+  </si>
+  <si>
+    <t>下列词语中划线词意思相同的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、后会有期     不期而遇</t>
+  </si>
+  <si>
+    <t>B、舍本求末     退避三舍</t>
+  </si>
+  <si>
+    <t>C、人去楼空     何去何从</t>
+  </si>
+  <si>
+    <t>D、瞻前顾后     三顾茅庐</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生对一字多义的理解掌握情况，要结合语境去理解。A后会有期：期:时间。以后有见面的时候(用在分别时安慰对方)。不期而遇：期：约定时日。事先没有约定而遇见。指意外碰见，没有指定的时间、地点 ，让人感觉突如其来。B舍本求末：舍：舍弃；抛弃根本的、主要的，而去追求枝节的、次要的。比喻不抓根本环节，而只在枝节问题上下功夫。退避三舍：舍：古时行军计程以三十里为一舍。主动退让九十里。比喻退让和回避，避免冲突。C人去楼空：去：离去。人已离去，楼中空空。比喻故地重游时睹物思人的感慨。 何去何从：去：离开；从：跟随。离开哪儿，走向哪儿。多指在重大问题上选择什么方向。D瞻前顾后：顾：回头看。 看看前面，又看看后面。形容做事之前考虑周密慎重。也形容顾虑太多，犹豫不决。故答案为：C【点评】主要考查学生对多义字的理解，先理解字义，然后根据词语的意思再一 一对号座。</t>
+  </si>
+  <si>
+    <t>下列词语中没有错别字的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、波光磷磷   保佑   信服</t>
+  </si>
+  <si>
+    <t>B、人声鼎沸   抽噎   倜傥</t>
+  </si>
+  <si>
+    <t>C、不假思索   箧意   畅游</t>
+  </si>
+  <si>
+    <t>D、眼花瞭乱   炽热   清澈</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A磷——粼B正确。C箧——惬D瞭——眼花缭乱。故答案为：B【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>选出没有错别字的一组词语（    ）</t>
+  </si>
+  <si>
+    <t>A、洞穴海鸥美餐</t>
+  </si>
+  <si>
+    <t>B、企图颓丧真察</t>
+  </si>
+  <si>
+    <t>C、邦球朝笑喘气</t>
+  </si>
+  <si>
+    <t>字形；自然之道</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。A正确B真察——侦察C邦球——棒球、朝笑——嘲笑。故答案为：A【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>文章开头写作者家里生活拮据的作用是（    ）</t>
+  </si>
+  <si>
+    <t>A、强调“我”家急需一辆汽车。</t>
+  </si>
+  <si>
+    <t>B、强调资本主义社会的平民生活艰苦。</t>
+  </si>
+  <si>
+    <t>C、起衬托作用，为下文“还汽车”做铺垫，突出文章的中心思想。</t>
+  </si>
+  <si>
+    <t>课文内容理解；中彩那天</t>
+  </si>
+  <si>
+    <t>【分析】本题考查写作技巧。文章开头写作者家里生活拮据的作用是起衬托作用，为下文“还汽车”做铺垫，突出文章的中心思想。故答案为：C【点评】本题主要考查对作者写作技巧的把握能力。</t>
+  </si>
+  <si>
+    <t>找出读音错误的词语（    ）</t>
+  </si>
+  <si>
+    <t>A、rì chū日出</t>
+  </si>
+  <si>
+    <t>B、jiù zēng ān旧曾谙</t>
+  </si>
+  <si>
+    <t>C、jiāng nán江南</t>
+  </si>
+  <si>
+    <t>D、lǜ rú lán绿如蓝</t>
+  </si>
+  <si>
+    <t>拼音；忆江南</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生对本课生字的掌握情况，学生应在理解的基础上认读生字。字音题的考查只要求识记不要求拼写,即侧重于考查识记、辨别、确定字音的能力,准确地判断其正确与否。识记现代汉语普通话常用字的字音,侧重的是“常用字的字音”。考查主要涉及同音字、形声字、形近字、多音字、习惯性误读字、方言字、统读字、难读字等。多音字、习惯性误读字是考试的重点、形声字、形近字次之。多音字、难读字是“认读”的难点。复习时应分类整理记忆，以记忆为主，把记忆和训练结合起来。本题中：A正确B “曾”是多音字，zēng  改为 céngC正确D正确故答案为：B【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
+  </si>
+  <si>
+    <t>“春来江水绿如蓝”（    ）</t>
+  </si>
+  <si>
+    <t>A、这句诗中的“蓝”是指蓝颜色。</t>
+  </si>
+  <si>
+    <t>B、这句诗中的“蓝”是指叶子为蓝绿色的一种植物。</t>
+  </si>
+  <si>
+    <t>字义；忆江南</t>
+  </si>
+  <si>
+    <t>【分析】“春来江水绿如蓝”诗句的大意思是：春天的江水绿得比蓝草还要绿。“相”："蓝"不是蓝色，是叶子为蓝绿色的一种植物。故答案为：B。【点评】首先理解诗句的意思，在此基础上再理解词义。</t>
+  </si>
+  <si>
+    <t>“相看两不厌”和“湖光秋月两相和”（    ）</t>
+  </si>
+  <si>
+    <t>A、这两句诗中的“相”意思相同。</t>
+  </si>
+  <si>
+    <t>B、这两句诗中的“相”意思不同。</t>
+  </si>
+  <si>
+    <t>【分析】“相看两不厌”诗句的大意思是：敬亭山和我对视着,谁都看不够。“相”：相互。“湖光秋月两相和”诗句的大意思是：湖水映着秋月,秋月照着湖水。“相”：相互。故答案为：A。【点评】首先理解诗句的意思，在此基础上再理解词义。</t>
+  </si>
+  <si>
+    <t>“能不忆江南？”（    ）</t>
+  </si>
+  <si>
+    <t>A、这句是疑问句。</t>
+  </si>
+  <si>
+    <t>B、这句是反问句。</t>
+  </si>
+  <si>
+    <t>修辞手法；忆江南</t>
+  </si>
+  <si>
+    <t>【分析】反问句：是一种修辞方法，是用反诘的语气表达一个肯定的意思，答案已经蕴涵在问句中了，不需要对方来回答，也就是明知故问。它们都运用了问句的形式，表达了某种确定的意思。常和“难道”、“怎么”等反问词联接。综上所述，句子“能不忆江南？”是反问句。故答案为：B【点评】考查学生对反问修辞手法的掌握。要求学生能判断，会应用。</t>
+  </si>
+  <si>
+    <t>下列词语中完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、赞扬  秘书  壮烈牺牲  巨大悲痛</t>
+  </si>
+  <si>
+    <t>B、凯旋  遗体  疑固鲜血  永驻人间</t>
+  </si>
+  <si>
+    <t>C、弥漫  硝烟  和平之花  制至战争</t>
+  </si>
+  <si>
+    <t>D、威胁  呼吁  身体建康  充满阳光</t>
+  </si>
+  <si>
+    <t>字形；一个中国孩子的呼声</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A正确B疑固鲜血——凝固鲜血C制至战争——制止战争D身体建康——身体健康故答案为：A【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>选择正确的说法（    ）</t>
+  </si>
+  <si>
+    <t>A、《一个中国孩子的呼声》是一个中国孩子写给联合国秘书长的信，写出了他爸爸为维护和平而壮烈牺牲，他无比怀念爸爸的思想感情。</t>
+  </si>
+  <si>
+    <t>B、《一个中国孩子的呼声》是一个中国孩子写给联合国秘书长的信。写出了他爸爸为维护和平而壮烈牺牲，他要学习爸爸勇敢地用自己的生命保卫和平。</t>
+  </si>
+  <si>
+    <t>C、《一个中国孩子的呼声》是一个中国孩子写给联合国秘书长的信。写出了他对爸爸为维护和平壮烈牺牲的怀念与崇敬，饱含着一个孩子渴望和平的真挚感情。</t>
+  </si>
+  <si>
+    <t>课文内容理解；一个中国孩子的呼声</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。《一个中国孩子的呼声》是一个中国孩子写给联合国秘书长的信。写出了他对爸爸为维护和平壮烈牺牲的怀念与崇敬，饱含着一个孩子渴望和平的真挚感情。故答案为：C【点评】此题考查学生对作品内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>结合课文内容选择划线词语的解释（    ）    两年以前，我亲爱的爸爸作为联合国的一名军事观察员，在执行维护和平的任务中壮烈牺牲。</t>
+  </si>
+  <si>
+    <t>A、祭祀时宰杀的牲畜。</t>
+  </si>
+  <si>
+    <t>B、为了正义的目的舍弃自己的生命。</t>
+  </si>
+  <si>
+    <t>C、放弃或者损害一方的利益。</t>
+  </si>
+  <si>
+    <t>词义；一个中国孩子的呼声</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。牺牲：为了正义的目的舍弃自己的生命。故答案为：B。【点评】本题考查学生对词语的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>选择排列正确的一组（    ）</t>
+  </si>
+  <si>
+    <t>A、小溪  大海  小河  大江  泉水</t>
+  </si>
+  <si>
+    <t>B、大海  泉水  小河  小溪  大江</t>
+  </si>
+  <si>
+    <t>C、泉水  小溪  小河  大江  大海</t>
+  </si>
+  <si>
+    <t>D、大江  小溪  大海  泉水  小河</t>
+  </si>
+  <si>
+    <t>词义；夜莺的歌声</t>
+  </si>
+  <si>
+    <t>【分析】此题按照范围小到大排序：泉水  小溪  小河  大江  大海。故答案为：C【点评 】此题主要考查给词语排序的能力。</t>
+  </si>
+  <si>
+    <t>下列划线词语使用不当的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、只有刻苦勤奋，珍惜时间，迎难而上才能登上理想的空中楼阁。</t>
+  </si>
+  <si>
+    <t>B、在崎岖的山路上，横七竖八地躺着许多敌人的尸体。</t>
+  </si>
+  <si>
+    <t>C、夜莺在兴致勃勃地唱着，但是那歌声的意思游击队员早已知道了。</t>
+  </si>
+  <si>
+    <t>D、班长斩钉截铁地说了声“走”，带头向棋盘陀走去。</t>
+  </si>
+  <si>
+    <t>成语；夜莺的歌声</t>
+  </si>
+  <si>
+    <t>【分析】本题考查词语的运用。学生要明确词语的意思及用法，在具体语境中体会词语使用的正确与否．词语在句中要使语言表达更准确，简洁，要和句子所表达的感情色彩相一致．A项“空中楼阁”悬在半空中的阁楼。比喻虚幻的事物或脱离实际的空想。与对应的语境不符。B项“横七竖八”形容某东西摆放杂乱，毫无规律。与对应的语境相符。C项“兴致勃勃”兴致：兴趣；勃勃：旺盛的样子。形容兴头很足。与对应的语境相符。D项“斩钉截铁”形容说话或行动坚决果断，毫不犹豫。与对应的语境相符。故答案为：A【点评】在平时的复习中应养成规范使用汉语言文字的习惯，不要被一些媒体的错误用法所误导，并注重积累。积累一些常见的近义词、易错词，注意区分近义词中不同语素的含义，做题时根据语境分析哪个更合适；更重要的是在阅读中培养语感，注意词语使用的语境。</t>
+  </si>
+  <si>
+    <t>《夜莺之歌》这篇文章（    ）</t>
+  </si>
+  <si>
+    <t>A、反映“小夜莺”是一个天真、可爱的孩子。</t>
+  </si>
+  <si>
+    <t>B、表现了“小夜莺”机智勇敢的特点。</t>
+  </si>
+  <si>
+    <t>C、赞扬了“小夜莺”的机智勇敢和爱国主义精神</t>
+  </si>
+  <si>
+    <t>课文内容理解；夜莺的歌声</t>
+  </si>
+  <si>
+    <t>【分析】依据课文内容不难理解，《夜莺之歌》这篇文章赞扬了“小夜莺”的机智勇敢和爱国主义精神。故答案为：C【点评】此题主要考查对课文内容的理解和识记。</t>
+  </si>
+  <si>
+    <t>选出划线词语使用不正确的一项（    ）</t>
+  </si>
+  <si>
+    <t>A、人们推推搡搡地把他迎进屋。</t>
+  </si>
+  <si>
+    <t>B、室内一片狼藉，像是刚刚经过一场很大的劫难。</t>
+  </si>
+  <si>
+    <t>C、他艰难地往前走着，一个趔趄险些摔倒在地。</t>
+  </si>
+  <si>
+    <t>D、河水打着漩涡哗哗地向前流着。</t>
+  </si>
+  <si>
+    <t>词义；小英雄雨来</t>
+  </si>
+  <si>
+    <t>【分析】本题考查词语的运用。学生要明确词语的意思及用法，在具体语境中体会词语使用的正确与否．词语在句中要使语言表达更准确，简洁，要和句子所表达的感情色彩相一致．A项“推推搡搡”粗暴地、接连不断地猛推。与对应的语境不符。B、C、D正确。故答案为：A【点评】在平时的复习中应养成规范使用汉语言文字的习惯，不要被一些媒体的错误用法所误导，并注重积累。积累一些常见的近义词、易错词，注意区分近义词中不同语素的含义，做题时根据语境分析哪个更合适；更重要的是在阅读中培养语感，注意词语使用的语境。</t>
+  </si>
+  <si>
+    <t>结合句子划线词语的意思，找出理解不正确的一项（    ）</t>
+  </si>
+  <si>
+    <t>A、风一吹，鹅毛般的苇絮，就飘飘悠悠地飞起来。飘飘悠悠——本文指苇絮从空中轻缓地往下降。</t>
+  </si>
+  <si>
+    <t>B、“蠢东西！”中尉想着心事，轻蔑地冷笑了一下。轻蔑——轻轻地看</t>
+  </si>
+  <si>
+    <t>C、爸爸对妈妈说：“鬼子又‘扫荡’了，民兵都到区上集合。一两个月才回来。”扫荡——本文指日本鬼子企图用武力消灭抗日根据地军民。</t>
+  </si>
+  <si>
+    <t>D、老人们说：“有志不在年高  ， 雨来是个好孩子。”有志不在年高——有没有志气，不在乎年龄的大小。本课指雨来人小志气大。</t>
+  </si>
+  <si>
+    <t>【分析】词语理解的考查。认真阅读短文，联系上下文，正确理解词义。A 正确B 轻蔑——轻视；看不起。C 正确D 正确故答案为：B【点评】本题考查学生对课文中重点词语的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>选出用字组词错误的一组（    ）</t>
+  </si>
+  <si>
+    <t>A、杂：杂活儿  杂粮  杂音  杂质</t>
+  </si>
+  <si>
+    <t>B、当：当场  当今  当面  当心</t>
+  </si>
+  <si>
+    <t>C、傍：傍晚  傍明  傍样  依山傍水</t>
+  </si>
+  <si>
+    <t>D、种：种地  种田  种花  种植</t>
+  </si>
+  <si>
+    <t>字形；字义；四时田园杂兴</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生对形近字的辨析，通过比较部首、字义、组词记忆生字。还有些形近字的读音有的也是相近或相同的，需要平时学习积累的时候细心区分记忆。A正确B正确C傍：榜样。D正确故答案为：C【点评】主要测试学生对形近字的掌握，从读音、结构、字义三方面加以区别，通过比较组词记忆生字。</t>
+  </si>
+  <si>
+    <t>下列关于作者及其作品说法有误的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、范成大的田园诗在中国诗歌史上别具一格，扩大了陶渊明以来田园诗所表现的内容。</t>
+  </si>
+  <si>
+    <t>B、范成大晚年写的《四时田园杂兴》描述了江南农村生活的各个方面，展示了丰富多彩的唐代风土人情，富有浓郁的乡土气息。</t>
+  </si>
+  <si>
+    <t>C、范成大把对农村自然景色的描写和对封建剥削的揭露结合起来，赋予诗句以更深刻的内容。</t>
+  </si>
+  <si>
+    <t>D、范成大通过深入的观察和切身的体验领略了农民勤劳、淳朴的品质和他们生活的苦乐，流露出诗人的同情和共鸣。</t>
+  </si>
+  <si>
+    <t>课文内容理解；四时田园杂兴</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。A正确B 错误。范成大晚年写的《四时田园杂兴》用清新的笔调,对农村初夏时的紧张劳动气氛,作了较为细腻的描写。C正确D正确故答案为：B【点评】此题考查学生对作品内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>你认为“推敲”的含义应该是（    ）</t>
+  </si>
+  <si>
+    <t>A、推门和敲门。</t>
+  </si>
+  <si>
+    <t>B、把推门改成敲门。</t>
+  </si>
+  <si>
+    <t>C、对文章或问题反复思考和琢磨。</t>
+  </si>
+  <si>
+    <t>词义；全神贯注</t>
+  </si>
+  <si>
+    <t>【分析】词语理解的考查。认真阅读短文，联系上下文，正确理解词义。推敲：对文章或问题反复思考和琢磨。故答案为：C【点评】本题考查学生对课文中重点词语的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>选择说法正确的。（    ）</t>
+  </si>
+  <si>
+    <t>A、“风景旧曾谙”的“曾”是多音字。</t>
+  </si>
+  <si>
+    <t>B、“玩赏”和“游览”意思相近。</t>
+  </si>
+  <si>
+    <t>C、“变化多端”的“端”的词义是：项目。</t>
+  </si>
+  <si>
+    <t>D、“我攀登过峰峦雄伟的泰山，游览过红叶似火的香山”，缩写成“我攀登过泰山，游览过香山”，这是错的。</t>
+  </si>
+  <si>
+    <t>拼音；字义；词义；扩写、缩写句子；七月的天山</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾有关知识，比较判断正误。A正确。B  玩赏：因喜爱而观赏、把玩,领略其中情趣。游览：从容地到各处参观、欣赏名胜、风景等。C “变化多端”的“端”的词义是：头绪。形容变化极多。也指变化很大。粗细各异，富有变化。D“我攀登过峰峦雄伟的泰山，游览过红叶似火的香山”，缩写成“我攀登过泰山，游览过香山”，这是错的。【点评】此题综合考查了多音字、词义、字义和缩句的辨析能力，解答时一定要认真分析判断。</t>
+  </si>
+  <si>
+    <t>比较下面每组的句子，找出意思改变的句子。（    ）</t>
+  </si>
+  <si>
+    <t>A、原来像亚里士多德这样的大哲学家，说的话也不是全都对的。原来像亚里士多德这样的大哲学家，说的话也是全都不对的。</t>
+  </si>
+  <si>
+    <t>B、他提出的问题很不寻常，常常使老师很难解答。他提出很不寻常的问题。常常使老师很难解答。</t>
+  </si>
+  <si>
+    <t>C、铁球往下落的速度跟铁球的轻重没有关系。铁球的轻重跟铁球往下落的速度没有关系。</t>
+  </si>
+  <si>
+    <t>语言表达；两个铁球同时着地</t>
+  </si>
+  <si>
+    <t>【分析】A“说的话也不是全都对的。”意思是“说的话有错的”。/  意思是“说的话也是全都不对的。”  上下两句意思不同。B上下两句语序不同，但意思相同。C上下两句语序不同，但意思相同。【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>读下面的话，写出自己的看法。    是呀，如果我们在生活中能将心比心，就会对老人生出一份尊重，对孩子增加一份关爱，就会使人与人之间多一些宽容和理解。你认为这段话是（    ）</t>
+  </si>
+  <si>
+    <t>A、作者说的。</t>
+  </si>
+  <si>
+    <t>B、母亲教育女儿的话。</t>
+  </si>
+  <si>
+    <t>C、作者的想法。</t>
+  </si>
+  <si>
+    <t>课文内容理解；将心比心</t>
+  </si>
+  <si>
+    <t>【分析】谈自己的看法，回答这种开放性题目时需注意两点：一要联系文章的主旨，二要结合个人的认识。依据课文内容可知，这段话是作者的想法。故答案为：C。【点评】此题属于开放性试题，结合文本内容和生活实际。表述正确，文通句顺，书写认真即可。</t>
+  </si>
+  <si>
+    <t>从下面选出一句说明“将心比心”的话。（    ）</t>
+  </si>
+  <si>
+    <t>A、先天下之忧而忧，后天下之乐而乐。</t>
+  </si>
+  <si>
+    <t>B、己所不欲，勿施于人。</t>
+  </si>
+  <si>
+    <t>语言表达；诗文朗读、默写、翻译；将心比心</t>
+  </si>
+  <si>
+    <t>【分析】A 先天下之忧而忧，后天下之乐而乐。意思：应当在天下人忧愁之前先忧愁,在天下人都享乐之后才享乐.用现在的话说,就是吃苦在前,享乐在后。B 己所不欲，勿施于人。意思：自己不愿为之事，何苦为难别人?善待别人，也就是善待自己;宽容别人，也就是宽容自己;尊重别人，也会受到别人的尊重。故答案为：B。【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>《扁鹊治病》告诉我们（    ）</t>
+  </si>
+  <si>
+    <t>A、身体不好就要去医治。</t>
+  </si>
+  <si>
+    <t>B、不要过于相信自己，每个人都会生病的。</t>
+  </si>
+  <si>
+    <t>C、不要因为怕有病而不肯医治。比喻掩饰缺点，不愿改正，会造成严重后果。</t>
+  </si>
+  <si>
+    <t>课文内容理解；扁鹊治病</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。《扁鹊治病》告诉我们不要因为怕有病而不肯医治。比喻掩饰缺点，不愿改正，会造成严重后果。故答案为：C【点评】此题考查学生对作品内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>对下面的句子理解最准确的是（    ）高峰与深谷咫尺为邻，近万米的强烈地形反差，构成了堪称世界第一的壮丽景观。</t>
+  </si>
+  <si>
+    <t>A、这句话说明了雅鲁藏布大峡谷与珠穆朗玛峰相距很远，却像邻居，因此景色壮观。</t>
+  </si>
+  <si>
+    <t>B、这句话说明了雅鲁藏布大峡谷是世界第一壮观的景象。</t>
+  </si>
+  <si>
+    <t>C、这句话形象地点明了雅鲁藏布大峡谷所处的特殊地理位置——与珠穆朗玛峰紧紧相邻，因此，高耸的山峰和低陷的峡谷形成的反差才显得格外突出。</t>
+  </si>
+  <si>
+    <t>课文内容理解；雅鲁藏布大峡谷</t>
+  </si>
+  <si>
+    <t>【分析】理解句子含义题，一是要抓住关键词语，二是要联系课文内容来理解。这句话形象地点明了雅鲁藏布大峡谷所处的特殊地理位置——与珠穆朗玛峰紧紧相邻，因此，高耸的山峰和低陷的峡谷形成的反差才显得格外突出。故答案为：C。【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>排列句子顺序。下面有三种答案，选择正确的答案。（    ）①终点线上也站满了蚂蚁，有的举着树叶，有的举着果壳。②他们你追我赶，大步冲向终点。③在一个阳光灿烂的日子里，蚂蚁王国的运动会隆重开幕了。④因为他们都知道“友谊第一，比赛第二”的道理。⑤瞧，一队蚂蚁正在森林里进行跑步比赛。⑥大家在欢快地唱歌跳舞，一起为参赛的运动员加油。⑦获得冠军的蚂蚁兴高采烈，没有获得名次的蚂蚁也很开心。⑧这次的蚂蚁运动会在一片欢声笑语中结束了。</t>
+  </si>
+  <si>
+    <t>A、③，⑤，②，①，⑥，⑦，④，⑧</t>
+  </si>
+  <si>
+    <t>B、③，⑥，②，①，⑦，④，⑤，⑧</t>
+  </si>
+  <si>
+    <t>C、③，⑤，①，②，⑥，⑦，④，⑧</t>
+  </si>
+  <si>
+    <t>句子排序、仿写；雅鲁藏布大峡谷</t>
+  </si>
+  <si>
+    <t>【分析】连贯类题目做题时要注意把握基本内容，初步分层归类，先在小范围内排序，然后再考虑层次间的衔接，其中应先找出相关联词、代词以及表时间、地点的词语，然后据此进行句间连缀排列。在上面排列的基础之上，再诵读语段，检查确定。细读不难发现语段是按事情的发展顺序写的，恰当的排序为：③，⑤，②，①，⑥，⑦，④，⑧。故答案为：A【点评】该题考查对句子进行排序的能力，此外还考查学生对语段的整体把握能力、逻辑思维能力和语言组织能力。</t>
+  </si>
+  <si>
+    <t>选出排列正确的一组大写字母。（    ）</t>
+  </si>
+  <si>
+    <t>A、A  D  F  E  G  J</t>
+  </si>
+  <si>
+    <t>B、H  J  K  L  N  O</t>
+  </si>
+  <si>
+    <t>C、J  N  M  O  Q  P</t>
+  </si>
+  <si>
+    <t>D、R  T  S  V  W  X</t>
+  </si>
+  <si>
+    <t>拼音；小木偶的故事</t>
+  </si>
+  <si>
+    <t>【分析】音序排列就是按26个大写字母的先后顺序从新排列，26个英文字母的大写顺序：A、B、C、D、E、F、G、H、I、J、K、L、M、N、O、P、Q、R、S、T、U、V、W、X、Y、Z。故答案为：B。【点评】此题主要考查按音序查排列字母的能力。</t>
+  </si>
+  <si>
+    <t>下面有一组童话全是安徒生写的是（    ）</t>
+  </si>
+  <si>
+    <t>A、《鳄鱼的眼泪》、《白雪公主》、《睡美人》</t>
+  </si>
+  <si>
+    <t>B、《丑小鸭》、《皇帝的新装》、《卖火柴的小女孩》</t>
+  </si>
+  <si>
+    <t>C、《渔夫和金鱼的故事》、《小红帽》、《穷人和富人》</t>
+  </si>
+  <si>
+    <t>文化常识；小木偶的故事</t>
+  </si>
+  <si>
+    <t>【分析】文学常识的信息点有：作者名（字、号）、称谓、生活时代、作品名、体裁、书中人物、主要情节、作品主题及风格、流派等，阅读作品时要注意记忆，根据考试的要求作出相应的解答。A《鳄鱼的眼泪》作者小菲特、《白雪公主》、《睡美人》作者格林兄弟。B安徒生  C《渔夫和金鱼的故事》作者普希金、《小红帽》作者理查德.扎克斯、《穷人和富人》作者作者格林兄弟。故答案为：B。【点评】主要考查学生对文化常识的掌握，要求学生平时多记多积累。</t>
+  </si>
+  <si>
+    <t>读下面的词语，选择排列正确的一组（    ）</t>
+  </si>
+  <si>
+    <t>A、篇   段   词   字   句</t>
+  </si>
+  <si>
+    <t>B、篇   段   句   词   字</t>
+  </si>
+  <si>
+    <t>C、段   篇   词   字   句</t>
+  </si>
+  <si>
+    <t>字义；题西林壁</t>
+  </si>
+  <si>
+    <t>【分析】按结构划分，字连成词，词连成句，句连成段，段连成篇。即：篇   段   句   词   字。故答案为：B。【点评】此题考查学生给词语排序的能力。</t>
+  </si>
+  <si>
+    <t>选择四组成语中写得全对的一组（    ）</t>
+  </si>
+  <si>
+    <t>A、完壁归赵  负荆请罪  应接不瑕   同心协力</t>
+  </si>
+  <si>
+    <t>B、身临其境  无微不至  兴高彩烈  千均一发</t>
+  </si>
+  <si>
+    <t>C、神计妙算  无优无虑  匠心独运  各抒己见</t>
+  </si>
+  <si>
+    <t>D、安然无恙  川流不息  风驰电掣  再接再厉</t>
+  </si>
+  <si>
+    <t>字形；题西林壁</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A“完壁归赵”改为“完璧归赵”、“应接不瑕”改为“应接不暇”    B“兴高彩烈”改为“兴高采烈”、“千均一发”改为“千钧一发”。C“无优无虑”改为“无忧无虑” D正确故答案为：D【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>“不识庐山真面目，只缘身在此山中。”诗中蕴含着的道理是：（    ）</t>
+  </si>
+  <si>
+    <t>A、当局者迷，旁边者清。</t>
+  </si>
+  <si>
+    <t>B、局部的细致观察，有利于看清事物的真面目。</t>
+  </si>
+  <si>
+    <t>C、对比较复杂的事物，如果不能冷静地进行调查分析，就容易主观地被局部的现象所迷惑，不能全面、正确地认识该事物。</t>
+  </si>
+  <si>
+    <t>诗文朗读、默写、翻译；题西林壁</t>
+  </si>
+  <si>
+    <t>【分析】理解诗句的含义，先根据诗句原本意义，结合具体语境，理解、分析、推断诗句的真正含义。要特别注意，这类试题，往往不是要问词句的表面意义，如果简单地理解为词句的表层意思，就容易理解偏差。“不识庐山真面目，只缘身在此山中。”意思是我之所以认不清庐山真正的面目，是因为我人身处在庐山之中。诗中蕴含着的道理是：对比较复杂的事物，如果不能冷静地进行调查分析，就容易主观地被局部的现象所迷惑，不能全面、正确地认识该事物。故答案为：C【点评】体会重点诗句蕴含着的道理，品味语言表达艺术。</t>
+  </si>
+  <si>
+    <t>读《黄鹤楼送孟浩然之广陵》选择赏析错误的一项（    ）黄鹤楼送孟浩然之广陵李白故人西辞黄鹤楼，烟花三月下扬州。孤帆远影碧空尽，唯见长江天际流。</t>
+  </si>
+  <si>
+    <t>A、前两句旨在点题，引出了相互惜别的人物、地点、时令和友人要前往的目的地。</t>
+  </si>
+  <si>
+    <t>B、三，四两句是从孟浩然的眼光和角度写自己乘船在江中顺流而下，李白伫立楼前以目相送，船越行越远，船上的白帆逐渐消逝在蓝天尽头遥远的水天相接处，最后只能看见长江仿佛是流向天边，这两句诗意蕴深远，李白在楼前伫立之久足见友谊之深长和心情之惆怅了。</t>
+  </si>
+  <si>
+    <t>C、这首诗是李白诗中歌颂真挚友谊和抒写离别之情的代表作，千百年来脍炙人口。</t>
+  </si>
+  <si>
+    <t>D、李白的这首诗，堪称高度含蓄的典范之作，它既没细数情多深、意多长，也没陈述自己伫立江边以目相送的时间多久，但收到的艺术效果却使人深感其中之一往情深、诗味浓郁。</t>
+  </si>
+  <si>
+    <t>课文内容理解；送元二使安西</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。A正确B错误，本题考查诗句所体现的感情。表面看这两句是写景，实际蕴含了作者对友人的深情。“孤帆”绝不是说浩瀚的长江上只有一只帆船，而是写诗人的全部注意力和感情只集中在友人乘坐的那一只帆船上，似乎要把自己的一片情意托付江水，将友人一直送到目的地。C正确D正确故答案为：B【点评】此题主要考查对诗句理解的能力。体味诗歌的遣词和作者表达的思想感情。</t>
+  </si>
+  <si>
+    <t>读《送元二使安西》，选出理解错误的一项（    ）《送元二使安西》王维渭城朝雨浥轻尘，客舍青青柳色新。劝君更尽一杯酒，西出阳关无故人。</t>
+  </si>
+  <si>
+    <t>A、诗的开头勾画了一个能增强离情别绪的环境——客舍，制造一种凄冷的氛围：春晨的细雨不但润湿了飞尘，则且洗涤了旅舍旁的柳树，送别的人在这样的环境、这样的氛围中分手了。</t>
+  </si>
+  <si>
+    <t>B、三，四句直抒胸臆，表达了作者对友人依依不舍，无比挂念心情。</t>
+  </si>
+  <si>
+    <t>C、第一句写雨，制造春寒料峭、凄清冷落的氛围，同时也烘托出诗人送别友人时的忧郁心情。第二句写柳，雨后柳色虽然很美，但柳象征离别，陡然增加人们浓厚的离情别意。</t>
+  </si>
+  <si>
+    <t>D、这首诗能广为流传，主要是因为诗人所流露出的强烈而真实的哀伤悱恻之情，能引起人们的共鸣，而其境界并不高。</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。A正确B正确C正确D错误，这首诗能广为流传，主要是因为诗人所表现的真挚友情令我们赞叹不已。能引起人们的共鸣，而其境界很高。故答案为：D【点评】此题主要考查对诗句理解的能力。体味诗歌的遣词和作者表达的思想感情。</t>
+  </si>
+  <si>
+    <t>下列诗句节奏划分有误的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、渭城／朝雨／浥／轻尘</t>
+  </si>
+  <si>
+    <t>B、客舍／青青／柳／色新</t>
+  </si>
+  <si>
+    <t>C、劝君／更尽／一杯酒</t>
+  </si>
+  <si>
+    <t>D、西出／阳关／无故人</t>
+  </si>
+  <si>
+    <t>诗文朗读、默写、翻译；送元二使安西</t>
+  </si>
+  <si>
+    <t>【分析】解答时，要想正确划分朗读节奏，准确把握句意是关键。A正确B句的朗读节奏可根据音节兼顾意义来划分，按“二二三”的节奏形式可以划分为：客舍／青青／柳色新。C正确D正确故答案为：B。【点评】此题主要考查划分诗句的朗读节奏的能力。</t>
+  </si>
+  <si>
+    <t>对下面这首诗理解不当的一项是（    ）送元二使安西王维渭城朝雨浥轻尘，客舍青青柳色新。劝君更尽一杯酒，西出阳关无敌人。</t>
+  </si>
+  <si>
+    <t>A、诗的第一句通过写雨，制造春寒料峭，凄清冷落的氛围，烘托出诗人送别友人时的忧郁心情。</t>
+  </si>
+  <si>
+    <t>B、“柳色新”形象准确地描绘了一场春晨细雨使客舍旁的柳枝显得格外青翠新鲜的景色。使本文浓厚的离别愁绪多了一分清新，别无他意。</t>
+  </si>
+  <si>
+    <t>C、“更”字用得妙极，不仅显示出诗人劝酒的殷勤，而且暗示离别的时间越来越近。流露出诗人对友人的留恋之情。</t>
+  </si>
+  <si>
+    <t>D、这首诗表面看来语言很寻常，但在这些寻常的话语中，却蕴含着诗人奇崛激荡的情思。</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。A正确B“柳色新”与旧相对，新鲜的，刚长出来的，嫩绿的，形象，生动，能引出了读者对新柳展开形象的想象，读诗如见物，写出了诗人的感受，柳色也是青青的，但是加上诗人本人的感受，它就不仅是一种颜色了，更是一种心态.有情有物，引起读者的共鸣。C正确D正确故答案为：B【点评】此题主要考查对诗句理解的能力。体味诗歌的遣词和作者表达的思想感情。</t>
+  </si>
+  <si>
+    <t>下列四句句子中，没有用夸张手法的一句是（    ）</t>
+  </si>
+  <si>
+    <t>A、又高又厚的磨刀石，磨得像一道弯弯的月牙。</t>
+  </si>
+  <si>
+    <t>B、几十年，几百年，几千年，时间一转眼就过去了。</t>
+  </si>
+  <si>
+    <t>C、男孩说，将来他有了孩子可以拿这只鞋当摇篮。</t>
+  </si>
+  <si>
+    <t>D、飞流直下三千尺，疑是银河落九天。</t>
+  </si>
+  <si>
+    <t>修辞手法；鸟的天堂</t>
+  </si>
+  <si>
+    <t>【分析】夸张，是为了达到某种表达效果的需要，对事物的形象、特征、作用、程度等方面着意夸大或缩小的修辞方式。A把“磨刀石”比作“弯弯的月牙”是比喻。B“几十年，几百年，几千年”，一转眼就过去了，是夸张。C“拿这只鞋当摇篮”是夸张。D“三千尺、落九天”是夸张。故答案为A。【点评】考查学生对夸张修辞手法的掌握。要求学生能判断，会应用。</t>
+  </si>
+  <si>
+    <t>下面四句中每句都有“两个”，其中有一句的“两个”和另外三句的“两个”含义不同（    ）</t>
+  </si>
+  <si>
+    <t>A、王师傅给人修车从不收钱，别人给钱时，他就笑笑说，都是熟识的两个人，算了。</t>
+  </si>
+  <si>
+    <t>B、他觉得自己快要支持不住了，眼前的景物渐渐变成了两个  ， 身子也摇晃起来。</t>
+  </si>
+  <si>
+    <t>C、生活要俭朴，不要有了两个钱就大手大脚地花。</t>
+  </si>
+  <si>
+    <t>D、外婆是不赞成我上大学的。她说：“女孩子，识了两个字，不做睁眼瞎就行了。”</t>
+  </si>
+  <si>
+    <t>词义；鸟的天堂</t>
+  </si>
+  <si>
+    <t>【分析】这是一道“一字多义”的练习题。同一个词在不同的语言环境中可以表达不同的意思。A句中的“两个”表示不定的数目，泛指王师傅熟识的人。B句中的“两个”表示数目。指他由于眼花，看景物一个变成了两个。C句中的“两个”表示不定的数目，指“几个钱”。D句中的“两个”表示不定的数目，泛指识的字。所以A、C、D三句中的“两个”的含义相同。故答案为：B。【点评】一词多义是一种语言现象，正确理解词语的语境意义需要在积累的基础上仔细揣摩。</t>
+  </si>
+  <si>
+    <t>选择写法完全正确的一组汉字（    ）</t>
+  </si>
+  <si>
+    <t>A、人迹罕致    滔滔江水    沉静</t>
+  </si>
+  <si>
+    <t>B、应接不瑕    帘帘飞瀑    花卉</t>
+  </si>
+  <si>
+    <t>C、人声鼎沸    榕树     镇静</t>
+  </si>
+  <si>
+    <t>D、昂手东望    齐头并进    笑盈盈</t>
+  </si>
+  <si>
+    <t>字形；鸟的天堂</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A“人迹罕致”改为“人迹罕至” 。B“应接不瑕”改为“应接不暇”。C正确。D“昂手东望”改为“昂首东望”。故答案为：C。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>句子意思正确的是（    ）在你写作的时候，跳上桌来，在稿纸上踩印几朵小梅花。</t>
+  </si>
+  <si>
+    <t>A、猫经常淘气，跳上桌来，把梅花踩印在作者的稿纸上，真令人啼笑皆非。</t>
+  </si>
+  <si>
+    <t>B、猫常踩梅花脚印留在稿纸上，比谁都温柔可亲，表达作者对猫非常喜爱的感情。</t>
+  </si>
+  <si>
+    <t>课文内容理解；猫</t>
+  </si>
+  <si>
+    <t>【分析】解答此题关键是要结合语境来理解，依据课文内容可知，文中字里行间都流露出了对猫的喜爱之情，所以这句话是说猫常踩梅花脚印留在稿纸上，比谁都温柔可亲，表达作者对猫非常喜爱的感情。故答案为：B【点评】此题主要考查结合语境对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>句子意思正确的是（    ）说它贪玩吧，的确是呀！要不怎么会一天一夜不回家呢？</t>
+  </si>
+  <si>
+    <t>A、责备猫贪玩到了极点，作者很生气。</t>
+  </si>
+  <si>
+    <t>B、表面上是责备的话，但说的亲切，流露出作者对猫的喜爱之情。</t>
+  </si>
+  <si>
+    <t>【分析】解答此题关键是要结合语境来理解，依据课文内容可知，文中字里行间都流露出了对猫的喜爱之情，所以这句话表面上是责备的话，但说的亲切，流露出作者对猫的喜爱之情。故答案为：B【点评】此题主要考查结合语境对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>“它还会丰富多腔地叫唤，长短不同，粗细各异，变化多端。”这句话中，“端”的意思是（    ）</t>
+  </si>
+  <si>
+    <t>A、事情的开头。</t>
+  </si>
+  <si>
+    <t>B、端正。</t>
+  </si>
+  <si>
+    <t>C、原因，起因。</t>
+  </si>
+  <si>
+    <t>D、方面，项目。</t>
+  </si>
+  <si>
+    <t>字义；猫</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。“它还会丰富多腔地叫唤，长短不同，粗细各异，变化多端。”这句话中，“端”的意思是方面，项目。故答案为：D。【点评】本题考查学生对字义的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>“它闭息凝视，一连就是几个钟头，非把老鼠等出来不可！”这句话中，“息”的意思是（    ）</t>
+  </si>
+  <si>
+    <t>A、休息。</t>
+  </si>
+  <si>
+    <t>B、呼吸时进出的气。</t>
+  </si>
+  <si>
+    <t>C、停止。</t>
+  </si>
+  <si>
+    <t>D、消息。</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。“它闭息凝视，一连就是几个钟头，非把老鼠等出来不可！”这句话中，“息”的意思是呼吸时进出的气。故答案为：B。【点评】本题考查学生对字义的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>仔细读读，下列句子中哪一句与课文句子完全相同?（    ）</t>
+  </si>
+  <si>
+    <t>A、马是跪着的，像是在等人骑到它背上，它才站起来似的。</t>
+  </si>
+  <si>
+    <t>B、一时恍恍惚惚的，天空里又像这个，又像那个，其实什么也不像，什么也看不清。</t>
+  </si>
+  <si>
+    <t>课文内容理解；火烧云</t>
+  </si>
+  <si>
+    <t>【分析】依据课文内容可知，A项与课文句子完全相同。B项与课文句子不完全相同，原句是：一时恍恍惚惚的,天空里又像哪个,其实什么也不像,什么也看不清了。【点评】主要考查学生对课文的背诵情况。</t>
+  </si>
+  <si>
+    <t>下面的句子中没有语病的一句是（    ）</t>
+  </si>
+  <si>
+    <t>A、粮食作物是小麦。</t>
+  </si>
+  <si>
+    <t>B、这次考试，同学们的成绩普遍提高了。</t>
+  </si>
+  <si>
+    <t>C、他出席了这次数学竞赛。</t>
+  </si>
+  <si>
+    <t>D、我们大概用了一星期左右的时间，修好了花圃。</t>
+  </si>
+  <si>
+    <t>修改病句；给予是快乐的</t>
+  </si>
+  <si>
+    <t>【分析】辨析病句，一般来说，一看语法通不通，二看意思对不对，三看修辞妥不妥。要想快速而准确地辨析病句，除了平时多阅读，增强语感外，还应该掌握一定的方法，如语感审读法、枝干梳理法、逻辑分析法。A语序颠倒，改为：小麦是粮食作物。B正确C搭配不当，把“出席”改为“参加”D语义重复，“大概”、“左右”去掉其一。故答案为：B【点评】修改病句是一项综合能力训练，可以提高语言表达能力、分析判断能力。注意句子的病因。改病句时要对症下药。</t>
+  </si>
+  <si>
+    <t>比较下面的句子，选择意思相同的句子。（    ）</t>
+  </si>
+  <si>
+    <t>A、①20世纪是一个呼风唤雨的世纪。②呼风唤雨的世纪是20世纪。</t>
+  </si>
+  <si>
+    <t>B、①早在19世纪，英国学者赫胥就注意到恐龙和鸟类在骨骼结构上有许多相似之处。②恐龙和鸟类在骨骼结构上有许多相似之处，早在19世纪，英国学者赫胥就注意到了。</t>
+  </si>
+  <si>
+    <t>C、①恐龙的一支经过漫长的演化，最终变成了凌空翱翔的鸟儿。②一只恐龙经过漫长的演化，最终变成了凌空翱翔的鸟儿。</t>
+  </si>
+  <si>
+    <t>课文内容理解；飞船上的特殊乘客</t>
+  </si>
+  <si>
+    <t>【分析】A不同。①句的意思是20世纪是一个呼风唤雨的世纪。②句的意思是呼风唤雨的世纪不一定是20世纪。B相同C不同。①句中的“一支”指的是恐龙的某一个分支，而不是全部；②句中“一只”指的是一个恐龙。【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>比较下面每组句子，选择意思相同的句子。（    ）</t>
+  </si>
+  <si>
+    <t>A、①进入住宅，轻松悦耳的乐曲会立即播放。②进入住宅，会立即播放轻松悦耳的乐曲。</t>
+  </si>
+  <si>
+    <t>B、①要想进入住宅必须要输入密码。②只要输入密码就能进入住宅。</t>
+  </si>
+  <si>
+    <t>语言表达；电脑住宅</t>
+  </si>
+  <si>
+    <t>【分析】B不同。①句的意思是要想进入住宅必须要输入密码。②有两层意思：一是输入密码可以进入住宅；二是输入密码也可以不进入住宅。【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>读句子，理解句子的含义，选择认为准确的说法，再读一读正确答案。一排排搭石，任人走，任人踏，它们联结着故乡的小路，也联结着乡亲们美好的情感。（    ）</t>
+  </si>
+  <si>
+    <t>A、这句话赞扬了搭石任人踩踏，却无怨无悔，默默无语的品格。</t>
+  </si>
+  <si>
+    <t>B、这句话实际是赞扬乡亲们默默无闻、无私奉献的精神。</t>
+  </si>
+  <si>
+    <t>C、这句话含义深刻，不仅写了搭石任人踩踏，默默奉献的精神，而且赞扬了乡亲们默默无闻，无私奉献的精神，搭石也是乡亲们相亲相爱、友好互助情感的纽带。</t>
+  </si>
+  <si>
+    <t>课文内容理解；搭石</t>
+  </si>
+  <si>
+    <t>【分析】理解文章语句的含义，一要结合具体的语境，二要结合文中人物的情感。根据词句原本意义，结合具体语境，理解、分析、推断词句的不同含义，去深入理解词句的真正含义。要特别注意，这类试题，往往不是要问词句的表面意义，如果简单地理解为词句的表层意思，就容易理解偏差。这句话含义深刻，不仅写了搭石任人踩踏，默默奉献的精神，而且赞扬了乡亲们默默无闻，无私奉献的精神，搭石也是乡亲们相亲相爱、友好互助情感的纽带。故答案为：C【点评】体会重要语句的含意，品味语言表达艺术。</t>
+  </si>
+  <si>
+    <t>读了这篇课文《蜜蜂》，我们知道蜜蜂是凭________回到家的。（    ）</t>
+  </si>
+  <si>
+    <t>A、跟着主人找到了家。</t>
+  </si>
+  <si>
+    <t>B、飞得高，能眺望到家园。</t>
+  </si>
+  <si>
+    <t>C、一种超常的记忆力，记得回家的路。</t>
+  </si>
+  <si>
+    <t>D、一种无法解释的本能。</t>
+  </si>
+  <si>
+    <t>课文内容理解；蜜蜂</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾课文内容，比较判断正误。依据课文内容可知，蜜蜂是凭一种无法解释的本能回到家的。A、B、C错误。故答案为：D【点评】此题主要考查对课文内容的理解和识记。</t>
+  </si>
+  <si>
+    <t>画龙点睛。（我会选词填空）（    ）①故宫建筑规模宏大_________，建筑______，布局统一，集中体现了我国古代建筑艺术的独特风格。②河上是五座_________的汉白玉石桥。③大殿廊下，鸣钟击磬，乐声_________。</t>
+  </si>
+  <si>
+    <t>A、壮观    精美    精致    优美</t>
+  </si>
+  <si>
+    <t>B、壮丽    精美    精美    悠扬</t>
+  </si>
+  <si>
+    <t>C、壮美    精巧    精致    动听</t>
+  </si>
+  <si>
+    <t>D、壮丽    精巧    精致    悠扬</t>
+  </si>
+  <si>
+    <t>词义；故宫</t>
+  </si>
+  <si>
+    <t>【分析】选词填空中的备选词语大多数都是同义词或近义词，通过分析、比较，会发现它们之间会有细微差别。因此，选择时我们必须结合词语所在的语言环境，体会词语的区别，认真选择恰当的词语。壮观：气象伟大；景象雄伟。壮丽：雄伟而美丽。壮美：健美；雄壮美丽。壮观多用于形容景象或场面。壮丽多形容景物及事业方面。壮美：多形容描写祖国山川河流。精美：是形容物品外观的，指的是精致与美丽精彩；优美；出色。 精巧：(技术、器物构造等)精细巧妙。 精致：精巧细致。 故选“壮丽”。故选①“壮丽、 精美”。选②“精美”。③从使用习惯方面理解。选“悠扬”。故答案为：B【点评】说话和写作时要正确使用词语，注意词语的搭配和组合；正确理解词语在具体语言环境中的意义；注意词语使用过程中的感情色彩的变化；加强对教材注释和课文后列出的字词背诵积累等。</t>
+  </si>
+  <si>
+    <t>“孔子不能决也”说明什么？不当的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、说明孔子“知之为知之，不知为不知”的求实态度。</t>
+  </si>
+  <si>
+    <t>B、孔圣人也不有知道的东西，这是对他的讽刺。</t>
+  </si>
+  <si>
+    <t>C、从认识水平看，当时的人，包括孔子，是不能解决这个问题的。</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。“孔子不能决也”说明从认识水平看，当时的人，包括孔子，是不能解决这个问题的。故答案为：C【点评】此题考查学生对作品内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>阅读下文，回答问题葵花为什么总是向着太阳    在向日葵的茎叶里，有个小东西，它是专门照管向日葵生长的生长素。    生长素很淘气，只要一见到太阳，就跑到花盘背面躲起来，于是这一面长得快。花盘向太阳的一面，生长素少，生长就慢。    太阳东升西落，向日葵那个橙黄美丽的大花盘，也就围绕着太阳转动了。找出正确的说法（    ）</t>
+  </si>
+  <si>
+    <t>A、葵花向着太阳，是因为花盘喜欢阳光。</t>
+  </si>
+  <si>
+    <t>B、葵花向着太阳，是因为生长素见到阳光，就躲到花盘后面。</t>
+  </si>
+  <si>
+    <t>C、葵花向着太阳，是因为向日葵在表示一天中的不同时间。</t>
+  </si>
+  <si>
+    <t>课文内容理解；花钟</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细课文内容，比较判断正误。有第二段可知，葵花向着太阳，是因为生长素见到阳光，就躲到花盘后面。故A、C错误。B正确。【点评】此题考查学生对作品内容的理解的能力。</t>
+  </si>
+  <si>
+    <t>认一认，选一选。（    ）</t>
+  </si>
+  <si>
+    <t>A、虫</t>
+  </si>
+  <si>
+    <t>B、鸟</t>
+  </si>
+  <si>
+    <t>C、花</t>
+  </si>
+  <si>
+    <t>字义；对韵歌</t>
+  </si>
+  <si>
+    <t>我会写笔顺，数笔画。（    ）  “云”字一共有_____画，第三笔是_______。</t>
+  </si>
+  <si>
+    <t>A、4  丿</t>
+  </si>
+  <si>
+    <t>B、4  ㄥ</t>
+  </si>
+  <si>
+    <t>C、5  ㄥ</t>
+  </si>
+  <si>
+    <t>字形；对韵歌</t>
+  </si>
+  <si>
+    <t>A、云</t>
+  </si>
+  <si>
+    <t>B、雨</t>
+  </si>
+  <si>
+    <t>C、风</t>
+  </si>
+  <si>
+    <t>A、山</t>
+  </si>
+  <si>
+    <t>B、网</t>
+  </si>
+  <si>
+    <t>C、对</t>
+  </si>
+  <si>
+    <t>读一读，把不是同类的一组词语选出来。（    ）</t>
+  </si>
+  <si>
+    <t>A、虫    鱼    鸟    羊</t>
+  </si>
+  <si>
+    <t>B、云    雨    风    山</t>
+  </si>
+  <si>
+    <t>C、花    草    竹    木</t>
+  </si>
+  <si>
+    <t>文化常识；对韵歌</t>
+  </si>
+  <si>
+    <t>我能选择按字母表顺序排列正确的（    ）</t>
+  </si>
+  <si>
+    <t>A、A  B  D  F  E</t>
+  </si>
+  <si>
+    <t>B、H  I  J  K  L</t>
+  </si>
+  <si>
+    <t>C、N  M  O  Q  P</t>
+  </si>
+  <si>
+    <t>D、R  T  S  V  W</t>
+  </si>
+  <si>
+    <t>【分析】字母表顺序排列为：A 、B、C、D、E、F、G、H、I、J、K、L、M、N、O、P、Q、R、S、T、U、V、X、Y、Z。故答案为：B【点评】此题要求考查对字母表顺序的掌握能力，平时多练。</t>
+  </si>
+  <si>
+    <t>下面的句子不是比喻句的是（    ）。</t>
+  </si>
+  <si>
+    <t>A、她的脸上满是皱纹，倒像个风干的橘子，哪里会露出笑容来呢！</t>
+  </si>
+  <si>
+    <t>B、今年的稻子长得好，很壮实，雨水又不多，像是能丰收似的。</t>
+  </si>
+  <si>
+    <t>C、他想到将来田里的情形，想到主人的眼泪和干瘪的脸，又想到主人的命运，心里像刀割一样。</t>
+  </si>
+  <si>
+    <t>D、新出的稻穗一个挨一个，星光射在上面，有些发亮，像顶着一层水珠。</t>
+  </si>
+  <si>
+    <t>修辞手法；稻草人</t>
+  </si>
+  <si>
+    <t>【分析】本题考查了对比喻句的理解。比喻句，就是 打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。注意所给句子的意思，会进行辨析，找出本体和喻体。C选项中像不是比喻词，符合题意故答案为：B。【点评】解答本题，注意区分形近字，理解其字形、字义，进行组词，注意平时的积累。</t>
+  </si>
+  <si>
+    <t>课文《稻草人》中稻草人感情变化的过程是（    ）。</t>
+  </si>
+  <si>
+    <t>A、心痛 —— 着急 —— 高兴</t>
+  </si>
+  <si>
+    <t>B、高兴 —— 心痛 —— 着急</t>
+  </si>
+  <si>
+    <t>C、高兴 —— 着急 —— 心痛</t>
+  </si>
+  <si>
+    <t>D、着急 —— 高兴 —— 心痛</t>
+  </si>
+  <si>
+    <t>语言表达；课文内容理解；稻草人</t>
+  </si>
+  <si>
+    <t>【分析】本题考查了对课文内容的理解。注意结合课文内容，分析稻草人感情变化，课文以稻草人的扇子为线索，稻草人的感情变化依次为高兴 —— 着急 —— 心痛，C选项符合题意。故答案为：挺直；杠杆；小艇；扛住【点评】解答本题，注意理解课文内容，这篇课文以稻草人的扇子为线索，稻草人的感情变化依次是：（高兴）→ （惊恐）→ （着急）→ （急得要命）→ （发愁）→ （痛心），注意归纳。</t>
+  </si>
+  <si>
+    <t>下面句子中没有语病的是（    ）</t>
+  </si>
+  <si>
+    <t>A、《草原》这篇课文的作者是老舍先生</t>
+  </si>
+  <si>
+    <t>B、他特别喜欢踢足球和乒乓球。</t>
+  </si>
+  <si>
+    <t>C、李杰同学陆续三年被评为优秀少先队员。</t>
+  </si>
+  <si>
+    <t>修改病句；通往广场的路不止一条</t>
+  </si>
+  <si>
+    <t>【分析】选A。修改病句，指对一句有语病的句子进行修改，使其不改变原意，句子更通顺，有一定条理。常见的病句有以下几种情况: A成分残缺；B前后矛盾；C用词不当；D词序颠倒；E搭配不当；F语义重复；G不合逻辑；H句式杂糅；I表意不明等。B搭配不当，改为：他特别喜欢踢足球和打乒乓球。C用词不当，把“陆续”改为“连续”。【点评】修改病句是一项综合能力训练，可以提高语言表达能力、分析判断能力。注意句子的病因。改病句时要对症下药。</t>
+  </si>
+  <si>
+    <t>找出下面是完整的句子的一项（  ）</t>
+  </si>
+  <si>
+    <t>A、我送给小丽同学。</t>
+  </si>
+  <si>
+    <t>B、漫长的冬天终于过去了。</t>
+  </si>
+  <si>
+    <t>C、夸奖我是个好孩子。</t>
+  </si>
+  <si>
+    <t>D、院子里的葡萄架下。</t>
+  </si>
+  <si>
+    <t>语言表达；松鼠</t>
+  </si>
+  <si>
+    <t>【分析】选B。修改病句，指对一句有语病的句子进行修改，使其不改变原意，句子更通顺，有一定条理。常见的病句有以下几种情况: A成分残缺；B前后矛盾；C用词不当；D词序颠倒；E搭配不当；F语义重复；G不合逻辑；H句式杂糅；I表意不明等。A缺宾语，改为：我送给小丽同学一本书。C缺主语，改为：妈妈夸奖我是个好孩子。D缺谓语。改为：院子里的葡萄架下有一只猫。【点评】修改病句是一项综合能力训练，可以提高语言表达能力、分析判断能力。注意句子的病因。改病句时要对症下药。</t>
+  </si>
+  <si>
+    <t>选择按音序排列正确的一组（    ）</t>
+  </si>
+  <si>
+    <t>A、jù    fù    pì    lǔ   áo    bù     剧    覆    僻    虏    熬    怖</t>
+  </si>
+  <si>
+    <t>B、áo    bù    fù    jù    lǔ    pì     熬    怖    覆    剧    虏    僻</t>
+  </si>
+  <si>
+    <t>C、áo    bù    jù   lǔ    fù    pì      熬    怖    剧    虏    覆    僻</t>
+  </si>
+  <si>
+    <t>D、pì     fù    áo     lǔ    jù    bù僻    覆    熬    虏    剧    怖</t>
+  </si>
+  <si>
+    <t>拼音；丝绸之路</t>
+  </si>
+  <si>
+    <t>【分析】此题一是考查字的读音，二是考察按音序重新排列的能力。音序排列就是按字母的先后顺序排列，即A、B、C、D、E……故：Cáo    bù    fù    jù     lǔ     pì熬    怖    覆    剧    虏    僻【点评】此题要求掌握音序排列的方法。读准字音，平时多练。</t>
+  </si>
+  <si>
+    <t>选出意思错误的句子（    ）</t>
+  </si>
+  <si>
+    <t>A、这篇课文介绍了张骞开通丝稠之路的情况。</t>
+  </si>
+  <si>
+    <t>B、这篇课文说明了丝绸之路对东西方文明交流产生了巨大作用。</t>
+  </si>
+  <si>
+    <t>C、这篇课文说明中国的发展离不开西域各国的帮助。</t>
+  </si>
+  <si>
+    <t>D、这篇课文能使我们产生民族自豪感。</t>
+  </si>
+  <si>
+    <t>课文内容理解；丝绸之路</t>
+  </si>
+  <si>
+    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关情节，比较判断正误。A、B、D正确。C错误，这篇课文讲述了我国与其他国家贸易交流的过程，加强了汉朝与西域各国的友好往来。　【点评】此题考查学生对作品内容的掌握的能力。</t>
+  </si>
+  <si>
+    <t>下面句子是比喻句的一项是（  ）。</t>
+  </si>
+  <si>
+    <t>A、屋里什么都不用放，单坐着，就如同升天一般美。</t>
+  </si>
+  <si>
+    <t>B、他不是神仙，往日传说中那如山般的形象轰然倒去。</t>
+  </si>
+  <si>
+    <t>C、穿上这身黑，就好像跟地上一桶白浆较上了劲。</t>
+  </si>
+  <si>
+    <t>修辞手法；刷子李</t>
+  </si>
+  <si>
+    <t>【分析】比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。A、C句不是比喻的修辞手法，没有喻体。B是比喻(明喻)的修辞手法，把他的形象(本体)比作山(喻体)。 故选B。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
+  </si>
+  <si>
+    <t>下列词语中有错字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、舀水沏茶簸箕</t>
+  </si>
+  <si>
+    <t>B、端祥笤帚旮旯</t>
+  </si>
+  <si>
+    <t>C、散步皱眉警卫员</t>
+  </si>
+  <si>
+    <t>字形；毛主席在花山</t>
+  </si>
+  <si>
+    <t>【分析】选B。此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。B 端祥——端详。A、C、D正确。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>给下面的这段话选择标点（    ）    花生的好处很多 有一样最可贵 它的果实埋在地里 不像桃子 石榴 苹果那样 把鲜红嫩绿的果实高高地挂在枝头上 使人一见就生爱慕之心 你们看它矮矮地长在地上等到成熟了 也不能立刻分辨出来它有没有果实 必须挖起来才知道 父亲说</t>
+  </si>
+  <si>
+    <t>A、“，。，、、，。，，。”。</t>
+  </si>
+  <si>
+    <t>B、“，：，、、，。，，。”。</t>
+  </si>
+  <si>
+    <t>C、“。：，、、，。，，。”。</t>
+  </si>
+  <si>
+    <t>标点符号；落花生</t>
+  </si>
+  <si>
+    <t>【分析】此题主要考查学生对标点符号的掌握及运用。常用的点号有顿号、逗号、分号、句号、问号、冒号、叹号；常用的标号有引号、省略号、破折号、书名号、括号等。 如：“花生的好处很多， 有一样最可贵： 它的果实埋在地里 ，不像桃子、 石榴、 苹果那样， 把鲜红嫩绿的果实高高地挂在枝头上。 使人一见就生爱慕之心， 你们看它矮矮地长在地上等到成熟了， 也不能立刻分辨出来它有没有果实。” 必须挖起来才知道 父亲说。故选B。【点评】对于标点符号的考查有选择题、加标点题、修改题。所以平时的学习中，我们要用心体会标点符号的用法，书写过程中也要做到尽可能正确的使用标点符号，另外对于一些标点符号的特殊用法要加以积累。还要注意标点符号的位置。</t>
+  </si>
+  <si>
+    <t>作者写《落花生》的目的是为了（    ）</t>
+  </si>
+  <si>
+    <t>A、说明辛勤的劳动会带来丰厚的收获。</t>
+  </si>
+  <si>
+    <t>B、说明花生的好处很多很多。</t>
+  </si>
+  <si>
+    <t>C、告诉我们花生虽然不好看，可是很有用，不是外表好看而没有实用的东西。</t>
+  </si>
+  <si>
+    <t>D、教育我们要做对别人有用的人，不要做只讲体面而对别人没有好处的人。</t>
+  </si>
+  <si>
+    <t>课文内容理解；落花生</t>
+  </si>
+  <si>
+    <t>【分析】依据课文内容不难理解，作者写《落花生》的目的是为了教育我们要做对别人有用的人，不要做只讲体面而对别人没有好处的人。故选D。【点评】此题主要考查对课文内容的理解和识记。</t>
+  </si>
+  <si>
+    <t>给下面词语中划线的字选择最恰当的解释开国大典（    ）</t>
+  </si>
+  <si>
+    <t>A、把关闭的东西打开</t>
+  </si>
+  <si>
+    <t>B、通</t>
+  </si>
+  <si>
+    <t>C、设置、建立</t>
+  </si>
+  <si>
+    <t>D、举行</t>
+  </si>
+  <si>
+    <t>字义；开国大典</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合词语理解字义。开国大典：新中国成立举行的盛大的仪式。开：设置、建立、成立。【点评】本题考查学生结合词语理解字义的能力。</t>
+  </si>
+  <si>
+    <t>liǎng bìnhè miànhuí wèichān fú</t>
+  </si>
+  <si>
+    <t>A、两    鬓</t>
+  </si>
+  <si>
+    <t>B、和  面</t>
+  </si>
+  <si>
+    <t>C、回  味</t>
+  </si>
+  <si>
+    <t>D、搀  扶</t>
+  </si>
+  <si>
+    <t>拼音；词形；金色的鱼钩</t>
+  </si>
+  <si>
+    <t>【分析】选B。 本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A项中的“和”是多音字，在“ 和面”中应读huó。【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
+  </si>
+  <si>
+    <t>下面词语中有一个字的注音有错，请选择出来（    ）shōu liànbǎo mǔchōu yēyī dōu</t>
+  </si>
+  <si>
+    <t>A、收  敛</t>
+  </si>
+  <si>
+    <t>B、保  姆</t>
+  </si>
+  <si>
+    <t>C、抽  噎</t>
+  </si>
+  <si>
+    <t>D、衣  兜</t>
+  </si>
+  <si>
+    <t>金色的鱼钩</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。选A。收敛shōu liǎn 。【点评】正确读准字音，注意区别形近字的读音，还要注意声调、声母、韵母的区别，平时要多读，多练。</t>
+  </si>
+  <si>
+    <t>选出与每组示例关系最相似的词。（    ）猴子：动物</t>
+  </si>
+  <si>
+    <t>A、上衣：袜子</t>
+  </si>
+  <si>
+    <t>B、菊花：植物</t>
+  </si>
+  <si>
+    <t>C、西瓜：瓜地</t>
+  </si>
+  <si>
+    <t>D、树枝：树</t>
+  </si>
+  <si>
+    <t>词义；金色的鱼钩</t>
+  </si>
+  <si>
+    <t>【分析】由“ 猴子：动物”　可知“猴子”属于“动物”。A“上衣、袜子”  是并列关系 。 B “菊花”属于“植物” 与题干相符。 C “西瓜、瓜地”是并列关系 。D“树枝”是树的一部分。故选B。【点评】本题主要考查学生对词语的分类情况。</t>
+  </si>
+  <si>
+    <t>下面一句话中，划线的三个“苦”字含义依次排列正确的一项是（    ）    李大山品尝了欧洲打工之苦后，颇有感慨地说：“吃不着的苦  ， 比吃苦的苦还要苦。”</t>
+  </si>
+  <si>
+    <t>A、困苦、劳苦、痛苦</t>
+  </si>
+  <si>
+    <t>B、痛苦、辛苦、心酸</t>
+  </si>
+  <si>
+    <t>C、困苦、痛苦、艰难</t>
+  </si>
+  <si>
+    <t>D、痛苦、艰辛、劳苦</t>
+  </si>
+  <si>
+    <t>字义；假如没有灰尘</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生对一字多义的理解掌握情况，要结合语境去理解。李大山品尝了欧洲打工之苦后，颇有感慨地说：“吃不着的苦（痛苦），比吃苦的苦（辛苦）还要苦（心酸）。”故填B 。【点评】主要考查学生对多义字的理解，先理解字义，然后根据词语的意思再一 一对号座。</t>
+  </si>
+  <si>
+    <t>组词错误的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、蓬（蓬勃）       篷（帐篷）</t>
+  </si>
+  <si>
+    <t>B、扒（扒手）       趴（趴下）</t>
+  </si>
+  <si>
+    <t>C、梁（栋梁）       粱（高粱）</t>
+  </si>
+  <si>
+    <t>D、澈（清澈）       辙（辙退）</t>
+  </si>
+  <si>
+    <t>字形；字义；词形；珍珠鸟</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生对形近字的辨析，通过比较部首、字义、组词记忆生字。还有些形近字的读音有的也是相近或相同的，需要平时学习积累的时候细心区分记忆。A、B、C正确 D错误。改为： 辙（车辙）【点评】主要测试学生对形近字的掌握，从读音、结构、字义三方面加以区别，通过比较组词记忆生字。</t>
+  </si>
+  <si>
+    <t>下面划线的字读音全部正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、打蔫（niān）怔（zhēn）住喋（dié）喋不休</t>
+  </si>
+  <si>
+    <t>B、艰涩（shè）忐忑（tè）拖沓（tà）</t>
+  </si>
+  <si>
+    <t>C、倚（yǐ）靠沙漏（lòu）瞬（shùn）间</t>
+  </si>
+  <si>
+    <t>D、坠（zuì）落谴（qiǎn）责磨炼（niàn）</t>
+  </si>
+  <si>
+    <t>拼音；学会看病</t>
+  </si>
+  <si>
+    <t>【分析】选C。本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A 怔（zhēn——zhèng ）住   B 艰涩（shè——sè） D坠（zuì——zhuì）落、磨炼（niàn——liàn）。【点评】正确读准字音，注意区别形近字的读音，还要注意声调、声母、韵母的区别，平时要多读，多练。</t>
+  </si>
+  <si>
+    <t>下列横线上依次搭配最合适的一项是（    ）解放________________解决________________解散________________解除________________</t>
+  </si>
+  <si>
+    <t>A、思想问题组织痛苦</t>
+  </si>
+  <si>
+    <t>B、组织思想问题痛苦</t>
+  </si>
+  <si>
+    <t>C、思想组织痛苦问题</t>
+  </si>
+  <si>
+    <t>D、痛苦问题思想组织</t>
+  </si>
+  <si>
+    <t>桂花雨</t>
+  </si>
+  <si>
+    <t>【分析】词语搭配就是前一个词语和后一个词语搭配得当，能将意思表达得更好，更准确。解放思想、解决问题、解散组织、解除痛苦。选A。【点评】本题主要考查学生对词语的搭配的能力，在于平时的词语积累和对课文的掌握。这些词语都是课文中的，只要对课文内容熟练掌握，做起来就不难。</t>
+  </si>
+  <si>
+    <t>读课文，体会文章的中心思想。（    ）</t>
+  </si>
+  <si>
+    <t>A、赞扬了中国人民志愿军归国时与朝鲜人民依依惜别的感情。</t>
+  </si>
+  <si>
+    <t>B、赞扬了中朝人民用鲜血凝成的伟大友谊。</t>
+  </si>
+  <si>
+    <t>课文内容理解；再见了，亲人</t>
+  </si>
+  <si>
+    <t>【分析】概括中心思想 “中心思想”是对一篇文章的内容和思想做出的确切、扼要的说明，简单说就是作者的写作目的或者作者要告诉人们什么。概括中心思想一般分两步：第一步弄清作者写了什么，即文章的主要内容；第二步分析作者为什么要写，即作者的写作目的——作者想要表达的观点、感情、立场等等。这篇课文叙述了中国人民志愿军回国时，在车站同朝鲜人民话别的情景，回忆了以大娘、小金花、大嫂为代表的朝鲜人民对志愿军的无私援助、亲人般的关怀和难分难舍的深情，赞扬了中朝人民用鲜血凝成的伟大友谊。故选B。【点评】此题主要考查概括文章中心思想的能力。</t>
+  </si>
+  <si>
+    <t>下列词中都属于一类的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、勇敢    顽强    聪明    沉着    狡猾</t>
+  </si>
+  <si>
+    <t>B、火光    时光    灯光    阳光    月光</t>
+  </si>
+  <si>
+    <t>C、山雀    夜莺    杜鹃    乌鸦    朱鹮</t>
+  </si>
+  <si>
+    <t>D、脑海    大海    湖泊    江河    溪流</t>
+  </si>
+  <si>
+    <t>词义；钓鱼的启示</t>
+  </si>
+  <si>
+    <t>【分析】A“勇敢    顽强    聪明    沉着”都是褒义词，“狡猾”是贬义词。B“时光”不同于“火光   灯光    阳光    月光”C“山雀    夜莺    杜鹃    乌鸦    朱鹮”都是鸟类 D“脑海”不同于“大海    湖泊    江河    溪流”　故选C。【点评】本题主要考查学生对词语的分类情况。在于平时对词语积累和对课文的掌握。</t>
+  </si>
+  <si>
+    <t>课文《钓鱼的启示》中“我却不止一次地遇到了与那条鲈鱼相似的诱惑人的‘鱼’”中的“鱼”指的是（    ）</t>
+  </si>
+  <si>
+    <t>A、漂亮的鲈鱼</t>
+  </si>
+  <si>
+    <t>B、各种各样考验人道德的事与物</t>
+  </si>
+  <si>
+    <t>字义；钓鱼的启示</t>
+  </si>
+  <si>
+    <t>【分析】要求学生结合语境理解字义。“我却不止一次地遇到了与那条鲈鱼相似的诱惑人的‘鱼’”中的“鱼”指的是各种各样考验人道德的事与物。故选B。【点评】本题考查学生结合语境理解字义的能力。</t>
+  </si>
+  <si>
+    <t>课文《穷人》中，“她的心跳得很厉害。她自己也不知道为什么要这样做，但是她觉得非这样做不可。”这句话表现了（    ）</t>
+  </si>
+  <si>
+    <t>A、桑娜一时懵住了，糊里糊涂地把孩子抱回来了。</t>
+  </si>
+  <si>
+    <t>B、桑娜当时没有多加考虑，是一颗淳朴、善良的心让她这样去做的。</t>
+  </si>
+  <si>
+    <t>C、桑娜不清楚该不该抱回来，心里十分矛盾，不知怎么办。</t>
+  </si>
+  <si>
+    <t>课文内容理解；穷人</t>
+  </si>
+  <si>
+    <t>【分析】"这样做"是指收养西蒙的两个孤儿，把他们扶养成人。桑娜探望西蒙，意外地发现西蒙已经病故，留下两个年幼的孩子──一个还不会说话，另一个刚会爬。面对西蒙的悲惨遭遇，桑娜本能地把两个孤儿抱回了自己的家。"不知道为什么要这样做"与"但是觉得非这样做不可"看似矛盾，实际上反映了桑娜同情穷人、关心穷人的善良品质。故答案为：B。【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>课文《穷人》中，“他会说什么呢？这是闹着玩的吗？自己的五个孩子已经够他受的了……是他来啦？不……还没来！……为什么把他们抱过来啊？……他会揍我的！那也活该，我自作自受。……嗯，揍我一顿也好！”这句话表达了（    ）</t>
+  </si>
+  <si>
+    <t>A、桑娜担心、害怕的思想感情。</t>
+  </si>
+  <si>
+    <t>B、桑娜既疼爱丈夫，担心丈夫不同意，又不惜做出任何牺牲也要收养两个孤儿的思想感情。</t>
+  </si>
+  <si>
+    <t>【分析】桑娜抱回孤儿后，面对自己的五个孩子，想想生死未卜的丈夫，她紧张、担忧，她不知道丈夫会说什么，觉得自己这样做给丈夫增加了负担，觉得对不起他；她担心丈夫突然回来，不知道怎么告诉丈夫自己把孤儿抱回家的事。但是她宁可让丈夫揍一顿，也要收养孤儿。课文真实地展现了桑娜此时的心理活动。透过桑娜的心理活动，读者能充分感受到生活给桑娜带来的压力，感受到桑娜热爱丈夫，同情孤儿，宁可自己吃苦也要帮助别人的美好的心灵。激起读者对桑娜今后命运的关心。故答案为：B。【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>《穷人》中，“嗯，是个问题！”他搔搔后脑勺说，“嗯，你看怎么办？得把他们抱来，同死人呆在一起怎么行！哦，我们，我们总能熬过去的！快去，别等他们醒来。”这句话说明了（     ）</t>
+  </si>
+  <si>
+    <t>A、渔夫在考虑怎样收养这两个孤儿。</t>
+  </si>
+  <si>
+    <t>B、渔夫宁愿自己多吃苦，也要帮助穷人。</t>
+  </si>
+  <si>
+    <t>【分析】"搔搔后脑勺"说明他正在认真考虑，形象地说明渔夫觉得问题严重。"嗯，你看怎么办？"这是渔夫在征求妻子的意见。"得把他们抱来，同死人呆在一起怎么行！"这是渔夫做出的初步决定。"哦，我们，我们总能熬过去的！""熬"，是忍受（疼痛或艰苦的生活）的意思。说明渔夫为了抚养邻居的孩子，准备过更艰苦的日子，准备付出更多的辛劳。"快去！别等他们醒来。"渔夫怕孩子醒来受惊，催促桑娜去抱孩子。这段话细致地描写了渔夫做出决定前后思考的过程，说明他与妻子桑娜一样，有着一颗甘愿自己受苦也要帮助他人的高尚的心。　故答案选B。【点评】此题主要考查对句子的理解能力。</t>
+  </si>
+  <si>
+    <t>下列各组拼音全部正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、功勋（xūn）喃（nān）喃</t>
+  </si>
+  <si>
+    <t>B、慰（wèi）问牺牲（shēng）</t>
+  </si>
+  <si>
+    <t>C、黯（àn）然尸（sī）体</t>
+  </si>
+  <si>
+    <t>D、凑（zòu）近眷（juàn）念</t>
+  </si>
+  <si>
+    <t>拼音；青山处处埋忠骨</t>
+  </si>
+  <si>
+    <t>【分析】选B。本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A  喃（nán）喃 C尸（shī）体D凑（còu ）近【点评】正确读准字音，注意区别形近字的读音，还要注意声调、声母、韵母的区别，平时要多读，多练。</t>
+  </si>
+  <si>
+    <t>下列句中，不是比喻句的是（     ）</t>
+  </si>
+  <si>
+    <t>A、有时我会贴在一个大人的身边，仿佛我是他的小妹妹或小女儿。</t>
+  </si>
+  <si>
+    <t>B、浪潮犹如千万匹齐头并进的战马，浩浩荡荡飞奔而来。</t>
+  </si>
+  <si>
+    <t>C、我合上书，咽了一口唾沫，好像把所有的智慧都吞下去了，然后才依依不舍地把书放回书架。</t>
+  </si>
+  <si>
+    <t>修辞手法；窃读记</t>
+  </si>
+  <si>
+    <t>【分析】比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。A句不是比喻的修辞手法，没有喻体。B句是比喻(明喻)的修辞手法，把浪潮(本体)比作千万匹齐头并进的战马(喻体)。C句是比喻(明喻)的修辞手法，把咽了一口唾沫(本体)比作把所有的智慧都吞下去了(喻体)。故答案为：A。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
+  </si>
+  <si>
+    <t>下列几组词语中划线字注音完全正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、黎明（lí）狂奔（bēn）势不可挡（sì）</t>
+  </si>
+  <si>
+    <t>B、似的（sì）狞笑（níng）揪出（jiū）</t>
+  </si>
+  <si>
+    <t>C、放肆（sì）搀扶（chān）祭奠（diàn）</t>
+  </si>
+  <si>
+    <t>D、舔着（tiǎn）折回（zé）拥戴（dài）</t>
+  </si>
+  <si>
+    <t>拼音；桥</t>
+  </si>
+  <si>
+    <t>【分析】选C。 本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A势不可挡（shì）B“似”是多音字，似的（shì）D“折”是多音字，折回（zhé）【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
+  </si>
+  <si>
+    <t>下列词语中有错别字的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、灿烂   增添   音符</t>
+  </si>
+  <si>
+    <t>B、吹佛   掠过   忘记</t>
+  </si>
+  <si>
+    <t>C、厕所   贫道   粉碎</t>
+  </si>
+  <si>
+    <t>D、摘要   黄瓜   堡垒</t>
+  </si>
+  <si>
+    <t>字形；泊船瓜洲</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。ACD正确。B吹佛——吹拂。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>选出和例子是同一类的一对词。例：外婆——外孙（    ）</t>
+  </si>
+  <si>
+    <t>A、外公——外甥</t>
+  </si>
+  <si>
+    <t>B、外婆——舅舅</t>
+  </si>
+  <si>
+    <t>C、爷爷——孙子</t>
+  </si>
+  <si>
+    <t>泊船瓜洲</t>
+  </si>
+  <si>
+    <t>【分析】由题干，例：外婆——外孙，可知“外孙”是第三代，“爷爷——孙子”是同一类的一对词，故选C。【点评】本题主要考查学生对词语的分类情况。在于平时对常识的掌握。。</t>
+  </si>
+  <si>
+    <t>下列句子是比喻句的一项是（    ）。</t>
+  </si>
+  <si>
+    <t>A、一场危机似乎过去了。</t>
+  </si>
+  <si>
+    <t>B、烛焰摇曳，发出微弱的光，此时此刻，它仿佛成了屋里最可怕的东西。</t>
+  </si>
+  <si>
+    <t>C、伯诺德夫人的心提到了嗓子眼上，她似乎感到德国军官那几双恶狼般的眼睛正盯在越来越短的蜡烛上。</t>
+  </si>
+  <si>
+    <t>修辞手法；半截蜡烛</t>
+  </si>
+  <si>
+    <t>【分析】比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。A、B句不是比喻的修辞手法，没有喻体。C句是比喻(明喻)的修辞手法，把德国军官的眼睛(本体)比作“恶狼的眼睛”(喻体)。故答案为：C。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
+  </si>
+  <si>
+    <t>下列几组词书写正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、哈欠    腊烛    点燃    了如指掌</t>
+  </si>
+  <si>
+    <t>B、难到    严肃    昏暗    不惜低价</t>
+  </si>
+  <si>
+    <t>C、聊天    温柔    熄灭    完好无损</t>
+  </si>
+  <si>
+    <t>D、脸蛋    密秘    粗暴    小心翼翼</t>
+  </si>
+  <si>
+    <t>字形；半截蜡烛</t>
+  </si>
+  <si>
+    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A“ 腊烛”改为“蜡烛”   B“难到”改为“难道” D“密秘 ”改为“秘密” 故答案为：C。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
+  </si>
+  <si>
+    <t>下面的谚语中，不是关于时间的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、少年易老学难成，一寸光阴不可轻。</t>
+  </si>
+  <si>
+    <t>B、瑞雪兆丰年。</t>
+  </si>
+  <si>
+    <t>C、不饱食以终日，不弃功于寸阴。</t>
+  </si>
+  <si>
+    <t>D、勿谓今日不学有来日，勿谓今年不学有来年。</t>
+  </si>
+  <si>
+    <t>谚语；半截蜡烛</t>
+  </si>
+  <si>
+    <t>【分析】考查对谚语的理解。A少年易老学难成，一寸光阴不可轻。意思：这是朱熹用切身体会告戒年轻人的经验之谈。说明人生易老，学问难成，因而必须爱惜光阴。因其“易老”、故“不可轻”，可见惜时之重要。这两句育种心长地劝导我，应该珍惜自己美好的年华，努力学习，切莫让可贵的时光从身边白白地溜走。 B瑞雪兆丰年。意思：是一句流传比较广农谚，它的意思是适时的冬雪预示着来年是丰收之年。是来年庄稼获得丰收的预兆。C不饱食以终日，不弃功于寸阴。意思：不要整日就只是吃饱喝足（却不去多思考多探索），不要因为懒惰少花一点时间造成功亏一篑。D勿谓今日不学有来日，勿谓今年不学有来年。　意思：不要说今天不学还有明天 不要说今年不学还有来年啊, 就是叫人珍惜现在的时光,不要浪费时间 。综上选B 。【点评】了解谚语，在日常生活中注意积累，丰富知识。</t>
+  </si>
+  <si>
+    <t>划线字的读音全部正确的一组是（    ）</t>
+  </si>
+  <si>
+    <t>A、勾勒（lè）    凹进去（āo）  戎装（jiè）     匕首（bǐ）</t>
+  </si>
+  <si>
+    <t>B、低吟（yín）   清晰（xī）    遵循（dùn）     娇娆（ráo）</t>
+  </si>
+  <si>
+    <t>C、渲染（xuàn）  抚摸（fǔ)     陷入（xiàn）    狰狞（zhēng）</t>
+  </si>
+  <si>
+    <t>D、天涯（yá）    贸易（mào）   矗立（zhí）     机械（xiè）</t>
+  </si>
+  <si>
+    <t>拼音；把铁路修到拉萨去</t>
+  </si>
+  <si>
+    <t>【分析】选C。本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A 戎装（jiè——róng）B 遵循（dùn——xún）D 矗立（zhí——chù）【点评】正确读准字音，注意区别形近字的读音，还要注意声调、声母、韵母的区别，平时要多读，多练。</t>
+  </si>
+  <si>
+    <t>课文《坐井观天》整体梳理，选择正确的一个（    ）</t>
+  </si>
+  <si>
+    <t>A、这个故事，告诉我们青蛙不爱动脑筋。</t>
+  </si>
+  <si>
+    <t>B、这个故事，告诉我们天是无边无际的。</t>
+  </si>
+  <si>
+    <t>C、这个故事，告诉我们看问题要全面，眼光放远，不要坐在井里看天，那样是错误的。</t>
+  </si>
+  <si>
+    <t>课文内容理解；坐井观天</t>
+  </si>
+  <si>
+    <t>根据课文《一封信》内容，选择正确答案。文中露西共写了两封信，其中第一封信的内容        ， 第二封信内容     。（    ）</t>
+  </si>
+  <si>
+    <t>A、乐观  悲观</t>
+  </si>
+  <si>
+    <t>B、悲观   乐观</t>
+  </si>
+  <si>
+    <t>课文内容理解；一封信</t>
+  </si>
+  <si>
+    <t>下面几句话按顺序排列，正确的一项是（    ）①小溪的一边是果园，春天，花香弥漫，蜂飞蝶舞。②田野的尽头，连绵的山峰犹如大海里起伏的波涛。③溪水那么清澈、明净，水里的鱼快乐地游来游去。④山腰间的公路，像一条银灰色的绸带飘向远方。⑤一条小溪从我们村子里流过。⑥小溪的另一边是田野，如今沉甸甸的麦穗，正点着头报告丰收的喜悦。</t>
+  </si>
+  <si>
+    <t>A、⑤①⑥②③④</t>
+  </si>
+  <si>
+    <t>C、②④⑤③①⑥</t>
+  </si>
+  <si>
+    <t>D、②③⑤①④⑥</t>
+  </si>
+  <si>
+    <t>【分析】连贯类题目做题时要注意把握基本内容，初步分层归类，先在小范围内排序，然后再考虑层次间的衔接，其中应先找出相关联词、代词以及表时间、地点的词语，然后据此进行句间连缀排列。在上面排列的基础之上，再诵读语段，检查确定。细读不难发现是按由近到远的观察顺序写的，恰当的排序是⑤③①⑥②④。【点评】做好此题关键在于熟读句子，在认真体会作者的写作顺序后，才能进行进一步的理解，排序。</t>
+  </si>
+  <si>
+    <t>依次填入下列横线上的比喻，最恰当的一项是（    ）春联，是文学殿堂里的一枝奇葩，它发自千人之心，出自万人之手，各展其才，各显千秋，豪放______，婉约______，粗犷______，细腻______，洋洋洒洒，蔚为大观。</t>
+  </si>
+  <si>
+    <t>A、如旭日喷薄 似风拂杨柳 如小桥流水 若大江东去</t>
+  </si>
+  <si>
+    <t>B、若大江东去 如小桥流水 如旭日喷薄 似风拂杨柳</t>
+  </si>
+  <si>
+    <t>C、如小桥流水 似风拂杨柳 若大江东去 如旭日喷薄</t>
+  </si>
+  <si>
+    <t>D、似风拂杨柳 如小桥流水 如旭日喷薄 若大江东去</t>
+  </si>
+  <si>
+    <t>【分析】考查比喻句修辞手法。比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。依据比喻的特点，豪放若大江东去，婉约如小桥流水，粗犷如旭日喷薄，细腻似风拂杨柳。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
+  </si>
+  <si>
+    <t>下面歇后语不正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、百年松树，五月芭蕉——粗枝大叶</t>
+  </si>
+  <si>
+    <t>B、瞎猫捉着死老鼠——晦气</t>
+  </si>
+  <si>
+    <t>C、裁缝丢了剪子——只有尺（吃）</t>
+  </si>
+  <si>
+    <t>D、高山头上吹喇叭——名声远扬</t>
+  </si>
+  <si>
+    <t>【分析】歇后语是中国劳动人民自古以来在生活实践中创造的一种特殊语言形式，是一种短小、风趣、形象的语句。它由前后两部分组成:前一部分起"引子"作用，像谜面，后一部分起"后衬"的作用，像谜底，十分自然贴切。在一定的语言环境中，通常说出前半截，"歇"去后半截，就可以领会和猜想出它的本意，所以就称为歇后语。B不对，这句歇后语有很多答案，但没有‘晦气’这一说。按照我的想法以及我学过的知识是‘瞎猫捉着死老鼠——咬住不放’当然还有很多，如‘凑巧’‘好运气’‘难得的好处’‘蒙的”总而言之，这句话是错的。【点评】掌握常用的歇后语，在日常生活中注意积累，丰富知识。</t>
+  </si>
+  <si>
+    <t>下面是有趣的成语之最，搭配不正确的一项是（    ）</t>
+  </si>
+  <si>
+    <t>A、最宝贵的话——金玉良言</t>
+  </si>
+  <si>
+    <t>B、最远的地方——天涯海角</t>
+  </si>
+  <si>
+    <t>C、最大的被子——幕天席地</t>
+  </si>
+  <si>
+    <t>D、最大的手术——脱胎换骨</t>
+  </si>
+  <si>
+    <t>【分析】词语理解的考查。幕天席地：幕，帐子。席，席子。把天作幕，把地当席，指露天。原形容性情豁达，现形容在野外工作的艰苦生活。 也用来形容行为放旷。　故“最大的被子——幕天席地”不搭，选C。 【点评】本题考查学生对重点词语的理解。可依据课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>“发芽”“出发”“蒸发”“发扬”这四个词中的“发”字属于一字多义现象，其意思依次是（    ）</t>
+  </si>
+  <si>
+    <t>A、产生；起程；分散、散开；扩大</t>
+  </si>
+  <si>
+    <t>B、扩大；产生；分散、散开；起程</t>
+  </si>
+  <si>
+    <t>C、起程；分散、散开；扩大；产生</t>
+  </si>
+  <si>
+    <t>D、产生；扩大；起程；分散、散开</t>
+  </si>
+  <si>
+    <t>【分析】本题主要考查学生对一字多义的理解掌握情况，要把字放在语境中去理解。“发芽”“出发”“蒸发”“发扬”这四个词中的“发”字其意思依次是产生；起程；分散、散开；扩大    故选A。【点评】本题考查学生对课文中重点字的理解。可结合语境、课后注释或查字典理解词义。</t>
+  </si>
+  <si>
+    <t>《咕咚》这个故事告诉我们（    ）</t>
+  </si>
+  <si>
+    <t>A、不管别人说什么，我们都应该相信。</t>
+  </si>
+  <si>
+    <t>B、不管别人说什么，我们认为他说的是假的。</t>
+  </si>
+  <si>
+    <t>C、不管别人说什么，我们一定要弄清楚是真是假，弄清楚真相。</t>
+  </si>
+  <si>
+    <t>课文内容理解；咕咚</t>
   </si>
 </sst>
 </file>
@@ -7343,15 +9356,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H423"/>
+  <dimension ref="A1:H575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="D386" sqref="D386"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="G583" sqref="G583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="64.75" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -17529,6 +19543,2659 @@
       </c>
       <c r="H423" s="1" t="s">
         <v>2326</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A425" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A426" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A427" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A428" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A429" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A430" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A431" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A432" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A433" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A434" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A435" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A436" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A437" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" s="1" customFormat="1"/>
+    <row r="439" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A439" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A440" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A441" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" s="1" customFormat="1"/>
+    <row r="443" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A443" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A444" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" s="1" customFormat="1"/>
+    <row r="446" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A446" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A447" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A448" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A449" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A450" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A451" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A452" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A453" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A454" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A455" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A456" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A457" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A458" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A459" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A460" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A461" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A462" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A463" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A464" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A465" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" s="1" customFormat="1"/>
+    <row r="467" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A467" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A468" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A469" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A470" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A471" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A472" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" s="1" customFormat="1"/>
+    <row r="474" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A474" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" s="1" customFormat="1"/>
+    <row r="476" spans="1:8" s="1" customFormat="1"/>
+    <row r="477" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A477" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A478" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A479" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A480" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A481" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A482" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A483" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" s="1" customFormat="1"/>
+    <row r="485" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A485" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A486" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" s="1" customFormat="1"/>
+    <row r="488" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A488" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A489" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" s="1" customFormat="1"/>
+    <row r="491" spans="1:8" s="1" customFormat="1"/>
+    <row r="492" spans="1:8" s="1" customFormat="1"/>
+    <row r="493" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A493" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" s="1" customFormat="1"/>
+    <row r="495" spans="1:8" s="1" customFormat="1"/>
+    <row r="496" spans="1:8" s="1" customFormat="1"/>
+    <row r="497" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A497" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A498" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" s="1" customFormat="1"/>
+    <row r="500" spans="1:8" s="1" customFormat="1"/>
+    <row r="501" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A501" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A502" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" s="1" customFormat="1"/>
+    <row r="504" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A504" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" s="1" customFormat="1"/>
+    <row r="506" spans="1:8" s="1" customFormat="1"/>
+    <row r="507" spans="1:8" s="1" customFormat="1"/>
+    <row r="508" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A508" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A509" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" s="1" customFormat="1"/>
+    <row r="511" spans="1:8" s="1" customFormat="1"/>
+    <row r="512" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A512" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A513" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A514" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A515" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A516" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A517" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" s="1" customFormat="1"/>
+    <row r="519" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A519" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A520" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A521" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A522" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A523" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A524" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A525" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A526" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A527" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A528" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A529" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" s="1" customFormat="1"/>
+    <row r="531" spans="1:8" s="1" customFormat="1"/>
+    <row r="532" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A532" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A533" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A534" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A536" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" s="1" customFormat="1"/>
+    <row r="538" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A538" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A539" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" s="1" customFormat="1"/>
+    <row r="541" spans="1:8" s="1" customFormat="1"/>
+    <row r="542" spans="1:8" s="1" customFormat="1"/>
+    <row r="543" spans="1:8" s="1" customFormat="1"/>
+    <row r="544" spans="1:8" s="1" customFormat="1"/>
+    <row r="545" spans="1:8" s="1" customFormat="1"/>
+    <row r="546" spans="1:8" s="1" customFormat="1"/>
+    <row r="547" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A547" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A548" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" s="1" customFormat="1"/>
+    <row r="550" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A550" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A551" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A552" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A553" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A554" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A555" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" s="1" customFormat="1"/>
+    <row r="557" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A557" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A558" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A559" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A560" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A561" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A562" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A563" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A564" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" s="1" customFormat="1"/>
+    <row r="566" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A566" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A567" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" s="1" customFormat="1"/>
+    <row r="569" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A569" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A570" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A571" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A572" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A573" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A574" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A575" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>2997</v>
       </c>
     </row>
   </sheetData>

--- a/blogsite/edu/all.xlsx
+++ b/blogsite/edu/all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="2998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="2327">
   <si>
     <t>《三字经》中教育我们要孝敬父母的一句是（    ）</t>
   </si>
@@ -6999,2019 +6999,6 @@
   </si>
   <si>
     <t>【分析】本题主要考查文言文断句掌握的情况。拿到一篇没有标点符号的古文，（1）先通读全文，了解文意，分析情节。（2）根据文章的内容或层次，先断出几个大的段落或层次，此时注意句首、句末虚词，这样凭借段落、层次或句首、句末虚词，把确有把握的地方断开来。（3）对每一段落或层次按照前后顺序，从头到尾地进行解剖，分出若干个句子，加上恰当的标点。（4）通读全文，进行检查，对个别疑难之处，可根据上下文给以推断。故答案为：C【点评】做这类题必须要通读全文，反复钻研。多读多练习。</t>
-  </si>
-  <si>
-    <t>与“黄鹤楼送孟浩然之广陵”的“之”意思相同的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、以子之矛</t>
-  </si>
-  <si>
-    <t>B、反归取之</t>
-  </si>
-  <si>
-    <t>C、“至之市而忘操之”中的第一个“之”</t>
-  </si>
-  <si>
-    <t>【分析】有时同一个词放到不同的语境里，会有不同的表达效果。特别是一些古词，如“之、乎、者、也”等词。“黄鹤楼送孟浩然之广陵”的“之”是“往”的意思；“至之市而忘操之”中的第一个“之”的含义是“到、往”。以子之矛中的“之”的含义为“的”；反归取之中的“之”的含义是“它”。故答案为：C【点评】做这类题千万不能死板教条，应该把所给词放到语境中去体会，做到灵活运用。</t>
-  </si>
-  <si>
-    <t>下列关联词使用不当的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、你既然懂得了这个道理，就要努力地去做。</t>
-  </si>
-  <si>
-    <t>B、小明因为学习刻苦，所以受到老师的表扬。</t>
-  </si>
-  <si>
-    <t>C、老师一边弹琴，同学们一边唱歌。</t>
-  </si>
-  <si>
-    <t>【分析】关联词语的使用：要弄清分句之间的关系，选择关联词语，检查句子是否通顺，句意是否正确。使用关联词语要搭配要得当，使用一组关联词语是要前后呼应，要"成双配对"，不能交叉使用，这样才能是句意畅通、明确。不要生搬硬套。如：因为......所以.....，既然......就......。一边......一边.....虽然也是关联词，但句子的施动者只能是一个人。故答案为：C【点评】本题主要考查学生关联词语的掌握情况，学生对关联词语的应用应该做到得心应手。</t>
-  </si>
-  <si>
-    <t>下列各句中，划线的成语使用恰当的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、这家伙明知罪行严重，却在从容不迫地抹桌子，好像什么事也没有发生。</t>
-  </si>
-  <si>
-    <t>B、北京电视台的几个经济类节目都办得栩栩如生  ， 显示出编导很有水平。</t>
-  </si>
-  <si>
-    <t>C、巍峨的埃菲尔铁塔、雄伟的凯旋门、庄严的巴黎圣母院，这些名胜古迹令人流连忘返。</t>
-  </si>
-  <si>
-    <t>【分析】在平时的学习中注意积累成语，并理解成语的意思，做到会读、会写、会用。尤其是固定成语的识记。“从容不迫”表示沉着镇静,不慌不忙。属于褒义词。“栩栩如生”表示活泼生动的样子。指艺术形象非常逼真，如同活的一样。“流连忘返”的含义为：比喻喜欢、迷醉某种事物而不愿或忘记离开。故答案为：C【点评】此题主要考查学生对成语掌握的熟练程度及灵活运用成语造句的能力。</t>
-  </si>
-  <si>
-    <t>与“罗贯中——《三国演义》”最相似的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、宋江——《水浒传》</t>
-  </si>
-  <si>
-    <t>B、吴承恩——《西游记》</t>
-  </si>
-  <si>
-    <t>C、施耐庵——《红楼梦》</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生文学常识的掌握情况，多了解一些文学常识有利于学生更深入的理解文章内涵以及作者的思想感情，也有利于提高学生的语文水平。题干是作者对应作品。而A中“宋江”不是《水浒传》的作者，是《水浒传》里面的一个人物。C中《红楼梦》的作者是曹雪芹。故答案为：B【点评】学生应该在日常学习中注意积累并掌握一些文学常识。</t>
-  </si>
-  <si>
-    <t>下列词语中，注音不完全正确的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、才干（cái  gàn）    水寨（shuǐ  zài）    迟延（chí  yán）</t>
-  </si>
-  <si>
-    <t>B、调度（diào  dù）    丞相（chéng  xiàng）    吩咐（fēn  fù）</t>
-  </si>
-  <si>
-    <t>C、负责（fù  zé）    乘机（chéng  jī）    勉强（mián  qiáng）</t>
-  </si>
-  <si>
-    <t>【分析】字音题要注意平时的积累，对于课本上出现的常用字的字音一定要读准，要注意形近字的读音和多音字的读音。平时要注意积累，读准字音，标准调号。如：勉强（miǎn qiǎng），而不能读成（mián  qiáng）。故答案为：C【点评】本题考查学生对汉字的认读能力，主要是字音，还要注意多音字的读法。</t>
-  </si>
-  <si>
-    <t>A、恍然大悟      德高望重      可见一斑      狂风怒号</t>
-  </si>
-  <si>
-    <t>B、革故鼎新      各抒巳见      独出心载      曲高和寡</t>
-  </si>
-  <si>
-    <t>C、实事求事      发奋图强      雅俗共赏      坚持不懈</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目的关键是：在平时的学习中注意积累成语，并理解成语的意思，做到会读、会写、会用。尤其是固定成语的识记：例如独出心裁的“裁”不能写成“载”；“实事求是”的“是”不能写成“事”；“发愤图强”的“愤”不能写成“奋”；“各抒己见”的“己”不能写成“已”或者“巳”。故答案为：A【点评】此题主要考查学生对成语掌握的熟练程度。</t>
-  </si>
-  <si>
-    <t>下列词语没有错别字的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、藕断丝连     亭台楼阁     不容争辩     一如既往</t>
-  </si>
-  <si>
-    <t>B、风期雪压     倾盆大雨     千篇一律     低头折节</t>
-  </si>
-  <si>
-    <t>C、夜以继日     浮想连翩     如饥似渴     毫不忧豫</t>
-  </si>
-  <si>
-    <t>D、囫囵吞枣     不求甚解     安然无样     再接再厉</t>
-  </si>
-  <si>
-    <t>【分析】学习和复习的过程中可以进行适当的分类整理，比如同音字、多音字、形近字积累等。同时要加强对常用汉字的认读练习和理解运用。选项B：应为：“风欺雪压”；选项C：应为：“浮想联翩”；选项D：应为：“安然无恙”。故答案为：A。【点评】本题考查学生对汉字的认读和书写能力。</t>
-  </si>
-  <si>
-    <t>2016年出生的人属相是申猴，那2017年出生的人属相是（    ）</t>
-  </si>
-  <si>
-    <t>A、午马</t>
-  </si>
-  <si>
-    <t>B、未羊</t>
-  </si>
-  <si>
-    <t>C、酉鸡</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生的文化常识。文化知识，是文化和知识的总称。 包括了中国传统文化知识，世界文化知识，各个学科的知识，社会各个方面的知识等学生平时应该熟记一些名著、名作、一些知名作家以及课本上的文化常识。故答案为：C【点评】文化常识需要学生日常积累，多读书，并且扩大读书学科范围。</t>
-  </si>
-  <si>
-    <t>“美丽的菊花在秋雨里频频点头。”这句话用的修辞方法是（  ）。</t>
-  </si>
-  <si>
-    <t>A、比喻</t>
-  </si>
-  <si>
-    <t>B、拟人</t>
-  </si>
-  <si>
-    <t>C、排比</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生修辞方法的运用。比喻：根据事物的相似点，用具体的、浅显、熟知的事物来说明抽象的、深奥的、生疏的事物，即打比方。分为明喻、暗喻和借喻。拟人：把物当作人来写，赋予物以人的言行或思想感情，用描写人的词来描写物。排比：把结构相同或相似、语气一致、意思相关联的三个以上的句子或成分排列在一起。故答案为：B【点评】本题主要考查学生的语言表达能力，注意平时应该多读多练笔。</t>
-  </si>
-  <si>
-    <t>下列朗读停顿最正确的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、儿／应声答曰：“未闻／孔雀／是夫子家／禽。”</t>
-  </si>
-  <si>
-    <t>B、儿／/应声答曰：“未闻／孔雀／是夫子／家禽。”</t>
-  </si>
-  <si>
-    <t>C、儿应声／答曰：“未／闻孔雀／是夫子家／禽。”</t>
-  </si>
-  <si>
-    <t>D、儿应声／答曰：“未闻／孔雀／是夫子／家禽。”</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目首先要理解句子的意思，然后根据理解划分停顿。这句话的意思是：孩子应声回答：“没听说过孔雀是先生家的家禽。”。选项B：“家禽”放在一起，曲解了句子的意思；选项C：“未闻”是“没听说过”，不能分开；选项D：同选项B；故答案为：A。【点评】此题主要考查学生对句子的朗读停顿的划分能力。</t>
-  </si>
-  <si>
-    <t>下列词语中，划线字的解释有误的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、甚聪慧（很，非常）</t>
-  </si>
-  <si>
-    <t>B、手疾眼快（快，迅速）</t>
-  </si>
-  <si>
-    <t>C、竭尽全力（全部用出 ）</t>
-  </si>
-  <si>
-    <t>D、瞑目蹲身（昏花迷离）</t>
-  </si>
-  <si>
-    <t>【分析】在平时的学习中注意积累和掌握词语的含义，并能灵活运用。选项D：瞑为动词，闭上的意思。故答案为：D。【点评】此题主要考查学生对词语含义的掌握情况。</t>
-  </si>
-  <si>
-    <t>下列词语中，没有错别字的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、文质彬彬   放涎无礼   攻无不刻   襟飘带舞</t>
-  </si>
-  <si>
-    <t>B、应接不瑕   负荆请罪   势不可挡   杯水车薪</t>
-  </si>
-  <si>
-    <t>C、繁花似锦   绞尽脑汁   了如指掌   美轮美奂</t>
-  </si>
-  <si>
-    <t>D、膀大腰粗   迫不及待   深情厚义   含辛茹苦</t>
-  </si>
-  <si>
-    <t>【分析】学习和复习的过程中可以进行适当的分类整理，比如同音字、多音字、形近字积累等。同时要加强对常用汉字的认读练习和理解运用。选项A：应为：放诞无礼；攻无不克；选项B：应为：应接不暇；势不可当；选项D：应为：深情厚谊；故答案为：C。【点评】本题考查学生对汉字的认读和书写能力。</t>
-  </si>
-  <si>
-    <t>下列各组词语中，划线字读音正确的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、擂鼓（léi）   大臣（chén）      似乎（shì）</t>
-  </si>
-  <si>
-    <t>B、造诣（yì）    匕首（bǐ）        妖娆（ráo）</t>
-  </si>
-  <si>
-    <t>C、抽噎（yē）    入场券（juàn）    侮辱（rǔ）</t>
-  </si>
-  <si>
-    <t>D、陷阱（jǐn）   脊梁（jǐ）        绅士（shēng）</t>
-  </si>
-  <si>
-    <t>【分析】字音题要注意平时的积累，对于课本上出现的常用字的字音一定要读准，要注意形近字的读音和多音字的读音。平时要注意积累，读准字音，标准调号。拿不准的字要查字典。选项A：“似”是多音字，在这里应读：“sì”；选项C：“券”在这里应读“quàn”；选项D：“阱”在这里应读“jǐng”；“绅”在这里应读“shēn”；故答案为：B。【点评】此题主要考查学生对拼音及字形的掌握情况。</t>
-  </si>
-  <si>
-    <t>《乌鸦喝水》这课告诉我们（    ）</t>
-  </si>
-  <si>
-    <t>A、乌鸦口渴了想喝水。</t>
-  </si>
-  <si>
-    <t>B、乌鸦是怎样喝到水的。</t>
-  </si>
-  <si>
-    <t>C、在困难面前要动脑筋想办法。</t>
-  </si>
-  <si>
-    <t>课文内容理解；乌鸦喝水</t>
-  </si>
-  <si>
-    <t>下列词语中划线词意思相同的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、后会有期     不期而遇</t>
-  </si>
-  <si>
-    <t>B、舍本求末     退避三舍</t>
-  </si>
-  <si>
-    <t>C、人去楼空     何去何从</t>
-  </si>
-  <si>
-    <t>D、瞻前顾后     三顾茅庐</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生对一字多义的理解掌握情况，要结合语境去理解。A后会有期：期:时间。以后有见面的时候(用在分别时安慰对方)。不期而遇：期：约定时日。事先没有约定而遇见。指意外碰见，没有指定的时间、地点 ，让人感觉突如其来。B舍本求末：舍：舍弃；抛弃根本的、主要的，而去追求枝节的、次要的。比喻不抓根本环节，而只在枝节问题上下功夫。退避三舍：舍：古时行军计程以三十里为一舍。主动退让九十里。比喻退让和回避，避免冲突。C人去楼空：去：离去。人已离去，楼中空空。比喻故地重游时睹物思人的感慨。 何去何从：去：离开；从：跟随。离开哪儿，走向哪儿。多指在重大问题上选择什么方向。D瞻前顾后：顾：回头看。 看看前面，又看看后面。形容做事之前考虑周密慎重。也形容顾虑太多，犹豫不决。故答案为：C【点评】主要考查学生对多义字的理解，先理解字义，然后根据词语的意思再一 一对号座。</t>
-  </si>
-  <si>
-    <t>下列词语中没有错别字的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、波光磷磷   保佑   信服</t>
-  </si>
-  <si>
-    <t>B、人声鼎沸   抽噎   倜傥</t>
-  </si>
-  <si>
-    <t>C、不假思索   箧意   畅游</t>
-  </si>
-  <si>
-    <t>D、眼花瞭乱   炽热   清澈</t>
-  </si>
-  <si>
-    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A磷——粼B正确。C箧——惬D瞭——眼花缭乱。故答案为：B【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
-  </si>
-  <si>
-    <t>选出没有错别字的一组词语（    ）</t>
-  </si>
-  <si>
-    <t>A、洞穴海鸥美餐</t>
-  </si>
-  <si>
-    <t>B、企图颓丧真察</t>
-  </si>
-  <si>
-    <t>C、邦球朝笑喘气</t>
-  </si>
-  <si>
-    <t>字形；自然之道</t>
-  </si>
-  <si>
-    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。A正确B真察——侦察C邦球——棒球、朝笑——嘲笑。故答案为：A【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
-  </si>
-  <si>
-    <t>文章开头写作者家里生活拮据的作用是（    ）</t>
-  </si>
-  <si>
-    <t>A、强调“我”家急需一辆汽车。</t>
-  </si>
-  <si>
-    <t>B、强调资本主义社会的平民生活艰苦。</t>
-  </si>
-  <si>
-    <t>C、起衬托作用，为下文“还汽车”做铺垫，突出文章的中心思想。</t>
-  </si>
-  <si>
-    <t>课文内容理解；中彩那天</t>
-  </si>
-  <si>
-    <t>【分析】本题考查写作技巧。文章开头写作者家里生活拮据的作用是起衬托作用，为下文“还汽车”做铺垫，突出文章的中心思想。故答案为：C【点评】本题主要考查对作者写作技巧的把握能力。</t>
-  </si>
-  <si>
-    <t>找出读音错误的词语（    ）</t>
-  </si>
-  <si>
-    <t>A、rì chū日出</t>
-  </si>
-  <si>
-    <t>B、jiù zēng ān旧曾谙</t>
-  </si>
-  <si>
-    <t>C、jiāng nán江南</t>
-  </si>
-  <si>
-    <t>D、lǜ rú lán绿如蓝</t>
-  </si>
-  <si>
-    <t>拼音；忆江南</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生对本课生字的掌握情况，学生应在理解的基础上认读生字。字音题的考查只要求识记不要求拼写,即侧重于考查识记、辨别、确定字音的能力,准确地判断其正确与否。识记现代汉语普通话常用字的字音,侧重的是“常用字的字音”。考查主要涉及同音字、形声字、形近字、多音字、习惯性误读字、方言字、统读字、难读字等。多音字、习惯性误读字是考试的重点、形声字、形近字次之。多音字、难读字是“认读”的难点。复习时应分类整理记忆，以记忆为主，把记忆和训练结合起来。本题中：A正确B “曾”是多音字，zēng  改为 céngC正确D正确故答案为：B【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
-  </si>
-  <si>
-    <t>“春来江水绿如蓝”（    ）</t>
-  </si>
-  <si>
-    <t>A、这句诗中的“蓝”是指蓝颜色。</t>
-  </si>
-  <si>
-    <t>B、这句诗中的“蓝”是指叶子为蓝绿色的一种植物。</t>
-  </si>
-  <si>
-    <t>字义；忆江南</t>
-  </si>
-  <si>
-    <t>【分析】“春来江水绿如蓝”诗句的大意思是：春天的江水绿得比蓝草还要绿。“相”："蓝"不是蓝色，是叶子为蓝绿色的一种植物。故答案为：B。【点评】首先理解诗句的意思，在此基础上再理解词义。</t>
-  </si>
-  <si>
-    <t>“相看两不厌”和“湖光秋月两相和”（    ）</t>
-  </si>
-  <si>
-    <t>A、这两句诗中的“相”意思相同。</t>
-  </si>
-  <si>
-    <t>B、这两句诗中的“相”意思不同。</t>
-  </si>
-  <si>
-    <t>【分析】“相看两不厌”诗句的大意思是：敬亭山和我对视着,谁都看不够。“相”：相互。“湖光秋月两相和”诗句的大意思是：湖水映着秋月,秋月照着湖水。“相”：相互。故答案为：A。【点评】首先理解诗句的意思，在此基础上再理解词义。</t>
-  </si>
-  <si>
-    <t>“能不忆江南？”（    ）</t>
-  </si>
-  <si>
-    <t>A、这句是疑问句。</t>
-  </si>
-  <si>
-    <t>B、这句是反问句。</t>
-  </si>
-  <si>
-    <t>修辞手法；忆江南</t>
-  </si>
-  <si>
-    <t>【分析】反问句：是一种修辞方法，是用反诘的语气表达一个肯定的意思，答案已经蕴涵在问句中了，不需要对方来回答，也就是明知故问。它们都运用了问句的形式，表达了某种确定的意思。常和“难道”、“怎么”等反问词联接。综上所述，句子“能不忆江南？”是反问句。故答案为：B【点评】考查学生对反问修辞手法的掌握。要求学生能判断，会应用。</t>
-  </si>
-  <si>
-    <t>下列词语中完全正确的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、赞扬  秘书  壮烈牺牲  巨大悲痛</t>
-  </si>
-  <si>
-    <t>B、凯旋  遗体  疑固鲜血  永驻人间</t>
-  </si>
-  <si>
-    <t>C、弥漫  硝烟  和平之花  制至战争</t>
-  </si>
-  <si>
-    <t>D、威胁  呼吁  身体建康  充满阳光</t>
-  </si>
-  <si>
-    <t>字形；一个中国孩子的呼声</t>
-  </si>
-  <si>
-    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A正确B疑固鲜血——凝固鲜血C制至战争——制止战争D身体建康——身体健康故答案为：A【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
-  </si>
-  <si>
-    <t>选择正确的说法（    ）</t>
-  </si>
-  <si>
-    <t>A、《一个中国孩子的呼声》是一个中国孩子写给联合国秘书长的信，写出了他爸爸为维护和平而壮烈牺牲，他无比怀念爸爸的思想感情。</t>
-  </si>
-  <si>
-    <t>B、《一个中国孩子的呼声》是一个中国孩子写给联合国秘书长的信。写出了他爸爸为维护和平而壮烈牺牲，他要学习爸爸勇敢地用自己的生命保卫和平。</t>
-  </si>
-  <si>
-    <t>C、《一个中国孩子的呼声》是一个中国孩子写给联合国秘书长的信。写出了他对爸爸为维护和平壮烈牺牲的怀念与崇敬，饱含着一个孩子渴望和平的真挚感情。</t>
-  </si>
-  <si>
-    <t>课文内容理解；一个中国孩子的呼声</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。《一个中国孩子的呼声》是一个中国孩子写给联合国秘书长的信。写出了他对爸爸为维护和平壮烈牺牲的怀念与崇敬，饱含着一个孩子渴望和平的真挚感情。故答案为：C【点评】此题考查学生对作品内容的掌握的能力。</t>
-  </si>
-  <si>
-    <t>结合课文内容选择划线词语的解释（    ）    两年以前，我亲爱的爸爸作为联合国的一名军事观察员，在执行维护和平的任务中壮烈牺牲。</t>
-  </si>
-  <si>
-    <t>A、祭祀时宰杀的牲畜。</t>
-  </si>
-  <si>
-    <t>B、为了正义的目的舍弃自己的生命。</t>
-  </si>
-  <si>
-    <t>C、放弃或者损害一方的利益。</t>
-  </si>
-  <si>
-    <t>词义；一个中国孩子的呼声</t>
-  </si>
-  <si>
-    <t>【分析】要求学生结合语境理解字义。牺牲：为了正义的目的舍弃自己的生命。故答案为：B。【点评】本题考查学生对词语的理解。可结合语境、课后注释或查字典理解词义。</t>
-  </si>
-  <si>
-    <t>选择排列正确的一组（    ）</t>
-  </si>
-  <si>
-    <t>A、小溪  大海  小河  大江  泉水</t>
-  </si>
-  <si>
-    <t>B、大海  泉水  小河  小溪  大江</t>
-  </si>
-  <si>
-    <t>C、泉水  小溪  小河  大江  大海</t>
-  </si>
-  <si>
-    <t>D、大江  小溪  大海  泉水  小河</t>
-  </si>
-  <si>
-    <t>词义；夜莺的歌声</t>
-  </si>
-  <si>
-    <t>【分析】此题按照范围小到大排序：泉水  小溪  小河  大江  大海。故答案为：C【点评 】此题主要考查给词语排序的能力。</t>
-  </si>
-  <si>
-    <t>下列划线词语使用不当的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、只有刻苦勤奋，珍惜时间，迎难而上才能登上理想的空中楼阁。</t>
-  </si>
-  <si>
-    <t>B、在崎岖的山路上，横七竖八地躺着许多敌人的尸体。</t>
-  </si>
-  <si>
-    <t>C、夜莺在兴致勃勃地唱着，但是那歌声的意思游击队员早已知道了。</t>
-  </si>
-  <si>
-    <t>D、班长斩钉截铁地说了声“走”，带头向棋盘陀走去。</t>
-  </si>
-  <si>
-    <t>成语；夜莺的歌声</t>
-  </si>
-  <si>
-    <t>【分析】本题考查词语的运用。学生要明确词语的意思及用法，在具体语境中体会词语使用的正确与否．词语在句中要使语言表达更准确，简洁，要和句子所表达的感情色彩相一致．A项“空中楼阁”悬在半空中的阁楼。比喻虚幻的事物或脱离实际的空想。与对应的语境不符。B项“横七竖八”形容某东西摆放杂乱，毫无规律。与对应的语境相符。C项“兴致勃勃”兴致：兴趣；勃勃：旺盛的样子。形容兴头很足。与对应的语境相符。D项“斩钉截铁”形容说话或行动坚决果断，毫不犹豫。与对应的语境相符。故答案为：A【点评】在平时的复习中应养成规范使用汉语言文字的习惯，不要被一些媒体的错误用法所误导，并注重积累。积累一些常见的近义词、易错词，注意区分近义词中不同语素的含义，做题时根据语境分析哪个更合适；更重要的是在阅读中培养语感，注意词语使用的语境。</t>
-  </si>
-  <si>
-    <t>《夜莺之歌》这篇文章（    ）</t>
-  </si>
-  <si>
-    <t>A、反映“小夜莺”是一个天真、可爱的孩子。</t>
-  </si>
-  <si>
-    <t>B、表现了“小夜莺”机智勇敢的特点。</t>
-  </si>
-  <si>
-    <t>C、赞扬了“小夜莺”的机智勇敢和爱国主义精神</t>
-  </si>
-  <si>
-    <t>课文内容理解；夜莺的歌声</t>
-  </si>
-  <si>
-    <t>【分析】依据课文内容不难理解，《夜莺之歌》这篇文章赞扬了“小夜莺”的机智勇敢和爱国主义精神。故答案为：C【点评】此题主要考查对课文内容的理解和识记。</t>
-  </si>
-  <si>
-    <t>选出划线词语使用不正确的一项（    ）</t>
-  </si>
-  <si>
-    <t>A、人们推推搡搡地把他迎进屋。</t>
-  </si>
-  <si>
-    <t>B、室内一片狼藉，像是刚刚经过一场很大的劫难。</t>
-  </si>
-  <si>
-    <t>C、他艰难地往前走着，一个趔趄险些摔倒在地。</t>
-  </si>
-  <si>
-    <t>D、河水打着漩涡哗哗地向前流着。</t>
-  </si>
-  <si>
-    <t>词义；小英雄雨来</t>
-  </si>
-  <si>
-    <t>【分析】本题考查词语的运用。学生要明确词语的意思及用法，在具体语境中体会词语使用的正确与否．词语在句中要使语言表达更准确，简洁，要和句子所表达的感情色彩相一致．A项“推推搡搡”粗暴地、接连不断地猛推。与对应的语境不符。B、C、D正确。故答案为：A【点评】在平时的复习中应养成规范使用汉语言文字的习惯，不要被一些媒体的错误用法所误导，并注重积累。积累一些常见的近义词、易错词，注意区分近义词中不同语素的含义，做题时根据语境分析哪个更合适；更重要的是在阅读中培养语感，注意词语使用的语境。</t>
-  </si>
-  <si>
-    <t>结合句子划线词语的意思，找出理解不正确的一项（    ）</t>
-  </si>
-  <si>
-    <t>A、风一吹，鹅毛般的苇絮，就飘飘悠悠地飞起来。飘飘悠悠——本文指苇絮从空中轻缓地往下降。</t>
-  </si>
-  <si>
-    <t>B、“蠢东西！”中尉想着心事，轻蔑地冷笑了一下。轻蔑——轻轻地看</t>
-  </si>
-  <si>
-    <t>C、爸爸对妈妈说：“鬼子又‘扫荡’了，民兵都到区上集合。一两个月才回来。”扫荡——本文指日本鬼子企图用武力消灭抗日根据地军民。</t>
-  </si>
-  <si>
-    <t>D、老人们说：“有志不在年高  ， 雨来是个好孩子。”有志不在年高——有没有志气，不在乎年龄的大小。本课指雨来人小志气大。</t>
-  </si>
-  <si>
-    <t>【分析】词语理解的考查。认真阅读短文，联系上下文，正确理解词义。A 正确B 轻蔑——轻视；看不起。C 正确D 正确故答案为：B【点评】本题考查学生对课文中重点词语的理解。可结合语境、课后注释或查字典理解词义。</t>
-  </si>
-  <si>
-    <t>选出用字组词错误的一组（    ）</t>
-  </si>
-  <si>
-    <t>A、杂：杂活儿  杂粮  杂音  杂质</t>
-  </si>
-  <si>
-    <t>B、当：当场  当今  当面  当心</t>
-  </si>
-  <si>
-    <t>C、傍：傍晚  傍明  傍样  依山傍水</t>
-  </si>
-  <si>
-    <t>D、种：种地  种田  种花  种植</t>
-  </si>
-  <si>
-    <t>字形；字义；四时田园杂兴</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生对形近字的辨析，通过比较部首、字义、组词记忆生字。还有些形近字的读音有的也是相近或相同的，需要平时学习积累的时候细心区分记忆。A正确B正确C傍：榜样。D正确故答案为：C【点评】主要测试学生对形近字的掌握，从读音、结构、字义三方面加以区别，通过比较组词记忆生字。</t>
-  </si>
-  <si>
-    <t>下列关于作者及其作品说法有误的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、范成大的田园诗在中国诗歌史上别具一格，扩大了陶渊明以来田园诗所表现的内容。</t>
-  </si>
-  <si>
-    <t>B、范成大晚年写的《四时田园杂兴》描述了江南农村生活的各个方面，展示了丰富多彩的唐代风土人情，富有浓郁的乡土气息。</t>
-  </si>
-  <si>
-    <t>C、范成大把对农村自然景色的描写和对封建剥削的揭露结合起来，赋予诗句以更深刻的内容。</t>
-  </si>
-  <si>
-    <t>D、范成大通过深入的观察和切身的体验领略了农民勤劳、淳朴的品质和他们生活的苦乐，流露出诗人的同情和共鸣。</t>
-  </si>
-  <si>
-    <t>课文内容理解；四时田园杂兴</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。A正确B 错误。范成大晚年写的《四时田园杂兴》用清新的笔调,对农村初夏时的紧张劳动气氛,作了较为细腻的描写。C正确D正确故答案为：B【点评】此题考查学生对作品内容的掌握的能力。</t>
-  </si>
-  <si>
-    <t>你认为“推敲”的含义应该是（    ）</t>
-  </si>
-  <si>
-    <t>A、推门和敲门。</t>
-  </si>
-  <si>
-    <t>B、把推门改成敲门。</t>
-  </si>
-  <si>
-    <t>C、对文章或问题反复思考和琢磨。</t>
-  </si>
-  <si>
-    <t>词义；全神贯注</t>
-  </si>
-  <si>
-    <t>【分析】词语理解的考查。认真阅读短文，联系上下文，正确理解词义。推敲：对文章或问题反复思考和琢磨。故答案为：C【点评】本题考查学生对课文中重点词语的理解。可结合语境、课后注释或查字典理解词义。</t>
-  </si>
-  <si>
-    <t>选择说法正确的。（    ）</t>
-  </si>
-  <si>
-    <t>A、“风景旧曾谙”的“曾”是多音字。</t>
-  </si>
-  <si>
-    <t>B、“玩赏”和“游览”意思相近。</t>
-  </si>
-  <si>
-    <t>C、“变化多端”的“端”的词义是：项目。</t>
-  </si>
-  <si>
-    <t>D、“我攀登过峰峦雄伟的泰山，游览过红叶似火的香山”，缩写成“我攀登过泰山，游览过香山”，这是错的。</t>
-  </si>
-  <si>
-    <t>拼音；字义；词义；扩写、缩写句子；七月的天山</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾有关知识，比较判断正误。A正确。B  玩赏：因喜爱而观赏、把玩,领略其中情趣。游览：从容地到各处参观、欣赏名胜、风景等。C “变化多端”的“端”的词义是：头绪。形容变化极多。也指变化很大。粗细各异，富有变化。D“我攀登过峰峦雄伟的泰山，游览过红叶似火的香山”，缩写成“我攀登过泰山，游览过香山”，这是错的。【点评】此题综合考查了多音字、词义、字义和缩句的辨析能力，解答时一定要认真分析判断。</t>
-  </si>
-  <si>
-    <t>比较下面每组的句子，找出意思改变的句子。（    ）</t>
-  </si>
-  <si>
-    <t>A、原来像亚里士多德这样的大哲学家，说的话也不是全都对的。原来像亚里士多德这样的大哲学家，说的话也是全都不对的。</t>
-  </si>
-  <si>
-    <t>B、他提出的问题很不寻常，常常使老师很难解答。他提出很不寻常的问题。常常使老师很难解答。</t>
-  </si>
-  <si>
-    <t>C、铁球往下落的速度跟铁球的轻重没有关系。铁球的轻重跟铁球往下落的速度没有关系。</t>
-  </si>
-  <si>
-    <t>语言表达；两个铁球同时着地</t>
-  </si>
-  <si>
-    <t>【分析】A“说的话也不是全都对的。”意思是“说的话有错的”。/  意思是“说的话也是全都不对的。”  上下两句意思不同。B上下两句语序不同，但意思相同。C上下两句语序不同，但意思相同。【点评】此题主要考查对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>读下面的话，写出自己的看法。    是呀，如果我们在生活中能将心比心，就会对老人生出一份尊重，对孩子增加一份关爱，就会使人与人之间多一些宽容和理解。你认为这段话是（    ）</t>
-  </si>
-  <si>
-    <t>A、作者说的。</t>
-  </si>
-  <si>
-    <t>B、母亲教育女儿的话。</t>
-  </si>
-  <si>
-    <t>C、作者的想法。</t>
-  </si>
-  <si>
-    <t>课文内容理解；将心比心</t>
-  </si>
-  <si>
-    <t>【分析】谈自己的看法，回答这种开放性题目时需注意两点：一要联系文章的主旨，二要结合个人的认识。依据课文内容可知，这段话是作者的想法。故答案为：C。【点评】此题属于开放性试题，结合文本内容和生活实际。表述正确，文通句顺，书写认真即可。</t>
-  </si>
-  <si>
-    <t>从下面选出一句说明“将心比心”的话。（    ）</t>
-  </si>
-  <si>
-    <t>A、先天下之忧而忧，后天下之乐而乐。</t>
-  </si>
-  <si>
-    <t>B、己所不欲，勿施于人。</t>
-  </si>
-  <si>
-    <t>语言表达；诗文朗读、默写、翻译；将心比心</t>
-  </si>
-  <si>
-    <t>【分析】A 先天下之忧而忧，后天下之乐而乐。意思：应当在天下人忧愁之前先忧愁,在天下人都享乐之后才享乐.用现在的话说,就是吃苦在前,享乐在后。B 己所不欲，勿施于人。意思：自己不愿为之事，何苦为难别人?善待别人，也就是善待自己;宽容别人，也就是宽容自己;尊重别人，也会受到别人的尊重。故答案为：B。【点评】此题主要考查对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>《扁鹊治病》告诉我们（    ）</t>
-  </si>
-  <si>
-    <t>A、身体不好就要去医治。</t>
-  </si>
-  <si>
-    <t>B、不要过于相信自己，每个人都会生病的。</t>
-  </si>
-  <si>
-    <t>C、不要因为怕有病而不肯医治。比喻掩饰缺点，不愿改正，会造成严重后果。</t>
-  </si>
-  <si>
-    <t>课文内容理解；扁鹊治病</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。《扁鹊治病》告诉我们不要因为怕有病而不肯医治。比喻掩饰缺点，不愿改正，会造成严重后果。故答案为：C【点评】此题考查学生对作品内容的掌握的能力。</t>
-  </si>
-  <si>
-    <t>对下面的句子理解最准确的是（    ）高峰与深谷咫尺为邻，近万米的强烈地形反差，构成了堪称世界第一的壮丽景观。</t>
-  </si>
-  <si>
-    <t>A、这句话说明了雅鲁藏布大峡谷与珠穆朗玛峰相距很远，却像邻居，因此景色壮观。</t>
-  </si>
-  <si>
-    <t>B、这句话说明了雅鲁藏布大峡谷是世界第一壮观的景象。</t>
-  </si>
-  <si>
-    <t>C、这句话形象地点明了雅鲁藏布大峡谷所处的特殊地理位置——与珠穆朗玛峰紧紧相邻，因此，高耸的山峰和低陷的峡谷形成的反差才显得格外突出。</t>
-  </si>
-  <si>
-    <t>课文内容理解；雅鲁藏布大峡谷</t>
-  </si>
-  <si>
-    <t>【分析】理解句子含义题，一是要抓住关键词语，二是要联系课文内容来理解。这句话形象地点明了雅鲁藏布大峡谷所处的特殊地理位置——与珠穆朗玛峰紧紧相邻，因此，高耸的山峰和低陷的峡谷形成的反差才显得格外突出。故答案为：C。【点评】此题主要考查对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>排列句子顺序。下面有三种答案，选择正确的答案。（    ）①终点线上也站满了蚂蚁，有的举着树叶，有的举着果壳。②他们你追我赶，大步冲向终点。③在一个阳光灿烂的日子里，蚂蚁王国的运动会隆重开幕了。④因为他们都知道“友谊第一，比赛第二”的道理。⑤瞧，一队蚂蚁正在森林里进行跑步比赛。⑥大家在欢快地唱歌跳舞，一起为参赛的运动员加油。⑦获得冠军的蚂蚁兴高采烈，没有获得名次的蚂蚁也很开心。⑧这次的蚂蚁运动会在一片欢声笑语中结束了。</t>
-  </si>
-  <si>
-    <t>A、③，⑤，②，①，⑥，⑦，④，⑧</t>
-  </si>
-  <si>
-    <t>B、③，⑥，②，①，⑦，④，⑤，⑧</t>
-  </si>
-  <si>
-    <t>C、③，⑤，①，②，⑥，⑦，④，⑧</t>
-  </si>
-  <si>
-    <t>句子排序、仿写；雅鲁藏布大峡谷</t>
-  </si>
-  <si>
-    <t>【分析】连贯类题目做题时要注意把握基本内容，初步分层归类，先在小范围内排序，然后再考虑层次间的衔接，其中应先找出相关联词、代词以及表时间、地点的词语，然后据此进行句间连缀排列。在上面排列的基础之上，再诵读语段，检查确定。细读不难发现语段是按事情的发展顺序写的，恰当的排序为：③，⑤，②，①，⑥，⑦，④，⑧。故答案为：A【点评】该题考查对句子进行排序的能力，此外还考查学生对语段的整体把握能力、逻辑思维能力和语言组织能力。</t>
-  </si>
-  <si>
-    <t>选出排列正确的一组大写字母。（    ）</t>
-  </si>
-  <si>
-    <t>A、A  D  F  E  G  J</t>
-  </si>
-  <si>
-    <t>B、H  J  K  L  N  O</t>
-  </si>
-  <si>
-    <t>C、J  N  M  O  Q  P</t>
-  </si>
-  <si>
-    <t>D、R  T  S  V  W  X</t>
-  </si>
-  <si>
-    <t>拼音；小木偶的故事</t>
-  </si>
-  <si>
-    <t>【分析】音序排列就是按26个大写字母的先后顺序从新排列，26个英文字母的大写顺序：A、B、C、D、E、F、G、H、I、J、K、L、M、N、O、P、Q、R、S、T、U、V、W、X、Y、Z。故答案为：B。【点评】此题主要考查按音序查排列字母的能力。</t>
-  </si>
-  <si>
-    <t>下面有一组童话全是安徒生写的是（    ）</t>
-  </si>
-  <si>
-    <t>A、《鳄鱼的眼泪》、《白雪公主》、《睡美人》</t>
-  </si>
-  <si>
-    <t>B、《丑小鸭》、《皇帝的新装》、《卖火柴的小女孩》</t>
-  </si>
-  <si>
-    <t>C、《渔夫和金鱼的故事》、《小红帽》、《穷人和富人》</t>
-  </si>
-  <si>
-    <t>文化常识；小木偶的故事</t>
-  </si>
-  <si>
-    <t>【分析】文学常识的信息点有：作者名（字、号）、称谓、生活时代、作品名、体裁、书中人物、主要情节、作品主题及风格、流派等，阅读作品时要注意记忆，根据考试的要求作出相应的解答。A《鳄鱼的眼泪》作者小菲特、《白雪公主》、《睡美人》作者格林兄弟。B安徒生  C《渔夫和金鱼的故事》作者普希金、《小红帽》作者理查德.扎克斯、《穷人和富人》作者作者格林兄弟。故答案为：B。【点评】主要考查学生对文化常识的掌握，要求学生平时多记多积累。</t>
-  </si>
-  <si>
-    <t>读下面的词语，选择排列正确的一组（    ）</t>
-  </si>
-  <si>
-    <t>A、篇   段   词   字   句</t>
-  </si>
-  <si>
-    <t>B、篇   段   句   词   字</t>
-  </si>
-  <si>
-    <t>C、段   篇   词   字   句</t>
-  </si>
-  <si>
-    <t>字义；题西林壁</t>
-  </si>
-  <si>
-    <t>【分析】按结构划分，字连成词，词连成句，句连成段，段连成篇。即：篇   段   句   词   字。故答案为：B。【点评】此题考查学生给词语排序的能力。</t>
-  </si>
-  <si>
-    <t>选择四组成语中写得全对的一组（    ）</t>
-  </si>
-  <si>
-    <t>A、完壁归赵  负荆请罪  应接不瑕   同心协力</t>
-  </si>
-  <si>
-    <t>B、身临其境  无微不至  兴高彩烈  千均一发</t>
-  </si>
-  <si>
-    <t>C、神计妙算  无优无虑  匠心独运  各抒己见</t>
-  </si>
-  <si>
-    <t>D、安然无恙  川流不息  风驰电掣  再接再厉</t>
-  </si>
-  <si>
-    <t>字形；题西林壁</t>
-  </si>
-  <si>
-    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A“完壁归赵”改为“完璧归赵”、“应接不瑕”改为“应接不暇”    B“兴高彩烈”改为“兴高采烈”、“千均一发”改为“千钧一发”。C“无优无虑”改为“无忧无虑” D正确故答案为：D【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
-  </si>
-  <si>
-    <t>“不识庐山真面目，只缘身在此山中。”诗中蕴含着的道理是：（    ）</t>
-  </si>
-  <si>
-    <t>A、当局者迷，旁边者清。</t>
-  </si>
-  <si>
-    <t>B、局部的细致观察，有利于看清事物的真面目。</t>
-  </si>
-  <si>
-    <t>C、对比较复杂的事物，如果不能冷静地进行调查分析，就容易主观地被局部的现象所迷惑，不能全面、正确地认识该事物。</t>
-  </si>
-  <si>
-    <t>诗文朗读、默写、翻译；题西林壁</t>
-  </si>
-  <si>
-    <t>【分析】理解诗句的含义，先根据诗句原本意义，结合具体语境，理解、分析、推断诗句的真正含义。要特别注意，这类试题，往往不是要问词句的表面意义，如果简单地理解为词句的表层意思，就容易理解偏差。“不识庐山真面目，只缘身在此山中。”意思是我之所以认不清庐山真正的面目，是因为我人身处在庐山之中。诗中蕴含着的道理是：对比较复杂的事物，如果不能冷静地进行调查分析，就容易主观地被局部的现象所迷惑，不能全面、正确地认识该事物。故答案为：C【点评】体会重点诗句蕴含着的道理，品味语言表达艺术。</t>
-  </si>
-  <si>
-    <t>读《黄鹤楼送孟浩然之广陵》选择赏析错误的一项（    ）黄鹤楼送孟浩然之广陵李白故人西辞黄鹤楼，烟花三月下扬州。孤帆远影碧空尽，唯见长江天际流。</t>
-  </si>
-  <si>
-    <t>A、前两句旨在点题，引出了相互惜别的人物、地点、时令和友人要前往的目的地。</t>
-  </si>
-  <si>
-    <t>B、三，四两句是从孟浩然的眼光和角度写自己乘船在江中顺流而下，李白伫立楼前以目相送，船越行越远，船上的白帆逐渐消逝在蓝天尽头遥远的水天相接处，最后只能看见长江仿佛是流向天边，这两句诗意蕴深远，李白在楼前伫立之久足见友谊之深长和心情之惆怅了。</t>
-  </si>
-  <si>
-    <t>C、这首诗是李白诗中歌颂真挚友谊和抒写离别之情的代表作，千百年来脍炙人口。</t>
-  </si>
-  <si>
-    <t>D、李白的这首诗，堪称高度含蓄的典范之作，它既没细数情多深、意多长，也没陈述自己伫立江边以目相送的时间多久，但收到的艺术效果却使人深感其中之一往情深、诗味浓郁。</t>
-  </si>
-  <si>
-    <t>课文内容理解；送元二使安西</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。A正确B错误，本题考查诗句所体现的感情。表面看这两句是写景，实际蕴含了作者对友人的深情。“孤帆”绝不是说浩瀚的长江上只有一只帆船，而是写诗人的全部注意力和感情只集中在友人乘坐的那一只帆船上，似乎要把自己的一片情意托付江水，将友人一直送到目的地。C正确D正确故答案为：B【点评】此题主要考查对诗句理解的能力。体味诗歌的遣词和作者表达的思想感情。</t>
-  </si>
-  <si>
-    <t>读《送元二使安西》，选出理解错误的一项（    ）《送元二使安西》王维渭城朝雨浥轻尘，客舍青青柳色新。劝君更尽一杯酒，西出阳关无故人。</t>
-  </si>
-  <si>
-    <t>A、诗的开头勾画了一个能增强离情别绪的环境——客舍，制造一种凄冷的氛围：春晨的细雨不但润湿了飞尘，则且洗涤了旅舍旁的柳树，送别的人在这样的环境、这样的氛围中分手了。</t>
-  </si>
-  <si>
-    <t>B、三，四句直抒胸臆，表达了作者对友人依依不舍，无比挂念心情。</t>
-  </si>
-  <si>
-    <t>C、第一句写雨，制造春寒料峭、凄清冷落的氛围，同时也烘托出诗人送别友人时的忧郁心情。第二句写柳，雨后柳色虽然很美，但柳象征离别，陡然增加人们浓厚的离情别意。</t>
-  </si>
-  <si>
-    <t>D、这首诗能广为流传，主要是因为诗人所流露出的强烈而真实的哀伤悱恻之情，能引起人们的共鸣，而其境界并不高。</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。A正确B正确C正确D错误，这首诗能广为流传，主要是因为诗人所表现的真挚友情令我们赞叹不已。能引起人们的共鸣，而其境界很高。故答案为：D【点评】此题主要考查对诗句理解的能力。体味诗歌的遣词和作者表达的思想感情。</t>
-  </si>
-  <si>
-    <t>下列诗句节奏划分有误的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、渭城／朝雨／浥／轻尘</t>
-  </si>
-  <si>
-    <t>B、客舍／青青／柳／色新</t>
-  </si>
-  <si>
-    <t>C、劝君／更尽／一杯酒</t>
-  </si>
-  <si>
-    <t>D、西出／阳关／无故人</t>
-  </si>
-  <si>
-    <t>诗文朗读、默写、翻译；送元二使安西</t>
-  </si>
-  <si>
-    <t>【分析】解答时，要想正确划分朗读节奏，准确把握句意是关键。A正确B句的朗读节奏可根据音节兼顾意义来划分，按“二二三”的节奏形式可以划分为：客舍／青青／柳色新。C正确D正确故答案为：B。【点评】此题主要考查划分诗句的朗读节奏的能力。</t>
-  </si>
-  <si>
-    <t>对下面这首诗理解不当的一项是（    ）送元二使安西王维渭城朝雨浥轻尘，客舍青青柳色新。劝君更尽一杯酒，西出阳关无敌人。</t>
-  </si>
-  <si>
-    <t>A、诗的第一句通过写雨，制造春寒料峭，凄清冷落的氛围，烘托出诗人送别友人时的忧郁心情。</t>
-  </si>
-  <si>
-    <t>B、“柳色新”形象准确地描绘了一场春晨细雨使客舍旁的柳枝显得格外青翠新鲜的景色。使本文浓厚的离别愁绪多了一分清新，别无他意。</t>
-  </si>
-  <si>
-    <t>C、“更”字用得妙极，不仅显示出诗人劝酒的殷勤，而且暗示离别的时间越来越近。流露出诗人对友人的留恋之情。</t>
-  </si>
-  <si>
-    <t>D、这首诗表面看来语言很寻常，但在这些寻常的话语中，却蕴含着诗人奇崛激荡的情思。</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。A正确B“柳色新”与旧相对，新鲜的，刚长出来的，嫩绿的，形象，生动，能引出了读者对新柳展开形象的想象，读诗如见物，写出了诗人的感受，柳色也是青青的，但是加上诗人本人的感受，它就不仅是一种颜色了，更是一种心态.有情有物，引起读者的共鸣。C正确D正确故答案为：B【点评】此题主要考查对诗句理解的能力。体味诗歌的遣词和作者表达的思想感情。</t>
-  </si>
-  <si>
-    <t>下列四句句子中，没有用夸张手法的一句是（    ）</t>
-  </si>
-  <si>
-    <t>A、又高又厚的磨刀石，磨得像一道弯弯的月牙。</t>
-  </si>
-  <si>
-    <t>B、几十年，几百年，几千年，时间一转眼就过去了。</t>
-  </si>
-  <si>
-    <t>C、男孩说，将来他有了孩子可以拿这只鞋当摇篮。</t>
-  </si>
-  <si>
-    <t>D、飞流直下三千尺，疑是银河落九天。</t>
-  </si>
-  <si>
-    <t>修辞手法；鸟的天堂</t>
-  </si>
-  <si>
-    <t>【分析】夸张，是为了达到某种表达效果的需要，对事物的形象、特征、作用、程度等方面着意夸大或缩小的修辞方式。A把“磨刀石”比作“弯弯的月牙”是比喻。B“几十年，几百年，几千年”，一转眼就过去了，是夸张。C“拿这只鞋当摇篮”是夸张。D“三千尺、落九天”是夸张。故答案为A。【点评】考查学生对夸张修辞手法的掌握。要求学生能判断，会应用。</t>
-  </si>
-  <si>
-    <t>下面四句中每句都有“两个”，其中有一句的“两个”和另外三句的“两个”含义不同（    ）</t>
-  </si>
-  <si>
-    <t>A、王师傅给人修车从不收钱，别人给钱时，他就笑笑说，都是熟识的两个人，算了。</t>
-  </si>
-  <si>
-    <t>B、他觉得自己快要支持不住了，眼前的景物渐渐变成了两个  ， 身子也摇晃起来。</t>
-  </si>
-  <si>
-    <t>C、生活要俭朴，不要有了两个钱就大手大脚地花。</t>
-  </si>
-  <si>
-    <t>D、外婆是不赞成我上大学的。她说：“女孩子，识了两个字，不做睁眼瞎就行了。”</t>
-  </si>
-  <si>
-    <t>词义；鸟的天堂</t>
-  </si>
-  <si>
-    <t>【分析】这是一道“一字多义”的练习题。同一个词在不同的语言环境中可以表达不同的意思。A句中的“两个”表示不定的数目，泛指王师傅熟识的人。B句中的“两个”表示数目。指他由于眼花，看景物一个变成了两个。C句中的“两个”表示不定的数目，指“几个钱”。D句中的“两个”表示不定的数目，泛指识的字。所以A、C、D三句中的“两个”的含义相同。故答案为：B。【点评】一词多义是一种语言现象，正确理解词语的语境意义需要在积累的基础上仔细揣摩。</t>
-  </si>
-  <si>
-    <t>选择写法完全正确的一组汉字（    ）</t>
-  </si>
-  <si>
-    <t>A、人迹罕致    滔滔江水    沉静</t>
-  </si>
-  <si>
-    <t>B、应接不瑕    帘帘飞瀑    花卉</t>
-  </si>
-  <si>
-    <t>C、人声鼎沸    榕树     镇静</t>
-  </si>
-  <si>
-    <t>D、昂手东望    齐头并进    笑盈盈</t>
-  </si>
-  <si>
-    <t>字形；鸟的天堂</t>
-  </si>
-  <si>
-    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A“人迹罕致”改为“人迹罕至” 。B“应接不瑕”改为“应接不暇”。C正确。D“昂手东望”改为“昂首东望”。故答案为：C。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
-  </si>
-  <si>
-    <t>句子意思正确的是（    ）在你写作的时候，跳上桌来，在稿纸上踩印几朵小梅花。</t>
-  </si>
-  <si>
-    <t>A、猫经常淘气，跳上桌来，把梅花踩印在作者的稿纸上，真令人啼笑皆非。</t>
-  </si>
-  <si>
-    <t>B、猫常踩梅花脚印留在稿纸上，比谁都温柔可亲，表达作者对猫非常喜爱的感情。</t>
-  </si>
-  <si>
-    <t>课文内容理解；猫</t>
-  </si>
-  <si>
-    <t>【分析】解答此题关键是要结合语境来理解，依据课文内容可知，文中字里行间都流露出了对猫的喜爱之情，所以这句话是说猫常踩梅花脚印留在稿纸上，比谁都温柔可亲，表达作者对猫非常喜爱的感情。故答案为：B【点评】此题主要考查结合语境对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>句子意思正确的是（    ）说它贪玩吧，的确是呀！要不怎么会一天一夜不回家呢？</t>
-  </si>
-  <si>
-    <t>A、责备猫贪玩到了极点，作者很生气。</t>
-  </si>
-  <si>
-    <t>B、表面上是责备的话，但说的亲切，流露出作者对猫的喜爱之情。</t>
-  </si>
-  <si>
-    <t>【分析】解答此题关键是要结合语境来理解，依据课文内容可知，文中字里行间都流露出了对猫的喜爱之情，所以这句话表面上是责备的话，但说的亲切，流露出作者对猫的喜爱之情。故答案为：B【点评】此题主要考查结合语境对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>“它还会丰富多腔地叫唤，长短不同，粗细各异，变化多端。”这句话中，“端”的意思是（    ）</t>
-  </si>
-  <si>
-    <t>A、事情的开头。</t>
-  </si>
-  <si>
-    <t>B、端正。</t>
-  </si>
-  <si>
-    <t>C、原因，起因。</t>
-  </si>
-  <si>
-    <t>D、方面，项目。</t>
-  </si>
-  <si>
-    <t>字义；猫</t>
-  </si>
-  <si>
-    <t>【分析】要求学生结合语境理解字义。“它还会丰富多腔地叫唤，长短不同，粗细各异，变化多端。”这句话中，“端”的意思是方面，项目。故答案为：D。【点评】本题考查学生对字义的理解。可结合语境、课后注释或查字典理解词义。</t>
-  </si>
-  <si>
-    <t>“它闭息凝视，一连就是几个钟头，非把老鼠等出来不可！”这句话中，“息”的意思是（    ）</t>
-  </si>
-  <si>
-    <t>A、休息。</t>
-  </si>
-  <si>
-    <t>B、呼吸时进出的气。</t>
-  </si>
-  <si>
-    <t>C、停止。</t>
-  </si>
-  <si>
-    <t>D、消息。</t>
-  </si>
-  <si>
-    <t>【分析】要求学生结合语境理解字义。“它闭息凝视，一连就是几个钟头，非把老鼠等出来不可！”这句话中，“息”的意思是呼吸时进出的气。故答案为：B。【点评】本题考查学生对字义的理解。可结合语境、课后注释或查字典理解词义。</t>
-  </si>
-  <si>
-    <t>仔细读读，下列句子中哪一句与课文句子完全相同?（    ）</t>
-  </si>
-  <si>
-    <t>A、马是跪着的，像是在等人骑到它背上，它才站起来似的。</t>
-  </si>
-  <si>
-    <t>B、一时恍恍惚惚的，天空里又像这个，又像那个，其实什么也不像，什么也看不清。</t>
-  </si>
-  <si>
-    <t>课文内容理解；火烧云</t>
-  </si>
-  <si>
-    <t>【分析】依据课文内容可知，A项与课文句子完全相同。B项与课文句子不完全相同，原句是：一时恍恍惚惚的,天空里又像哪个,其实什么也不像,什么也看不清了。【点评】主要考查学生对课文的背诵情况。</t>
-  </si>
-  <si>
-    <t>下面的句子中没有语病的一句是（    ）</t>
-  </si>
-  <si>
-    <t>A、粮食作物是小麦。</t>
-  </si>
-  <si>
-    <t>B、这次考试，同学们的成绩普遍提高了。</t>
-  </si>
-  <si>
-    <t>C、他出席了这次数学竞赛。</t>
-  </si>
-  <si>
-    <t>D、我们大概用了一星期左右的时间，修好了花圃。</t>
-  </si>
-  <si>
-    <t>修改病句；给予是快乐的</t>
-  </si>
-  <si>
-    <t>【分析】辨析病句，一般来说，一看语法通不通，二看意思对不对，三看修辞妥不妥。要想快速而准确地辨析病句，除了平时多阅读，增强语感外，还应该掌握一定的方法，如语感审读法、枝干梳理法、逻辑分析法。A语序颠倒，改为：小麦是粮食作物。B正确C搭配不当，把“出席”改为“参加”D语义重复，“大概”、“左右”去掉其一。故答案为：B【点评】修改病句是一项综合能力训练，可以提高语言表达能力、分析判断能力。注意句子的病因。改病句时要对症下药。</t>
-  </si>
-  <si>
-    <t>比较下面的句子，选择意思相同的句子。（    ）</t>
-  </si>
-  <si>
-    <t>A、①20世纪是一个呼风唤雨的世纪。②呼风唤雨的世纪是20世纪。</t>
-  </si>
-  <si>
-    <t>B、①早在19世纪，英国学者赫胥就注意到恐龙和鸟类在骨骼结构上有许多相似之处。②恐龙和鸟类在骨骼结构上有许多相似之处，早在19世纪，英国学者赫胥就注意到了。</t>
-  </si>
-  <si>
-    <t>C、①恐龙的一支经过漫长的演化，最终变成了凌空翱翔的鸟儿。②一只恐龙经过漫长的演化，最终变成了凌空翱翔的鸟儿。</t>
-  </si>
-  <si>
-    <t>课文内容理解；飞船上的特殊乘客</t>
-  </si>
-  <si>
-    <t>【分析】A不同。①句的意思是20世纪是一个呼风唤雨的世纪。②句的意思是呼风唤雨的世纪不一定是20世纪。B相同C不同。①句中的“一支”指的是恐龙的某一个分支，而不是全部；②句中“一只”指的是一个恐龙。【点评】此题主要考查对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>比较下面每组句子，选择意思相同的句子。（    ）</t>
-  </si>
-  <si>
-    <t>A、①进入住宅，轻松悦耳的乐曲会立即播放。②进入住宅，会立即播放轻松悦耳的乐曲。</t>
-  </si>
-  <si>
-    <t>B、①要想进入住宅必须要输入密码。②只要输入密码就能进入住宅。</t>
-  </si>
-  <si>
-    <t>语言表达；电脑住宅</t>
-  </si>
-  <si>
-    <t>【分析】B不同。①句的意思是要想进入住宅必须要输入密码。②有两层意思：一是输入密码可以进入住宅；二是输入密码也可以不进入住宅。【点评】此题主要考查对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>读句子，理解句子的含义，选择认为准确的说法，再读一读正确答案。一排排搭石，任人走，任人踏，它们联结着故乡的小路，也联结着乡亲们美好的情感。（    ）</t>
-  </si>
-  <si>
-    <t>A、这句话赞扬了搭石任人踩踏，却无怨无悔，默默无语的品格。</t>
-  </si>
-  <si>
-    <t>B、这句话实际是赞扬乡亲们默默无闻、无私奉献的精神。</t>
-  </si>
-  <si>
-    <t>C、这句话含义深刻，不仅写了搭石任人踩踏，默默奉献的精神，而且赞扬了乡亲们默默无闻，无私奉献的精神，搭石也是乡亲们相亲相爱、友好互助情感的纽带。</t>
-  </si>
-  <si>
-    <t>课文内容理解；搭石</t>
-  </si>
-  <si>
-    <t>【分析】理解文章语句的含义，一要结合具体的语境，二要结合文中人物的情感。根据词句原本意义，结合具体语境，理解、分析、推断词句的不同含义，去深入理解词句的真正含义。要特别注意，这类试题，往往不是要问词句的表面意义，如果简单地理解为词句的表层意思，就容易理解偏差。这句话含义深刻，不仅写了搭石任人踩踏，默默奉献的精神，而且赞扬了乡亲们默默无闻，无私奉献的精神，搭石也是乡亲们相亲相爱、友好互助情感的纽带。故答案为：C【点评】体会重要语句的含意，品味语言表达艺术。</t>
-  </si>
-  <si>
-    <t>读了这篇课文《蜜蜂》，我们知道蜜蜂是凭________回到家的。（    ）</t>
-  </si>
-  <si>
-    <t>A、跟着主人找到了家。</t>
-  </si>
-  <si>
-    <t>B、飞得高，能眺望到家园。</t>
-  </si>
-  <si>
-    <t>C、一种超常的记忆力，记得回家的路。</t>
-  </si>
-  <si>
-    <t>D、一种无法解释的本能。</t>
-  </si>
-  <si>
-    <t>课文内容理解；蜜蜂</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾课文内容，比较判断正误。依据课文内容可知，蜜蜂是凭一种无法解释的本能回到家的。A、B、C错误。故答案为：D【点评】此题主要考查对课文内容的理解和识记。</t>
-  </si>
-  <si>
-    <t>画龙点睛。（我会选词填空）（    ）①故宫建筑规模宏大_________，建筑______，布局统一，集中体现了我国古代建筑艺术的独特风格。②河上是五座_________的汉白玉石桥。③大殿廊下，鸣钟击磬，乐声_________。</t>
-  </si>
-  <si>
-    <t>A、壮观    精美    精致    优美</t>
-  </si>
-  <si>
-    <t>B、壮丽    精美    精美    悠扬</t>
-  </si>
-  <si>
-    <t>C、壮美    精巧    精致    动听</t>
-  </si>
-  <si>
-    <t>D、壮丽    精巧    精致    悠扬</t>
-  </si>
-  <si>
-    <t>词义；故宫</t>
-  </si>
-  <si>
-    <t>【分析】选词填空中的备选词语大多数都是同义词或近义词，通过分析、比较，会发现它们之间会有细微差别。因此，选择时我们必须结合词语所在的语言环境，体会词语的区别，认真选择恰当的词语。壮观：气象伟大；景象雄伟。壮丽：雄伟而美丽。壮美：健美；雄壮美丽。壮观多用于形容景象或场面。壮丽多形容景物及事业方面。壮美：多形容描写祖国山川河流。精美：是形容物品外观的，指的是精致与美丽精彩；优美；出色。 精巧：(技术、器物构造等)精细巧妙。 精致：精巧细致。 故选“壮丽”。故选①“壮丽、 精美”。选②“精美”。③从使用习惯方面理解。选“悠扬”。故答案为：B【点评】说话和写作时要正确使用词语，注意词语的搭配和组合；正确理解词语在具体语言环境中的意义；注意词语使用过程中的感情色彩的变化；加强对教材注释和课文后列出的字词背诵积累等。</t>
-  </si>
-  <si>
-    <t>“孔子不能决也”说明什么？不当的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、说明孔子“知之为知之，不知为不知”的求实态度。</t>
-  </si>
-  <si>
-    <t>B、孔圣人也不有知道的东西，这是对他的讽刺。</t>
-  </si>
-  <si>
-    <t>C、从认识水平看，当时的人，包括孔子，是不能解决这个问题的。</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关内容，比较判断正误。“孔子不能决也”说明从认识水平看，当时的人，包括孔子，是不能解决这个问题的。故答案为：C【点评】此题考查学生对作品内容的掌握的能力。</t>
-  </si>
-  <si>
-    <t>阅读下文，回答问题葵花为什么总是向着太阳    在向日葵的茎叶里，有个小东西，它是专门照管向日葵生长的生长素。    生长素很淘气，只要一见到太阳，就跑到花盘背面躲起来，于是这一面长得快。花盘向太阳的一面，生长素少，生长就慢。    太阳东升西落，向日葵那个橙黄美丽的大花盘，也就围绕着太阳转动了。找出正确的说法（    ）</t>
-  </si>
-  <si>
-    <t>A、葵花向着太阳，是因为花盘喜欢阳光。</t>
-  </si>
-  <si>
-    <t>B、葵花向着太阳，是因为生长素见到阳光，就躲到花盘后面。</t>
-  </si>
-  <si>
-    <t>C、葵花向着太阳，是因为向日葵在表示一天中的不同时间。</t>
-  </si>
-  <si>
-    <t>课文内容理解；花钟</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细课文内容，比较判断正误。有第二段可知，葵花向着太阳，是因为生长素见到阳光，就躲到花盘后面。故A、C错误。B正确。【点评】此题考查学生对作品内容的理解的能力。</t>
-  </si>
-  <si>
-    <t>认一认，选一选。（    ）</t>
-  </si>
-  <si>
-    <t>A、虫</t>
-  </si>
-  <si>
-    <t>B、鸟</t>
-  </si>
-  <si>
-    <t>C、花</t>
-  </si>
-  <si>
-    <t>字义；对韵歌</t>
-  </si>
-  <si>
-    <t>我会写笔顺，数笔画。（    ）  “云”字一共有_____画，第三笔是_______。</t>
-  </si>
-  <si>
-    <t>A、4  丿</t>
-  </si>
-  <si>
-    <t>B、4  ㄥ</t>
-  </si>
-  <si>
-    <t>C、5  ㄥ</t>
-  </si>
-  <si>
-    <t>字形；对韵歌</t>
-  </si>
-  <si>
-    <t>A、云</t>
-  </si>
-  <si>
-    <t>B、雨</t>
-  </si>
-  <si>
-    <t>C、风</t>
-  </si>
-  <si>
-    <t>A、山</t>
-  </si>
-  <si>
-    <t>B、网</t>
-  </si>
-  <si>
-    <t>C、对</t>
-  </si>
-  <si>
-    <t>读一读，把不是同类的一组词语选出来。（    ）</t>
-  </si>
-  <si>
-    <t>A、虫    鱼    鸟    羊</t>
-  </si>
-  <si>
-    <t>B、云    雨    风    山</t>
-  </si>
-  <si>
-    <t>C、花    草    竹    木</t>
-  </si>
-  <si>
-    <t>文化常识；对韵歌</t>
-  </si>
-  <si>
-    <t>我能选择按字母表顺序排列正确的（    ）</t>
-  </si>
-  <si>
-    <t>A、A  B  D  F  E</t>
-  </si>
-  <si>
-    <t>B、H  I  J  K  L</t>
-  </si>
-  <si>
-    <t>C、N  M  O  Q  P</t>
-  </si>
-  <si>
-    <t>D、R  T  S  V  W</t>
-  </si>
-  <si>
-    <t>【分析】字母表顺序排列为：A 、B、C、D、E、F、G、H、I、J、K、L、M、N、O、P、Q、R、S、T、U、V、X、Y、Z。故答案为：B【点评】此题要求考查对字母表顺序的掌握能力，平时多练。</t>
-  </si>
-  <si>
-    <t>下面的句子不是比喻句的是（    ）。</t>
-  </si>
-  <si>
-    <t>A、她的脸上满是皱纹，倒像个风干的橘子，哪里会露出笑容来呢！</t>
-  </si>
-  <si>
-    <t>B、今年的稻子长得好，很壮实，雨水又不多，像是能丰收似的。</t>
-  </si>
-  <si>
-    <t>C、他想到将来田里的情形，想到主人的眼泪和干瘪的脸，又想到主人的命运，心里像刀割一样。</t>
-  </si>
-  <si>
-    <t>D、新出的稻穗一个挨一个，星光射在上面，有些发亮，像顶着一层水珠。</t>
-  </si>
-  <si>
-    <t>修辞手法；稻草人</t>
-  </si>
-  <si>
-    <t>【分析】本题考查了对比喻句的理解。比喻句，就是 打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。注意所给句子的意思，会进行辨析，找出本体和喻体。C选项中像不是比喻词，符合题意故答案为：B。【点评】解答本题，注意区分形近字，理解其字形、字义，进行组词，注意平时的积累。</t>
-  </si>
-  <si>
-    <t>课文《稻草人》中稻草人感情变化的过程是（    ）。</t>
-  </si>
-  <si>
-    <t>A、心痛 —— 着急 —— 高兴</t>
-  </si>
-  <si>
-    <t>B、高兴 —— 心痛 —— 着急</t>
-  </si>
-  <si>
-    <t>C、高兴 —— 着急 —— 心痛</t>
-  </si>
-  <si>
-    <t>D、着急 —— 高兴 —— 心痛</t>
-  </si>
-  <si>
-    <t>语言表达；课文内容理解；稻草人</t>
-  </si>
-  <si>
-    <t>【分析】本题考查了对课文内容的理解。注意结合课文内容，分析稻草人感情变化，课文以稻草人的扇子为线索，稻草人的感情变化依次为高兴 —— 着急 —— 心痛，C选项符合题意。故答案为：挺直；杠杆；小艇；扛住【点评】解答本题，注意理解课文内容，这篇课文以稻草人的扇子为线索，稻草人的感情变化依次是：（高兴）→ （惊恐）→ （着急）→ （急得要命）→ （发愁）→ （痛心），注意归纳。</t>
-  </si>
-  <si>
-    <t>下面句子中没有语病的是（    ）</t>
-  </si>
-  <si>
-    <t>A、《草原》这篇课文的作者是老舍先生</t>
-  </si>
-  <si>
-    <t>B、他特别喜欢踢足球和乒乓球。</t>
-  </si>
-  <si>
-    <t>C、李杰同学陆续三年被评为优秀少先队员。</t>
-  </si>
-  <si>
-    <t>修改病句；通往广场的路不止一条</t>
-  </si>
-  <si>
-    <t>【分析】选A。修改病句，指对一句有语病的句子进行修改，使其不改变原意，句子更通顺，有一定条理。常见的病句有以下几种情况: A成分残缺；B前后矛盾；C用词不当；D词序颠倒；E搭配不当；F语义重复；G不合逻辑；H句式杂糅；I表意不明等。B搭配不当，改为：他特别喜欢踢足球和打乒乓球。C用词不当，把“陆续”改为“连续”。【点评】修改病句是一项综合能力训练，可以提高语言表达能力、分析判断能力。注意句子的病因。改病句时要对症下药。</t>
-  </si>
-  <si>
-    <t>找出下面是完整的句子的一项（  ）</t>
-  </si>
-  <si>
-    <t>A、我送给小丽同学。</t>
-  </si>
-  <si>
-    <t>B、漫长的冬天终于过去了。</t>
-  </si>
-  <si>
-    <t>C、夸奖我是个好孩子。</t>
-  </si>
-  <si>
-    <t>D、院子里的葡萄架下。</t>
-  </si>
-  <si>
-    <t>语言表达；松鼠</t>
-  </si>
-  <si>
-    <t>【分析】选B。修改病句，指对一句有语病的句子进行修改，使其不改变原意，句子更通顺，有一定条理。常见的病句有以下几种情况: A成分残缺；B前后矛盾；C用词不当；D词序颠倒；E搭配不当；F语义重复；G不合逻辑；H句式杂糅；I表意不明等。A缺宾语，改为：我送给小丽同学一本书。C缺主语，改为：妈妈夸奖我是个好孩子。D缺谓语。改为：院子里的葡萄架下有一只猫。【点评】修改病句是一项综合能力训练，可以提高语言表达能力、分析判断能力。注意句子的病因。改病句时要对症下药。</t>
-  </si>
-  <si>
-    <t>选择按音序排列正确的一组（    ）</t>
-  </si>
-  <si>
-    <t>A、jù    fù    pì    lǔ   áo    bù     剧    覆    僻    虏    熬    怖</t>
-  </si>
-  <si>
-    <t>B、áo    bù    fù    jù    lǔ    pì     熬    怖    覆    剧    虏    僻</t>
-  </si>
-  <si>
-    <t>C、áo    bù    jù   lǔ    fù    pì      熬    怖    剧    虏    覆    僻</t>
-  </si>
-  <si>
-    <t>D、pì     fù    áo     lǔ    jù    bù僻    覆    熬    虏    剧    怖</t>
-  </si>
-  <si>
-    <t>拼音；丝绸之路</t>
-  </si>
-  <si>
-    <t>【分析】此题一是考查字的读音，二是考察按音序重新排列的能力。音序排列就是按字母的先后顺序排列，即A、B、C、D、E……故：Cáo    bù    fù    jù     lǔ     pì熬    怖    覆    剧    虏    僻【点评】此题要求掌握音序排列的方法。读准字音，平时多练。</t>
-  </si>
-  <si>
-    <t>选出意思错误的句子（    ）</t>
-  </si>
-  <si>
-    <t>A、这篇课文介绍了张骞开通丝稠之路的情况。</t>
-  </si>
-  <si>
-    <t>B、这篇课文说明了丝绸之路对东西方文明交流产生了巨大作用。</t>
-  </si>
-  <si>
-    <t>C、这篇课文说明中国的发展离不开西域各国的帮助。</t>
-  </si>
-  <si>
-    <t>D、这篇课文能使我们产生民族自豪感。</t>
-  </si>
-  <si>
-    <t>课文内容理解；丝绸之路</t>
-  </si>
-  <si>
-    <t>【分析】解答此类题目关键是抓住各项表述的要点，仔细回顾作品有关情节，比较判断正误。A、B、D正确。C错误，这篇课文讲述了我国与其他国家贸易交流的过程，加强了汉朝与西域各国的友好往来。　【点评】此题考查学生对作品内容的掌握的能力。</t>
-  </si>
-  <si>
-    <t>下面句子是比喻句的一项是（  ）。</t>
-  </si>
-  <si>
-    <t>A、屋里什么都不用放，单坐着，就如同升天一般美。</t>
-  </si>
-  <si>
-    <t>B、他不是神仙，往日传说中那如山般的形象轰然倒去。</t>
-  </si>
-  <si>
-    <t>C、穿上这身黑，就好像跟地上一桶白浆较上了劲。</t>
-  </si>
-  <si>
-    <t>修辞手法；刷子李</t>
-  </si>
-  <si>
-    <t>【分析】比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。A、C句不是比喻的修辞手法，没有喻体。B是比喻(明喻)的修辞手法，把他的形象(本体)比作山(喻体)。 故选B。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
-  </si>
-  <si>
-    <t>下列词语中有错字的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、舀水沏茶簸箕</t>
-  </si>
-  <si>
-    <t>B、端祥笤帚旮旯</t>
-  </si>
-  <si>
-    <t>C、散步皱眉警卫员</t>
-  </si>
-  <si>
-    <t>字形；毛主席在花山</t>
-  </si>
-  <si>
-    <t>【分析】选B。此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。B 端祥——端详。A、C、D正确。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
-  </si>
-  <si>
-    <t>给下面的这段话选择标点（    ）    花生的好处很多 有一样最可贵 它的果实埋在地里 不像桃子 石榴 苹果那样 把鲜红嫩绿的果实高高地挂在枝头上 使人一见就生爱慕之心 你们看它矮矮地长在地上等到成熟了 也不能立刻分辨出来它有没有果实 必须挖起来才知道 父亲说</t>
-  </si>
-  <si>
-    <t>A、“，。，、、，。，，。”。</t>
-  </si>
-  <si>
-    <t>B、“，：，、、，。，，。”。</t>
-  </si>
-  <si>
-    <t>C、“。：，、、，。，，。”。</t>
-  </si>
-  <si>
-    <t>标点符号；落花生</t>
-  </si>
-  <si>
-    <t>【分析】此题主要考查学生对标点符号的掌握及运用。常用的点号有顿号、逗号、分号、句号、问号、冒号、叹号；常用的标号有引号、省略号、破折号、书名号、括号等。 如：“花生的好处很多， 有一样最可贵： 它的果实埋在地里 ，不像桃子、 石榴、 苹果那样， 把鲜红嫩绿的果实高高地挂在枝头上。 使人一见就生爱慕之心， 你们看它矮矮地长在地上等到成熟了， 也不能立刻分辨出来它有没有果实。” 必须挖起来才知道 父亲说。故选B。【点评】对于标点符号的考查有选择题、加标点题、修改题。所以平时的学习中，我们要用心体会标点符号的用法，书写过程中也要做到尽可能正确的使用标点符号，另外对于一些标点符号的特殊用法要加以积累。还要注意标点符号的位置。</t>
-  </si>
-  <si>
-    <t>作者写《落花生》的目的是为了（    ）</t>
-  </si>
-  <si>
-    <t>A、说明辛勤的劳动会带来丰厚的收获。</t>
-  </si>
-  <si>
-    <t>B、说明花生的好处很多很多。</t>
-  </si>
-  <si>
-    <t>C、告诉我们花生虽然不好看，可是很有用，不是外表好看而没有实用的东西。</t>
-  </si>
-  <si>
-    <t>D、教育我们要做对别人有用的人，不要做只讲体面而对别人没有好处的人。</t>
-  </si>
-  <si>
-    <t>课文内容理解；落花生</t>
-  </si>
-  <si>
-    <t>【分析】依据课文内容不难理解，作者写《落花生》的目的是为了教育我们要做对别人有用的人，不要做只讲体面而对别人没有好处的人。故选D。【点评】此题主要考查对课文内容的理解和识记。</t>
-  </si>
-  <si>
-    <t>给下面词语中划线的字选择最恰当的解释开国大典（    ）</t>
-  </si>
-  <si>
-    <t>A、把关闭的东西打开</t>
-  </si>
-  <si>
-    <t>B、通</t>
-  </si>
-  <si>
-    <t>C、设置、建立</t>
-  </si>
-  <si>
-    <t>D、举行</t>
-  </si>
-  <si>
-    <t>字义；开国大典</t>
-  </si>
-  <si>
-    <t>【分析】要求学生结合词语理解字义。开国大典：新中国成立举行的盛大的仪式。开：设置、建立、成立。【点评】本题考查学生结合词语理解字义的能力。</t>
-  </si>
-  <si>
-    <t>liǎng bìnhè miànhuí wèichān fú</t>
-  </si>
-  <si>
-    <t>A、两    鬓</t>
-  </si>
-  <si>
-    <t>B、和  面</t>
-  </si>
-  <si>
-    <t>C、回  味</t>
-  </si>
-  <si>
-    <t>D、搀  扶</t>
-  </si>
-  <si>
-    <t>拼音；词形；金色的鱼钩</t>
-  </si>
-  <si>
-    <t>【分析】选B。 本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A项中的“和”是多音字，在“ 和面”中应读huó。【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
-  </si>
-  <si>
-    <t>下面词语中有一个字的注音有错，请选择出来（    ）shōu liànbǎo mǔchōu yēyī dōu</t>
-  </si>
-  <si>
-    <t>A、收  敛</t>
-  </si>
-  <si>
-    <t>B、保  姆</t>
-  </si>
-  <si>
-    <t>C、抽  噎</t>
-  </si>
-  <si>
-    <t>D、衣  兜</t>
-  </si>
-  <si>
-    <t>金色的鱼钩</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。选A。收敛shōu liǎn 。【点评】正确读准字音，注意区别形近字的读音，还要注意声调、声母、韵母的区别，平时要多读，多练。</t>
-  </si>
-  <si>
-    <t>选出与每组示例关系最相似的词。（    ）猴子：动物</t>
-  </si>
-  <si>
-    <t>A、上衣：袜子</t>
-  </si>
-  <si>
-    <t>B、菊花：植物</t>
-  </si>
-  <si>
-    <t>C、西瓜：瓜地</t>
-  </si>
-  <si>
-    <t>D、树枝：树</t>
-  </si>
-  <si>
-    <t>词义；金色的鱼钩</t>
-  </si>
-  <si>
-    <t>【分析】由“ 猴子：动物”　可知“猴子”属于“动物”。A“上衣、袜子”  是并列关系 。 B “菊花”属于“植物” 与题干相符。 C “西瓜、瓜地”是并列关系 。D“树枝”是树的一部分。故选B。【点评】本题主要考查学生对词语的分类情况。</t>
-  </si>
-  <si>
-    <t>下面一句话中，划线的三个“苦”字含义依次排列正确的一项是（    ）    李大山品尝了欧洲打工之苦后，颇有感慨地说：“吃不着的苦  ， 比吃苦的苦还要苦。”</t>
-  </si>
-  <si>
-    <t>A、困苦、劳苦、痛苦</t>
-  </si>
-  <si>
-    <t>B、痛苦、辛苦、心酸</t>
-  </si>
-  <si>
-    <t>C、困苦、痛苦、艰难</t>
-  </si>
-  <si>
-    <t>D、痛苦、艰辛、劳苦</t>
-  </si>
-  <si>
-    <t>字义；假如没有灰尘</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生对一字多义的理解掌握情况，要结合语境去理解。李大山品尝了欧洲打工之苦后，颇有感慨地说：“吃不着的苦（痛苦），比吃苦的苦（辛苦）还要苦（心酸）。”故填B 。【点评】主要考查学生对多义字的理解，先理解字义，然后根据词语的意思再一 一对号座。</t>
-  </si>
-  <si>
-    <t>组词错误的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、蓬（蓬勃）       篷（帐篷）</t>
-  </si>
-  <si>
-    <t>B、扒（扒手）       趴（趴下）</t>
-  </si>
-  <si>
-    <t>C、梁（栋梁）       粱（高粱）</t>
-  </si>
-  <si>
-    <t>D、澈（清澈）       辙（辙退）</t>
-  </si>
-  <si>
-    <t>字形；字义；词形；珍珠鸟</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生对形近字的辨析，通过比较部首、字义、组词记忆生字。还有些形近字的读音有的也是相近或相同的，需要平时学习积累的时候细心区分记忆。A、B、C正确 D错误。改为： 辙（车辙）【点评】主要测试学生对形近字的掌握，从读音、结构、字义三方面加以区别，通过比较组词记忆生字。</t>
-  </si>
-  <si>
-    <t>下面划线的字读音全部正确的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、打蔫（niān）怔（zhēn）住喋（dié）喋不休</t>
-  </si>
-  <si>
-    <t>B、艰涩（shè）忐忑（tè）拖沓（tà）</t>
-  </si>
-  <si>
-    <t>C、倚（yǐ）靠沙漏（lòu）瞬（shùn）间</t>
-  </si>
-  <si>
-    <t>D、坠（zuì）落谴（qiǎn）责磨炼（niàn）</t>
-  </si>
-  <si>
-    <t>拼音；学会看病</t>
-  </si>
-  <si>
-    <t>【分析】选C。本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A 怔（zhēn——zhèng ）住   B 艰涩（shè——sè） D坠（zuì——zhuì）落、磨炼（niàn——liàn）。【点评】正确读准字音，注意区别形近字的读音，还要注意声调、声母、韵母的区别，平时要多读，多练。</t>
-  </si>
-  <si>
-    <t>下列横线上依次搭配最合适的一项是（    ）解放________________解决________________解散________________解除________________</t>
-  </si>
-  <si>
-    <t>A、思想问题组织痛苦</t>
-  </si>
-  <si>
-    <t>B、组织思想问题痛苦</t>
-  </si>
-  <si>
-    <t>C、思想组织痛苦问题</t>
-  </si>
-  <si>
-    <t>D、痛苦问题思想组织</t>
-  </si>
-  <si>
-    <t>桂花雨</t>
-  </si>
-  <si>
-    <t>【分析】词语搭配就是前一个词语和后一个词语搭配得当，能将意思表达得更好，更准确。解放思想、解决问题、解散组织、解除痛苦。选A。【点评】本题主要考查学生对词语的搭配的能力，在于平时的词语积累和对课文的掌握。这些词语都是课文中的，只要对课文内容熟练掌握，做起来就不难。</t>
-  </si>
-  <si>
-    <t>读课文，体会文章的中心思想。（    ）</t>
-  </si>
-  <si>
-    <t>A、赞扬了中国人民志愿军归国时与朝鲜人民依依惜别的感情。</t>
-  </si>
-  <si>
-    <t>B、赞扬了中朝人民用鲜血凝成的伟大友谊。</t>
-  </si>
-  <si>
-    <t>课文内容理解；再见了，亲人</t>
-  </si>
-  <si>
-    <t>【分析】概括中心思想 “中心思想”是对一篇文章的内容和思想做出的确切、扼要的说明，简单说就是作者的写作目的或者作者要告诉人们什么。概括中心思想一般分两步：第一步弄清作者写了什么，即文章的主要内容；第二步分析作者为什么要写，即作者的写作目的——作者想要表达的观点、感情、立场等等。这篇课文叙述了中国人民志愿军回国时，在车站同朝鲜人民话别的情景，回忆了以大娘、小金花、大嫂为代表的朝鲜人民对志愿军的无私援助、亲人般的关怀和难分难舍的深情，赞扬了中朝人民用鲜血凝成的伟大友谊。故选B。【点评】此题主要考查概括文章中心思想的能力。</t>
-  </si>
-  <si>
-    <t>下列词中都属于一类的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、勇敢    顽强    聪明    沉着    狡猾</t>
-  </si>
-  <si>
-    <t>B、火光    时光    灯光    阳光    月光</t>
-  </si>
-  <si>
-    <t>C、山雀    夜莺    杜鹃    乌鸦    朱鹮</t>
-  </si>
-  <si>
-    <t>D、脑海    大海    湖泊    江河    溪流</t>
-  </si>
-  <si>
-    <t>词义；钓鱼的启示</t>
-  </si>
-  <si>
-    <t>【分析】A“勇敢    顽强    聪明    沉着”都是褒义词，“狡猾”是贬义词。B“时光”不同于“火光   灯光    阳光    月光”C“山雀    夜莺    杜鹃    乌鸦    朱鹮”都是鸟类 D“脑海”不同于“大海    湖泊    江河    溪流”　故选C。【点评】本题主要考查学生对词语的分类情况。在于平时对词语积累和对课文的掌握。</t>
-  </si>
-  <si>
-    <t>课文《钓鱼的启示》中“我却不止一次地遇到了与那条鲈鱼相似的诱惑人的‘鱼’”中的“鱼”指的是（    ）</t>
-  </si>
-  <si>
-    <t>A、漂亮的鲈鱼</t>
-  </si>
-  <si>
-    <t>B、各种各样考验人道德的事与物</t>
-  </si>
-  <si>
-    <t>字义；钓鱼的启示</t>
-  </si>
-  <si>
-    <t>【分析】要求学生结合语境理解字义。“我却不止一次地遇到了与那条鲈鱼相似的诱惑人的‘鱼’”中的“鱼”指的是各种各样考验人道德的事与物。故选B。【点评】本题考查学生结合语境理解字义的能力。</t>
-  </si>
-  <si>
-    <t>课文《穷人》中，“她的心跳得很厉害。她自己也不知道为什么要这样做，但是她觉得非这样做不可。”这句话表现了（    ）</t>
-  </si>
-  <si>
-    <t>A、桑娜一时懵住了，糊里糊涂地把孩子抱回来了。</t>
-  </si>
-  <si>
-    <t>B、桑娜当时没有多加考虑，是一颗淳朴、善良的心让她这样去做的。</t>
-  </si>
-  <si>
-    <t>C、桑娜不清楚该不该抱回来，心里十分矛盾，不知怎么办。</t>
-  </si>
-  <si>
-    <t>课文内容理解；穷人</t>
-  </si>
-  <si>
-    <t>【分析】"这样做"是指收养西蒙的两个孤儿，把他们扶养成人。桑娜探望西蒙，意外地发现西蒙已经病故，留下两个年幼的孩子──一个还不会说话，另一个刚会爬。面对西蒙的悲惨遭遇，桑娜本能地把两个孤儿抱回了自己的家。"不知道为什么要这样做"与"但是觉得非这样做不可"看似矛盾，实际上反映了桑娜同情穷人、关心穷人的善良品质。故答案为：B。【点评】此题主要考查对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>课文《穷人》中，“他会说什么呢？这是闹着玩的吗？自己的五个孩子已经够他受的了……是他来啦？不……还没来！……为什么把他们抱过来啊？……他会揍我的！那也活该，我自作自受。……嗯，揍我一顿也好！”这句话表达了（    ）</t>
-  </si>
-  <si>
-    <t>A、桑娜担心、害怕的思想感情。</t>
-  </si>
-  <si>
-    <t>B、桑娜既疼爱丈夫，担心丈夫不同意，又不惜做出任何牺牲也要收养两个孤儿的思想感情。</t>
-  </si>
-  <si>
-    <t>【分析】桑娜抱回孤儿后，面对自己的五个孩子，想想生死未卜的丈夫，她紧张、担忧，她不知道丈夫会说什么，觉得自己这样做给丈夫增加了负担，觉得对不起他；她担心丈夫突然回来，不知道怎么告诉丈夫自己把孤儿抱回家的事。但是她宁可让丈夫揍一顿，也要收养孤儿。课文真实地展现了桑娜此时的心理活动。透过桑娜的心理活动，读者能充分感受到生活给桑娜带来的压力，感受到桑娜热爱丈夫，同情孤儿，宁可自己吃苦也要帮助别人的美好的心灵。激起读者对桑娜今后命运的关心。故答案为：B。【点评】此题主要考查对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>《穷人》中，“嗯，是个问题！”他搔搔后脑勺说，“嗯，你看怎么办？得把他们抱来，同死人呆在一起怎么行！哦，我们，我们总能熬过去的！快去，别等他们醒来。”这句话说明了（     ）</t>
-  </si>
-  <si>
-    <t>A、渔夫在考虑怎样收养这两个孤儿。</t>
-  </si>
-  <si>
-    <t>B、渔夫宁愿自己多吃苦，也要帮助穷人。</t>
-  </si>
-  <si>
-    <t>【分析】"搔搔后脑勺"说明他正在认真考虑，形象地说明渔夫觉得问题严重。"嗯，你看怎么办？"这是渔夫在征求妻子的意见。"得把他们抱来，同死人呆在一起怎么行！"这是渔夫做出的初步决定。"哦，我们，我们总能熬过去的！""熬"，是忍受（疼痛或艰苦的生活）的意思。说明渔夫为了抚养邻居的孩子，准备过更艰苦的日子，准备付出更多的辛劳。"快去！别等他们醒来。"渔夫怕孩子醒来受惊，催促桑娜去抱孩子。这段话细致地描写了渔夫做出决定前后思考的过程，说明他与妻子桑娜一样，有着一颗甘愿自己受苦也要帮助他人的高尚的心。　故答案选B。【点评】此题主要考查对句子的理解能力。</t>
-  </si>
-  <si>
-    <t>下列各组拼音全部正确的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、功勋（xūn）喃（nān）喃</t>
-  </si>
-  <si>
-    <t>B、慰（wèi）问牺牲（shēng）</t>
-  </si>
-  <si>
-    <t>C、黯（àn）然尸（sī）体</t>
-  </si>
-  <si>
-    <t>D、凑（zòu）近眷（juàn）念</t>
-  </si>
-  <si>
-    <t>拼音；青山处处埋忠骨</t>
-  </si>
-  <si>
-    <t>【分析】选B。本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A  喃（nán）喃 C尸（shī）体D凑（còu ）近【点评】正确读准字音，注意区别形近字的读音，还要注意声调、声母、韵母的区别，平时要多读，多练。</t>
-  </si>
-  <si>
-    <t>下列句中，不是比喻句的是（     ）</t>
-  </si>
-  <si>
-    <t>A、有时我会贴在一个大人的身边，仿佛我是他的小妹妹或小女儿。</t>
-  </si>
-  <si>
-    <t>B、浪潮犹如千万匹齐头并进的战马，浩浩荡荡飞奔而来。</t>
-  </si>
-  <si>
-    <t>C、我合上书，咽了一口唾沫，好像把所有的智慧都吞下去了，然后才依依不舍地把书放回书架。</t>
-  </si>
-  <si>
-    <t>修辞手法；窃读记</t>
-  </si>
-  <si>
-    <t>【分析】比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。A句不是比喻的修辞手法，没有喻体。B句是比喻(明喻)的修辞手法，把浪潮(本体)比作千万匹齐头并进的战马(喻体)。C句是比喻(明喻)的修辞手法，把咽了一口唾沫(本体)比作把所有的智慧都吞下去了(喻体)。故答案为：A。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
-  </si>
-  <si>
-    <t>下列几组词语中划线字注音完全正确的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、黎明（lí）狂奔（bēn）势不可挡（sì）</t>
-  </si>
-  <si>
-    <t>B、似的（sì）狞笑（níng）揪出（jiū）</t>
-  </si>
-  <si>
-    <t>C、放肆（sì）搀扶（chān）祭奠（diàn）</t>
-  </si>
-  <si>
-    <t>D、舔着（tiǎn）折回（zé）拥戴（dài）</t>
-  </si>
-  <si>
-    <t>拼音；桥</t>
-  </si>
-  <si>
-    <t>【分析】选C。 本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A势不可挡（shì）B“似”是多音字，似的（shì）D“折”是多音字，折回（zhé）【点评】正确读准字音，注意声调、声母、韵母的区别。对于多音字，我们读的时候，要根据词语的意思来确定它的读音，做到认真、细致，如果对某个字不大熟悉，一定要查字典弄明白。</t>
-  </si>
-  <si>
-    <t>下列词语中有错别字的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、灿烂   增添   音符</t>
-  </si>
-  <si>
-    <t>B、吹佛   掠过   忘记</t>
-  </si>
-  <si>
-    <t>C、厕所   贫道   粉碎</t>
-  </si>
-  <si>
-    <t>D、摘要   黄瓜   堡垒</t>
-  </si>
-  <si>
-    <t>字形；泊船瓜洲</t>
-  </si>
-  <si>
-    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。ACD正确。B吹佛——吹拂。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
-  </si>
-  <si>
-    <t>选出和例子是同一类的一对词。例：外婆——外孙（    ）</t>
-  </si>
-  <si>
-    <t>A、外公——外甥</t>
-  </si>
-  <si>
-    <t>B、外婆——舅舅</t>
-  </si>
-  <si>
-    <t>C、爷爷——孙子</t>
-  </si>
-  <si>
-    <t>泊船瓜洲</t>
-  </si>
-  <si>
-    <t>【分析】由题干，例：外婆——外孙，可知“外孙”是第三代，“爷爷——孙子”是同一类的一对词，故选C。【点评】本题主要考查学生对词语的分类情况。在于平时对常识的掌握。。</t>
-  </si>
-  <si>
-    <t>下列句子是比喻句的一项是（    ）。</t>
-  </si>
-  <si>
-    <t>A、一场危机似乎过去了。</t>
-  </si>
-  <si>
-    <t>B、烛焰摇曳，发出微弱的光，此时此刻，它仿佛成了屋里最可怕的东西。</t>
-  </si>
-  <si>
-    <t>C、伯诺德夫人的心提到了嗓子眼上，她似乎感到德国军官那几双恶狼般的眼睛正盯在越来越短的蜡烛上。</t>
-  </si>
-  <si>
-    <t>修辞手法；半截蜡烛</t>
-  </si>
-  <si>
-    <t>【分析】比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。A、B句不是比喻的修辞手法，没有喻体。C句是比喻(明喻)的修辞手法，把德国军官的眼睛(本体)比作“恶狼的眼睛”(喻体)。故答案为：C。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
-  </si>
-  <si>
-    <t>下列几组词书写正确的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、哈欠    腊烛    点燃    了如指掌</t>
-  </si>
-  <si>
-    <t>B、难到    严肃    昏暗    不惜低价</t>
-  </si>
-  <si>
-    <t>C、聊天    温柔    熄灭    完好无损</t>
-  </si>
-  <si>
-    <t>D、脸蛋    密秘    粗暴    小心翼翼</t>
-  </si>
-  <si>
-    <t>字形；半截蜡烛</t>
-  </si>
-  <si>
-    <t>【分析】此题是考查同音字、形近字的辨析，改正错别字。认真分析词语中哪个字用错了，应该怎样改正。成语的用字都是固定不变的，不能随便改动。A“ 腊烛”改为“蜡烛”   B“难到”改为“难道” D“密秘 ”改为“秘密” 故答案为：C。【点评】本题考查学生对课文中重点词语的正确书写。平时读书，写作时要注意区别同音字、形近字。</t>
-  </si>
-  <si>
-    <t>下面的谚语中，不是关于时间的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、少年易老学难成，一寸光阴不可轻。</t>
-  </si>
-  <si>
-    <t>B、瑞雪兆丰年。</t>
-  </si>
-  <si>
-    <t>C、不饱食以终日，不弃功于寸阴。</t>
-  </si>
-  <si>
-    <t>D、勿谓今日不学有来日，勿谓今年不学有来年。</t>
-  </si>
-  <si>
-    <t>谚语；半截蜡烛</t>
-  </si>
-  <si>
-    <t>【分析】考查对谚语的理解。A少年易老学难成，一寸光阴不可轻。意思：这是朱熹用切身体会告戒年轻人的经验之谈。说明人生易老，学问难成，因而必须爱惜光阴。因其“易老”、故“不可轻”，可见惜时之重要。这两句育种心长地劝导我，应该珍惜自己美好的年华，努力学习，切莫让可贵的时光从身边白白地溜走。 B瑞雪兆丰年。意思：是一句流传比较广农谚，它的意思是适时的冬雪预示着来年是丰收之年。是来年庄稼获得丰收的预兆。C不饱食以终日，不弃功于寸阴。意思：不要整日就只是吃饱喝足（却不去多思考多探索），不要因为懒惰少花一点时间造成功亏一篑。D勿谓今日不学有来日，勿谓今年不学有来年。　意思：不要说今天不学还有明天 不要说今年不学还有来年啊, 就是叫人珍惜现在的时光,不要浪费时间 。综上选B 。【点评】了解谚语，在日常生活中注意积累，丰富知识。</t>
-  </si>
-  <si>
-    <t>划线字的读音全部正确的一组是（    ）</t>
-  </si>
-  <si>
-    <t>A、勾勒（lè）    凹进去（āo）  戎装（jiè）     匕首（bǐ）</t>
-  </si>
-  <si>
-    <t>B、低吟（yín）   清晰（xī）    遵循（dùn）     娇娆（ráo）</t>
-  </si>
-  <si>
-    <t>C、渲染（xuàn）  抚摸（fǔ)     陷入（xiàn）    狰狞（zhēng）</t>
-  </si>
-  <si>
-    <t>D、天涯（yá）    贸易（mào）   矗立（zhí）     机械（xiè）</t>
-  </si>
-  <si>
-    <t>拼音；把铁路修到拉萨去</t>
-  </si>
-  <si>
-    <t>【分析】选C。本题主要考查学生对本课我会认的字的掌握情况，学生应在理解的基础上认读生字。A 戎装（jiè——róng）B 遵循（dùn——xún）D 矗立（zhí——chù）【点评】正确读准字音，注意区别形近字的读音，还要注意声调、声母、韵母的区别，平时要多读，多练。</t>
-  </si>
-  <si>
-    <t>课文《坐井观天》整体梳理，选择正确的一个（    ）</t>
-  </si>
-  <si>
-    <t>A、这个故事，告诉我们青蛙不爱动脑筋。</t>
-  </si>
-  <si>
-    <t>B、这个故事，告诉我们天是无边无际的。</t>
-  </si>
-  <si>
-    <t>C、这个故事，告诉我们看问题要全面，眼光放远，不要坐在井里看天，那样是错误的。</t>
-  </si>
-  <si>
-    <t>课文内容理解；坐井观天</t>
-  </si>
-  <si>
-    <t>根据课文《一封信》内容，选择正确答案。文中露西共写了两封信，其中第一封信的内容        ， 第二封信内容     。（    ）</t>
-  </si>
-  <si>
-    <t>A、乐观  悲观</t>
-  </si>
-  <si>
-    <t>B、悲观   乐观</t>
-  </si>
-  <si>
-    <t>课文内容理解；一封信</t>
-  </si>
-  <si>
-    <t>下面几句话按顺序排列，正确的一项是（    ）①小溪的一边是果园，春天，花香弥漫，蜂飞蝶舞。②田野的尽头，连绵的山峰犹如大海里起伏的波涛。③溪水那么清澈、明净，水里的鱼快乐地游来游去。④山腰间的公路，像一条银灰色的绸带飘向远方。⑤一条小溪从我们村子里流过。⑥小溪的另一边是田野，如今沉甸甸的麦穗，正点着头报告丰收的喜悦。</t>
-  </si>
-  <si>
-    <t>A、⑤①⑥②③④</t>
-  </si>
-  <si>
-    <t>C、②④⑤③①⑥</t>
-  </si>
-  <si>
-    <t>D、②③⑤①④⑥</t>
-  </si>
-  <si>
-    <t>【分析】连贯类题目做题时要注意把握基本内容，初步分层归类，先在小范围内排序，然后再考虑层次间的衔接，其中应先找出相关联词、代词以及表时间、地点的词语，然后据此进行句间连缀排列。在上面排列的基础之上，再诵读语段，检查确定。细读不难发现是按由近到远的观察顺序写的，恰当的排序是⑤③①⑥②④。【点评】做好此题关键在于熟读句子，在认真体会作者的写作顺序后，才能进行进一步的理解，排序。</t>
-  </si>
-  <si>
-    <t>依次填入下列横线上的比喻，最恰当的一项是（    ）春联，是文学殿堂里的一枝奇葩，它发自千人之心，出自万人之手，各展其才，各显千秋，豪放______，婉约______，粗犷______，细腻______，洋洋洒洒，蔚为大观。</t>
-  </si>
-  <si>
-    <t>A、如旭日喷薄 似风拂杨柳 如小桥流水 若大江东去</t>
-  </si>
-  <si>
-    <t>B、若大江东去 如小桥流水 如旭日喷薄 似风拂杨柳</t>
-  </si>
-  <si>
-    <t>C、如小桥流水 似风拂杨柳 若大江东去 如旭日喷薄</t>
-  </si>
-  <si>
-    <t>D、似风拂杨柳 如小桥流水 如旭日喷薄 若大江东去</t>
-  </si>
-  <si>
-    <t>【分析】考查比喻句修辞手法。比喻句：就是打比方，用浅显、具体、生动的事物来代替抽象、难理解的事物。比喻句的基本结构分为三部分：本体(被比喻的事物)、喻词(表示比喻关系的词语)和喻体。本体、喻体有相似点，但不是同一类事物。依据比喻的特点，豪放若大江东去，婉约如小桥流水，粗犷如旭日喷薄，细腻似风拂杨柳。【点评】考查学生对比喻修辞手法的掌握。要注意本体和喻体特点的一致性。要求学生能判断，会应用。</t>
-  </si>
-  <si>
-    <t>下面歇后语不正确的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、百年松树，五月芭蕉——粗枝大叶</t>
-  </si>
-  <si>
-    <t>B、瞎猫捉着死老鼠——晦气</t>
-  </si>
-  <si>
-    <t>C、裁缝丢了剪子——只有尺（吃）</t>
-  </si>
-  <si>
-    <t>D、高山头上吹喇叭——名声远扬</t>
-  </si>
-  <si>
-    <t>【分析】歇后语是中国劳动人民自古以来在生活实践中创造的一种特殊语言形式，是一种短小、风趣、形象的语句。它由前后两部分组成:前一部分起"引子"作用，像谜面，后一部分起"后衬"的作用，像谜底，十分自然贴切。在一定的语言环境中，通常说出前半截，"歇"去后半截，就可以领会和猜想出它的本意，所以就称为歇后语。B不对，这句歇后语有很多答案，但没有‘晦气’这一说。按照我的想法以及我学过的知识是‘瞎猫捉着死老鼠——咬住不放’当然还有很多，如‘凑巧’‘好运气’‘难得的好处’‘蒙的”总而言之，这句话是错的。【点评】掌握常用的歇后语，在日常生活中注意积累，丰富知识。</t>
-  </si>
-  <si>
-    <t>下面是有趣的成语之最，搭配不正确的一项是（    ）</t>
-  </si>
-  <si>
-    <t>A、最宝贵的话——金玉良言</t>
-  </si>
-  <si>
-    <t>B、最远的地方——天涯海角</t>
-  </si>
-  <si>
-    <t>C、最大的被子——幕天席地</t>
-  </si>
-  <si>
-    <t>D、最大的手术——脱胎换骨</t>
-  </si>
-  <si>
-    <t>【分析】词语理解的考查。幕天席地：幕，帐子。席，席子。把天作幕，把地当席，指露天。原形容性情豁达，现形容在野外工作的艰苦生活。 也用来形容行为放旷。　故“最大的被子——幕天席地”不搭，选C。 【点评】本题考查学生对重点词语的理解。可依据课后注释或查字典理解词义。</t>
-  </si>
-  <si>
-    <t>“发芽”“出发”“蒸发”“发扬”这四个词中的“发”字属于一字多义现象，其意思依次是（    ）</t>
-  </si>
-  <si>
-    <t>A、产生；起程；分散、散开；扩大</t>
-  </si>
-  <si>
-    <t>B、扩大；产生；分散、散开；起程</t>
-  </si>
-  <si>
-    <t>C、起程；分散、散开；扩大；产生</t>
-  </si>
-  <si>
-    <t>D、产生；扩大；起程；分散、散开</t>
-  </si>
-  <si>
-    <t>【分析】本题主要考查学生对一字多义的理解掌握情况，要把字放在语境中去理解。“发芽”“出发”“蒸发”“发扬”这四个词中的“发”字其意思依次是产生；起程；分散、散开；扩大    故选A。【点评】本题考查学生对课文中重点字的理解。可结合语境、课后注释或查字典理解词义。</t>
-  </si>
-  <si>
-    <t>《咕咚》这个故事告诉我们（    ）</t>
-  </si>
-  <si>
-    <t>A、不管别人说什么，我们都应该相信。</t>
-  </si>
-  <si>
-    <t>B、不管别人说什么，我们认为他说的是假的。</t>
-  </si>
-  <si>
-    <t>C、不管别人说什么，我们一定要弄清楚是真是假，弄清楚真相。</t>
-  </si>
-  <si>
-    <t>课文内容理解；咕咚</t>
   </si>
 </sst>
 </file>
@@ -9356,16 +7343,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H575"/>
+  <dimension ref="A1:H423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="G583" sqref="G583"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="D386" sqref="D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="64.75" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -19543,2659 +17529,6 @@
       </c>
       <c r="H423" s="1" t="s">
         <v>2326</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A425" s="1" t="s">
-        <v>2327</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>2328</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>2329</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>2330</v>
-      </c>
-      <c r="F425" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G425" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H425" s="1" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A426" s="1" t="s">
-        <v>2332</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>2333</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>2334</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>2335</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G426" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H426" s="1" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A427" s="1" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>2339</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>2340</v>
-      </c>
-      <c r="F427" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G427" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H427" s="1" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A428" s="1" t="s">
-        <v>2342</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>2343</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>2344</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>2345</v>
-      </c>
-      <c r="F428" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H428" s="1" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A429" s="1" t="s">
-        <v>2347</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>2348</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>2349</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>2350</v>
-      </c>
-      <c r="F429" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H429" s="1" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A430" s="1" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>2352</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>2353</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>2354</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G430" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H430" s="1" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A431" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>2357</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>2358</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="E431" s="1" t="s">
-        <v>2360</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G431" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H431" s="1" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A432" s="1" t="s">
-        <v>2362</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>2363</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>2364</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>2365</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G432" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H432" s="1" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A433" s="1" t="s">
-        <v>2367</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>2368</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>2369</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>2370</v>
-      </c>
-      <c r="F433" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G433" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H433" s="1" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A434" s="1" t="s">
-        <v>2372</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>2373</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>2374</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>2375</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>2376</v>
-      </c>
-      <c r="F434" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G434" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H434" s="1" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A435" s="1" t="s">
-        <v>2378</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>2380</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>2381</v>
-      </c>
-      <c r="E435" s="1" t="s">
-        <v>2382</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G435" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H435" s="1" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A436" s="1" t="s">
-        <v>2384</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>2385</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>2386</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>2387</v>
-      </c>
-      <c r="E436" s="1" t="s">
-        <v>2388</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G436" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H436" s="1" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A437" s="1" t="s">
-        <v>2390</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>2392</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>2393</v>
-      </c>
-      <c r="E437" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="F437" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G437" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H437" s="1" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" s="1" customFormat="1"/>
-    <row r="439" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A439" s="1" t="s">
-        <v>2396</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>2398</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>2399</v>
-      </c>
-      <c r="F439" s="1" t="s">
-        <v>2400</v>
-      </c>
-      <c r="G439" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A440" s="1" t="s">
-        <v>2401</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>2402</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>2403</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>2404</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>2405</v>
-      </c>
-      <c r="F440" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G440" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H440" s="1" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A441" s="1" t="s">
-        <v>2407</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>2408</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>2409</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>2410</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>2411</v>
-      </c>
-      <c r="F441" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G441" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H441" s="1" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" s="1" customFormat="1"/>
-    <row r="443" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A443" s="1" t="s">
-        <v>2413</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>2414</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>2416</v>
-      </c>
-      <c r="F443" s="1" t="s">
-        <v>2417</v>
-      </c>
-      <c r="G443" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H443" s="1" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A444" s="1" t="s">
-        <v>2419</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>2420</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>2421</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>2422</v>
-      </c>
-      <c r="F444" s="1" t="s">
-        <v>2423</v>
-      </c>
-      <c r="G444" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H444" s="1" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" s="1" customFormat="1"/>
-    <row r="446" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A446" s="1" t="s">
-        <v>2425</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>2426</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>2427</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="E446" s="1" t="s">
-        <v>2429</v>
-      </c>
-      <c r="F446" s="1" t="s">
-        <v>2430</v>
-      </c>
-      <c r="G446" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H446" s="1" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A447" s="1" t="s">
-        <v>2432</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>2433</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>2434</v>
-      </c>
-      <c r="F447" s="1" t="s">
-        <v>2435</v>
-      </c>
-      <c r="G447" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H447" s="1" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A448" s="1" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>2438</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>2439</v>
-      </c>
-      <c r="F448" s="1" t="s">
-        <v>2435</v>
-      </c>
-      <c r="G448" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H448" s="1" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A449" s="1" t="s">
-        <v>2441</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>2443</v>
-      </c>
-      <c r="F449" s="1" t="s">
-        <v>2444</v>
-      </c>
-      <c r="G449" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H449" s="1" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A450" s="1" t="s">
-        <v>2446</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>2447</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>2448</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>2449</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>2450</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>2451</v>
-      </c>
-      <c r="G450" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H450" s="1" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A451" s="1" t="s">
-        <v>2453</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>2454</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>2455</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>2456</v>
-      </c>
-      <c r="F451" s="1" t="s">
-        <v>2457</v>
-      </c>
-      <c r="G451" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H451" s="1" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A452" s="1" t="s">
-        <v>2459</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>2460</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>2461</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>2462</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>2463</v>
-      </c>
-      <c r="G452" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H452" s="1" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A453" s="1" t="s">
-        <v>2465</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>2466</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>2467</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>2468</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>2469</v>
-      </c>
-      <c r="F453" s="1" t="s">
-        <v>2470</v>
-      </c>
-      <c r="G453" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H453" s="1" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A454" s="1" t="s">
-        <v>2472</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>2473</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>2474</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>2476</v>
-      </c>
-      <c r="F454" s="1" t="s">
-        <v>2477</v>
-      </c>
-      <c r="G454" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H454" s="1" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A455" s="1" t="s">
-        <v>2479</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>2480</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>2481</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>2482</v>
-      </c>
-      <c r="F455" s="1" t="s">
-        <v>2483</v>
-      </c>
-      <c r="G455" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H455" s="1" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A456" s="1" t="s">
-        <v>2485</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>2486</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>2487</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>2488</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>2489</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>2490</v>
-      </c>
-      <c r="G456" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H456" s="1" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A457" s="1" t="s">
-        <v>2492</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>2493</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>2494</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>2495</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>2496</v>
-      </c>
-      <c r="F457" s="1" t="s">
-        <v>2490</v>
-      </c>
-      <c r="G457" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H457" s="1" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A458" s="1" t="s">
-        <v>2498</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>2499</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>2500</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>2501</v>
-      </c>
-      <c r="E458" s="1" t="s">
-        <v>2502</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>2503</v>
-      </c>
-      <c r="G458" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H458" s="1" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A459" s="1" t="s">
-        <v>2505</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>2507</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>2508</v>
-      </c>
-      <c r="E459" s="1" t="s">
-        <v>2509</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>2510</v>
-      </c>
-      <c r="G459" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H459" s="1" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A460" s="1" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>2513</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>2514</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>2515</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>2516</v>
-      </c>
-      <c r="G460" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H460" s="1" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A461" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>2520</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>2521</v>
-      </c>
-      <c r="E461" s="1" t="s">
-        <v>2522</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G461" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H461" s="1" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A462" s="1" t="s">
-        <v>2525</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>2526</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>2527</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>2528</v>
-      </c>
-      <c r="F462" s="1" t="s">
-        <v>2529</v>
-      </c>
-      <c r="G462" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H462" s="1" t="s">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A463" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>2532</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>2533</v>
-      </c>
-      <c r="D463" s="1" t="s">
-        <v>2534</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>2535</v>
-      </c>
-      <c r="G463" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H463" s="1" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A464" s="1" t="s">
-        <v>2537</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>2538</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>2539</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>2540</v>
-      </c>
-      <c r="G464" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H464" s="1" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A465" s="1" t="s">
-        <v>2542</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>2544</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>2545</v>
-      </c>
-      <c r="F465" s="1" t="s">
-        <v>2546</v>
-      </c>
-      <c r="G465" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H465" s="1" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" s="1" customFormat="1"/>
-    <row r="467" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A467" s="1" t="s">
-        <v>2548</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>2549</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>2550</v>
-      </c>
-      <c r="D467" s="1" t="s">
-        <v>2551</v>
-      </c>
-      <c r="F467" s="1" t="s">
-        <v>2552</v>
-      </c>
-      <c r="G467" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H467" s="1" t="s">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A468" s="1" t="s">
-        <v>2554</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>2556</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>2557</v>
-      </c>
-      <c r="F468" s="1" t="s">
-        <v>2558</v>
-      </c>
-      <c r="G468" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H468" s="1" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A469" s="1" t="s">
-        <v>2560</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>2561</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>2562</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>2563</v>
-      </c>
-      <c r="E469" s="1" t="s">
-        <v>2564</v>
-      </c>
-      <c r="F469" s="1" t="s">
-        <v>2565</v>
-      </c>
-      <c r="G469" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H469" s="1" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A470" s="1" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>2568</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>2569</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>2571</v>
-      </c>
-      <c r="G470" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H470" s="1" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A471" s="1" t="s">
-        <v>2573</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>2575</v>
-      </c>
-      <c r="D471" s="1" t="s">
-        <v>2576</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>2577</v>
-      </c>
-      <c r="G471" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H471" s="1" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A472" s="1" t="s">
-        <v>2579</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>2581</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>2582</v>
-      </c>
-      <c r="E472" s="1" t="s">
-        <v>2583</v>
-      </c>
-      <c r="F472" s="1" t="s">
-        <v>2584</v>
-      </c>
-      <c r="G472" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H472" s="1" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" s="1" customFormat="1"/>
-    <row r="474" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A474" s="1" t="s">
-        <v>2586</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>2587</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>2588</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>2589</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G474" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H474" s="1" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8" s="1" customFormat="1"/>
-    <row r="476" spans="1:8" s="1" customFormat="1"/>
-    <row r="477" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A477" s="1" t="s">
-        <v>2592</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>2593</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D477" s="1" t="s">
-        <v>2595</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>2596</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>2597</v>
-      </c>
-      <c r="G477" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H477" s="1" t="s">
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A478" s="1" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>2600</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>2601</v>
-      </c>
-      <c r="D478" s="1" t="s">
-        <v>2602</v>
-      </c>
-      <c r="E478" s="1" t="s">
-        <v>2603</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>2597</v>
-      </c>
-      <c r="G478" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H478" s="1" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A479" s="1" t="s">
-        <v>2605</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>2606</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>2608</v>
-      </c>
-      <c r="E479" s="1" t="s">
-        <v>2609</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>2610</v>
-      </c>
-      <c r="G479" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H479" s="1" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A480" s="1" t="s">
-        <v>2612</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>2613</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>2614</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>2615</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>2616</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>2597</v>
-      </c>
-      <c r="G480" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H480" s="1" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A481" s="1" t="s">
-        <v>2618</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>2619</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>2620</v>
-      </c>
-      <c r="D481" s="1" t="s">
-        <v>2621</v>
-      </c>
-      <c r="E481" s="1" t="s">
-        <v>2622</v>
-      </c>
-      <c r="F481" s="1" t="s">
-        <v>2623</v>
-      </c>
-      <c r="G481" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H481" s="1" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A482" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>2627</v>
-      </c>
-      <c r="D482" s="1" t="s">
-        <v>2628</v>
-      </c>
-      <c r="E482" s="1" t="s">
-        <v>2629</v>
-      </c>
-      <c r="F482" s="1" t="s">
-        <v>2630</v>
-      </c>
-      <c r="G482" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H482" s="1" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A483" s="1" t="s">
-        <v>2632</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>2633</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>2634</v>
-      </c>
-      <c r="D483" s="1" t="s">
-        <v>2635</v>
-      </c>
-      <c r="E483" s="1" t="s">
-        <v>2636</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>2637</v>
-      </c>
-      <c r="G483" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H483" s="1" t="s">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8" s="1" customFormat="1"/>
-    <row r="485" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A485" s="1" t="s">
-        <v>2639</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>2640</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>2641</v>
-      </c>
-      <c r="F485" s="1" t="s">
-        <v>2642</v>
-      </c>
-      <c r="G485" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H485" s="1" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A486" s="1" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>2645</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>2646</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>2642</v>
-      </c>
-      <c r="G486" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H486" s="1" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8" s="1" customFormat="1"/>
-    <row r="488" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A488" s="1" t="s">
-        <v>2648</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>2649</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>2650</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>2651</v>
-      </c>
-      <c r="E488" s="1" t="s">
-        <v>2652</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>2653</v>
-      </c>
-      <c r="G488" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H488" s="1" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A489" s="1" t="s">
-        <v>2655</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>2656</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>2657</v>
-      </c>
-      <c r="D489" s="1" t="s">
-        <v>2658</v>
-      </c>
-      <c r="E489" s="1" t="s">
-        <v>2659</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>2653</v>
-      </c>
-      <c r="G489" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H489" s="1" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8" s="1" customFormat="1"/>
-    <row r="491" spans="1:8" s="1" customFormat="1"/>
-    <row r="492" spans="1:8" s="1" customFormat="1"/>
-    <row r="493" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A493" s="1" t="s">
-        <v>2661</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>2662</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>2663</v>
-      </c>
-      <c r="F493" s="1" t="s">
-        <v>2664</v>
-      </c>
-      <c r="G493" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H493" s="1" t="s">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8" s="1" customFormat="1"/>
-    <row r="495" spans="1:8" s="1" customFormat="1"/>
-    <row r="496" spans="1:8" s="1" customFormat="1"/>
-    <row r="497" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A497" s="1" t="s">
-        <v>2666</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>2667</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>2668</v>
-      </c>
-      <c r="D497" s="1" t="s">
-        <v>2669</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>2670</v>
-      </c>
-      <c r="F497" s="1" t="s">
-        <v>2671</v>
-      </c>
-      <c r="G497" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H497" s="1" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A498" s="1" t="s">
-        <v>2673</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>2674</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>2675</v>
-      </c>
-      <c r="D498" s="1" t="s">
-        <v>2676</v>
-      </c>
-      <c r="F498" s="1" t="s">
-        <v>2677</v>
-      </c>
-      <c r="G498" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H498" s="1" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" s="1" customFormat="1"/>
-    <row r="500" spans="1:8" s="1" customFormat="1"/>
-    <row r="501" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A501" s="1" t="s">
-        <v>2679</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>2680</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>2681</v>
-      </c>
-      <c r="F501" s="1" t="s">
-        <v>2682</v>
-      </c>
-      <c r="G501" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H501" s="1" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A502" s="1" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>2685</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>2686</v>
-      </c>
-      <c r="D502" s="1" t="s">
-        <v>2687</v>
-      </c>
-      <c r="F502" s="1" t="s">
-        <v>2688</v>
-      </c>
-      <c r="G502" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H502" s="1" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" s="1" customFormat="1"/>
-    <row r="504" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A504" s="1" t="s">
-        <v>2690</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>2691</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>2692</v>
-      </c>
-      <c r="D504" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="E504" s="1" t="s">
-        <v>2694</v>
-      </c>
-      <c r="F504" s="1" t="s">
-        <v>2695</v>
-      </c>
-      <c r="G504" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H504" s="1" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" s="1" customFormat="1"/>
-    <row r="506" spans="1:8" s="1" customFormat="1"/>
-    <row r="507" spans="1:8" s="1" customFormat="1"/>
-    <row r="508" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A508" s="1" t="s">
-        <v>2697</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>2699</v>
-      </c>
-      <c r="D508" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="E508" s="1" t="s">
-        <v>2701</v>
-      </c>
-      <c r="F508" s="1" t="s">
-        <v>2702</v>
-      </c>
-      <c r="G508" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H508" s="1" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A509" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>2706</v>
-      </c>
-      <c r="D509" s="1" t="s">
-        <v>2707</v>
-      </c>
-      <c r="F509" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G509" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H509" s="1" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8" s="1" customFormat="1"/>
-    <row r="511" spans="1:8" s="1" customFormat="1"/>
-    <row r="512" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A512" s="1" t="s">
-        <v>2709</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>2710</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>2711</v>
-      </c>
-      <c r="D512" s="1" t="s">
-        <v>2712</v>
-      </c>
-      <c r="F512" s="1" t="s">
-        <v>2713</v>
-      </c>
-      <c r="G512" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H512" s="1" t="s">
-        <v>2714</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A513" s="1" t="s">
-        <v>2715</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>2716</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>2717</v>
-      </c>
-      <c r="D513" s="1" t="s">
-        <v>2718</v>
-      </c>
-      <c r="F513" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="G513" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A514" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>2721</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>2722</v>
-      </c>
-      <c r="D514" s="1" t="s">
-        <v>2723</v>
-      </c>
-      <c r="F514" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="G514" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A515" s="1" t="s">
-        <v>2715</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>2725</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>2726</v>
-      </c>
-      <c r="D515" s="1" t="s">
-        <v>2727</v>
-      </c>
-      <c r="F515" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="G515" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A516" s="1" t="s">
-        <v>2715</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>2728</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>2729</v>
-      </c>
-      <c r="D516" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="F516" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="G516" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A517" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>2732</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>2733</v>
-      </c>
-      <c r="D517" s="1" t="s">
-        <v>2734</v>
-      </c>
-      <c r="F517" s="1" t="s">
-        <v>2735</v>
-      </c>
-      <c r="G517" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" s="1" customFormat="1"/>
-    <row r="519" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A519" s="1" t="s">
-        <v>2736</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>2737</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>2738</v>
-      </c>
-      <c r="D519" s="1" t="s">
-        <v>2739</v>
-      </c>
-      <c r="E519" s="1" t="s">
-        <v>2740</v>
-      </c>
-      <c r="F519" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G519" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H519" s="1" t="s">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A520" s="1" t="s">
-        <v>2742</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>2744</v>
-      </c>
-      <c r="D520" s="1" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E520" s="1" t="s">
-        <v>2746</v>
-      </c>
-      <c r="F520" s="1" t="s">
-        <v>2747</v>
-      </c>
-      <c r="G520" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H520" s="1" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A521" s="1" t="s">
-        <v>2749</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>2751</v>
-      </c>
-      <c r="D521" s="1" t="s">
-        <v>2752</v>
-      </c>
-      <c r="E521" s="1" t="s">
-        <v>2753</v>
-      </c>
-      <c r="F521" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="G521" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H521" s="1" t="s">
-        <v>2755</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A522" s="1" t="s">
-        <v>2756</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>2757</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>2758</v>
-      </c>
-      <c r="D522" s="1" t="s">
-        <v>2759</v>
-      </c>
-      <c r="F522" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="G522" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H522" s="1" t="s">
-        <v>2761</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A523" s="1" t="s">
-        <v>2762</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>2763</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>2764</v>
-      </c>
-      <c r="D523" s="1" t="s">
-        <v>2765</v>
-      </c>
-      <c r="E523" s="1" t="s">
-        <v>2766</v>
-      </c>
-      <c r="F523" s="1" t="s">
-        <v>2767</v>
-      </c>
-      <c r="G523" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H523" s="1" t="s">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A524" s="1" t="s">
-        <v>2769</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>2770</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>2771</v>
-      </c>
-      <c r="D524" s="1" t="s">
-        <v>2772</v>
-      </c>
-      <c r="E524" s="1" t="s">
-        <v>2773</v>
-      </c>
-      <c r="F524" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="G524" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H524" s="1" t="s">
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A525" s="1" t="s">
-        <v>2776</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>2777</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>2778</v>
-      </c>
-      <c r="D525" s="1" t="s">
-        <v>2779</v>
-      </c>
-      <c r="E525" s="1" t="s">
-        <v>2780</v>
-      </c>
-      <c r="F525" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="G525" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H525" s="1" t="s">
-        <v>2782</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A526" s="1" t="s">
-        <v>2783</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>2784</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>2785</v>
-      </c>
-      <c r="D526" s="1" t="s">
-        <v>2786</v>
-      </c>
-      <c r="F526" s="1" t="s">
-        <v>2787</v>
-      </c>
-      <c r="G526" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H526" s="1" t="s">
-        <v>2788</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A527" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>2790</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>2791</v>
-      </c>
-      <c r="D527" s="1" t="s">
-        <v>2792</v>
-      </c>
-      <c r="F527" s="1" t="s">
-        <v>2793</v>
-      </c>
-      <c r="G527" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H527" s="1" t="s">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A528" s="1" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>2798</v>
-      </c>
-      <c r="F528" s="1" t="s">
-        <v>2799</v>
-      </c>
-      <c r="G528" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H528" s="1" t="s">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A529" s="1" t="s">
-        <v>2801</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>2803</v>
-      </c>
-      <c r="D529" s="1" t="s">
-        <v>2804</v>
-      </c>
-      <c r="E529" s="1" t="s">
-        <v>2805</v>
-      </c>
-      <c r="F529" s="1" t="s">
-        <v>2806</v>
-      </c>
-      <c r="G529" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H529" s="1" t="s">
-        <v>2807</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" s="1" customFormat="1"/>
-    <row r="531" spans="1:8" s="1" customFormat="1"/>
-    <row r="532" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A532" s="1" t="s">
-        <v>2808</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>2809</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="D532" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="E532" s="1" t="s">
-        <v>2812</v>
-      </c>
-      <c r="F532" s="1" t="s">
-        <v>2813</v>
-      </c>
-      <c r="G532" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H532" s="1" t="s">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A533" s="1" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>2816</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="D533" s="1" t="s">
-        <v>2818</v>
-      </c>
-      <c r="E533" s="1" t="s">
-        <v>2819</v>
-      </c>
-      <c r="F533" s="1" t="s">
-        <v>2820</v>
-      </c>
-      <c r="G533" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H533" s="1" t="s">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A534" s="1" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>2823</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>2824</v>
-      </c>
-      <c r="D534" s="1" t="s">
-        <v>2825</v>
-      </c>
-      <c r="E534" s="1" t="s">
-        <v>2826</v>
-      </c>
-      <c r="F534" s="1" t="s">
-        <v>2827</v>
-      </c>
-      <c r="G534" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H534" s="1" t="s">
-        <v>2828</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A536" s="1" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>2830</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>2831</v>
-      </c>
-      <c r="D536" s="1" t="s">
-        <v>2832</v>
-      </c>
-      <c r="E536" s="1" t="s">
-        <v>2833</v>
-      </c>
-      <c r="F536" s="1" t="s">
-        <v>2834</v>
-      </c>
-      <c r="G536" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H536" s="1" t="s">
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8" s="1" customFormat="1"/>
-    <row r="538" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A538" s="1" t="s">
-        <v>2836</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>2837</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>2838</v>
-      </c>
-      <c r="D538" s="1" t="s">
-        <v>2839</v>
-      </c>
-      <c r="E538" s="1" t="s">
-        <v>2840</v>
-      </c>
-      <c r="F538" s="1" t="s">
-        <v>2841</v>
-      </c>
-      <c r="H538" s="1" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A539" s="1" t="s">
-        <v>2843</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>2844</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>2845</v>
-      </c>
-      <c r="D539" s="1" t="s">
-        <v>2846</v>
-      </c>
-      <c r="E539" s="1" t="s">
-        <v>2847</v>
-      </c>
-      <c r="F539" s="1" t="s">
-        <v>2848</v>
-      </c>
-      <c r="H539" s="1" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8" s="1" customFormat="1"/>
-    <row r="541" spans="1:8" s="1" customFormat="1"/>
-    <row r="542" spans="1:8" s="1" customFormat="1"/>
-    <row r="543" spans="1:8" s="1" customFormat="1"/>
-    <row r="544" spans="1:8" s="1" customFormat="1"/>
-    <row r="545" spans="1:8" s="1" customFormat="1"/>
-    <row r="546" spans="1:8" s="1" customFormat="1"/>
-    <row r="547" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A547" s="1" t="s">
-        <v>2850</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>2851</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>2852</v>
-      </c>
-      <c r="D547" s="1" t="s">
-        <v>2853</v>
-      </c>
-      <c r="E547" s="1" t="s">
-        <v>2854</v>
-      </c>
-      <c r="F547" s="1" t="s">
-        <v>2855</v>
-      </c>
-      <c r="H547" s="1" t="s">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A548" s="1" t="s">
-        <v>2857</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>2858</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>2859</v>
-      </c>
-      <c r="D548" s="1" t="s">
-        <v>2860</v>
-      </c>
-      <c r="E548" s="1" t="s">
-        <v>2861</v>
-      </c>
-      <c r="F548" s="1" t="s">
-        <v>2862</v>
-      </c>
-      <c r="H548" s="1" t="s">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8" s="1" customFormat="1"/>
-    <row r="550" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A550" s="1" t="s">
-        <v>2864</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>2866</v>
-      </c>
-      <c r="F550" s="1" t="s">
-        <v>2867</v>
-      </c>
-      <c r="H550" s="1" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A551" s="1" t="s">
-        <v>2869</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>2870</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>2871</v>
-      </c>
-      <c r="D551" s="1" t="s">
-        <v>2872</v>
-      </c>
-      <c r="E551" s="1" t="s">
-        <v>2873</v>
-      </c>
-      <c r="F551" s="1" t="s">
-        <v>2874</v>
-      </c>
-      <c r="H551" s="1" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A552" s="1" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>2877</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="F552" s="1" t="s">
-        <v>2879</v>
-      </c>
-      <c r="H552" s="1" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A553" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>2883</v>
-      </c>
-      <c r="D553" s="1" t="s">
-        <v>2884</v>
-      </c>
-      <c r="F553" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="G553" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H553" s="1" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A554" s="1" t="s">
-        <v>2887</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="F554" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="G554" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H554" s="1" t="s">
-        <v>2890</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A555" s="1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>2893</v>
-      </c>
-      <c r="F555" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="G555" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H555" s="1" t="s">
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8" s="1" customFormat="1"/>
-    <row r="557" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A557" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>2896</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>2897</v>
-      </c>
-      <c r="D557" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="E557" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="F557" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="H557" s="1" t="s">
-        <v>2901</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A558" s="1" t="s">
-        <v>2902</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="D558" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="F558" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="G558" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H558" s="1" t="s">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A559" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="D559" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="E559" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="F559" s="1" t="s">
-        <v>2913</v>
-      </c>
-      <c r="H559" s="1" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A560" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>2916</v>
-      </c>
-      <c r="C560" s="1" t="s">
-        <v>2917</v>
-      </c>
-      <c r="D560" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="E560" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="F560" s="1" t="s">
-        <v>2920</v>
-      </c>
-      <c r="H560" s="1" t="s">
-        <v>2921</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A561" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="D561" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="F561" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="H561" s="1" t="s">
-        <v>2927</v>
-      </c>
-    </row>
-    <row r="562" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A562" s="1" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>2929</v>
-      </c>
-      <c r="C562" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="D562" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="F562" s="1" t="s">
-        <v>2932</v>
-      </c>
-      <c r="G562" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H562" s="1" t="s">
-        <v>2933</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A563" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>2935</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="D563" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="E563" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="F563" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="H563" s="1" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A564" s="1" t="s">
-        <v>2941</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>2942</v>
-      </c>
-      <c r="C564" s="1" t="s">
-        <v>2943</v>
-      </c>
-      <c r="D564" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="E564" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="F564" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="H564" s="1" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="565" spans="1:8" s="1" customFormat="1"/>
-    <row r="566" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A566" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="C566" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="D566" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="E566" s="1" t="s">
-        <v>2952</v>
-      </c>
-      <c r="F566" s="1" t="s">
-        <v>2953</v>
-      </c>
-      <c r="H566" s="1" t="s">
-        <v>2954</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A567" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="D567" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="F567" s="1" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8" s="1" customFormat="1"/>
-    <row r="569" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A569" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>2962</v>
-      </c>
-      <c r="F569" s="1" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A570" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="C570" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D570" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="E570" s="1" t="s">
-        <v>2967</v>
-      </c>
-      <c r="F570" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H570" s="1" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A571" s="1" t="s">
-        <v>2969</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>2970</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="D571" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E571" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="F571" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H571" s="1" t="s">
-        <v>2974</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A572" s="1" t="s">
-        <v>2975</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>2976</v>
-      </c>
-      <c r="C572" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="D572" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="E572" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="F572" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="H572" s="1" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A573" s="1" t="s">
-        <v>2981</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>2982</v>
-      </c>
-      <c r="C573" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="D573" s="1" t="s">
-        <v>2984</v>
-      </c>
-      <c r="E573" s="1" t="s">
-        <v>2985</v>
-      </c>
-      <c r="F573" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H573" s="1" t="s">
-        <v>2986</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A574" s="1" t="s">
-        <v>2987</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="C574" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="D574" s="1" t="s">
-        <v>2990</v>
-      </c>
-      <c r="E574" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="F574" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H574" s="1" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A575" s="1" t="s">
-        <v>2993</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>2994</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>2995</v>
-      </c>
-      <c r="D575" s="1" t="s">
-        <v>2996</v>
-      </c>
-      <c r="F575" s="1" t="s">
-        <v>2997</v>
       </c>
     </row>
   </sheetData>
